--- a/data/TablesZhangetal2017_11_28_EN_21.xlsx
+++ b/data/TablesZhangetal2017_11_28_EN_21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanin\Documents\GitHub\Forest_and_water\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7C421D6-3FE5-4C9D-B397-B9F7673D4F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F422A5-E0D0-4356-AFDB-455CD5F3B869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
   </bookViews>
   <sheets>
     <sheet name="TablesZhangetal2017_large" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5085" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5113" uniqueCount="930">
   <si>
     <t>Watershed #</t>
   </si>
@@ -2914,6 +2914,12 @@
     <t>Time study from Bosch and Hawlett 1982. Paper from them sayas 80% increase in runoff after 8 yrs treatment. In Hibbert 1971 says Watershed F was not
 treated until 1969 and was not included in that study</t>
   </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>paper?</t>
+  </si>
 </sst>
 </file>
 
@@ -2922,7 +2928,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3023,6 +3029,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF00313C"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -3114,7 +3126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -3298,11 +3310,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7129,10 +7148,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C628113C-78B0-4B5D-8B46-887DA17257C6}">
   <dimension ref="A1:S252"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="F236" sqref="F236"/>
+      <selection pane="bottomLeft" activeCell="C218" sqref="C218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="10" x14ac:dyDescent="0.25"/>
@@ -20702,7 +20721,7 @@
   <dimension ref="A1:V256"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27328,37 +27347,37 @@
       </c>
     </row>
     <row r="112" spans="1:21" s="8" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="74">
+      <c r="A112" s="75">
         <v>276</v>
       </c>
-      <c r="B112" s="74" t="s">
+      <c r="B112" s="75" t="s">
         <v>467</v>
       </c>
-      <c r="C112" s="74">
+      <c r="C112" s="75">
         <v>0.39</v>
       </c>
-      <c r="D112" s="74">
+      <c r="D112" s="75">
         <v>638</v>
       </c>
-      <c r="E112" s="74" t="s">
+      <c r="E112" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" s="74">
+      <c r="F112" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" s="75">
         <v>-100</v>
       </c>
-      <c r="H112" s="74">
+      <c r="H112" s="75">
         <v>227.6</v>
       </c>
-      <c r="I112" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="J112" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="K112" s="74" t="s">
+      <c r="I112" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="J112" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="K112" s="75" t="s">
         <v>468</v>
       </c>
       <c r="L112" s="23"/>
@@ -27719,7 +27738,7 @@
       <c r="O118" s="8">
         <v>8</v>
       </c>
-      <c r="P118" s="75" t="s">
+      <c r="P118" s="76" t="s">
         <v>927</v>
       </c>
       <c r="Q118" s="8">
@@ -33389,7 +33408,7 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="P214" s="73" t="s">
+      <c r="P214" s="74" t="s">
         <v>907</v>
       </c>
       <c r="Q214" s="8">
@@ -35733,10 +35752,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD75620-6F76-4BA6-A94E-CE93109D006F}">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35749,7 +35768,7 @@
     <col min="16" max="16" width="4.453125" style="22" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
@@ -35807,11 +35826,14 @@
       <c r="S1" s="72" t="s">
         <v>795</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="72" t="s">
+        <v>779</v>
+      </c>
+      <c r="U1" s="73" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="66"/>
       <c r="B2" s="66"/>
       <c r="C2" s="66"/>
@@ -35831,9 +35853,13 @@
       <c r="Q2" s="71"/>
       <c r="R2" s="71"/>
       <c r="S2" s="72"/>
-      <c r="T2" s="71"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T2" s="72"/>
+      <c r="U2" s="77" t="s">
+        <v>928</v>
+      </c>
+      <c r="V2" s="73"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>313</v>
       </c>
@@ -35885,8 +35911,14 @@
       <c r="R3">
         <v>2008</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="S3" t="s">
+        <v>588</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>314</v>
       </c>
@@ -35938,8 +35970,14 @@
       <c r="R4">
         <v>2008</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="S4" t="s">
+        <v>588</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>315</v>
       </c>
@@ -35991,8 +36029,14 @@
       <c r="R5">
         <v>2000</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="S5" t="s">
+        <v>588</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>316</v>
       </c>
@@ -36044,8 +36088,14 @@
       <c r="R6">
         <v>2007</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="S6" t="s">
+        <v>588</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>317</v>
       </c>
@@ -36097,8 +36147,14 @@
       <c r="R7">
         <v>2009</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="S7" t="s">
+        <v>588</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>318</v>
       </c>
@@ -36150,8 +36206,14 @@
       <c r="R8">
         <v>2009</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="S8" t="s">
+        <v>588</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>319</v>
       </c>
@@ -36203,8 +36265,14 @@
       <c r="R9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="S9" t="s">
+        <v>588</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>320</v>
       </c>
@@ -36256,8 +36324,14 @@
       <c r="R10">
         <v>2008</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="S10" t="s">
+        <v>588</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>321</v>
       </c>
@@ -36309,8 +36383,14 @@
       <c r="R11">
         <v>2008</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="S11" t="s">
+        <v>588</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>322</v>
       </c>
@@ -36362,8 +36442,14 @@
       <c r="R12">
         <v>2005</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="S12" t="s">
+        <v>588</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>323</v>
       </c>
@@ -36415,8 +36501,14 @@
       <c r="R13">
         <v>2005</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S13" t="s">
+        <v>588</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>324</v>
       </c>
@@ -36471,11 +36563,17 @@
       <c r="R14" s="8">
         <v>2005</v>
       </c>
+      <c r="S14" t="s">
+        <v>588</v>
+      </c>
       <c r="T14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>325</v>
       </c>
@@ -36527,8 +36625,14 @@
       <c r="R15">
         <v>1999</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="S15" t="s">
+        <v>588</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>326</v>
       </c>
@@ -36580,8 +36684,14 @@
       <c r="R16">
         <v>2008</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="S16" t="s">
+        <v>588</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>327</v>
       </c>
@@ -36633,8 +36743,14 @@
       <c r="R17">
         <v>2008</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="S17" t="s">
+        <v>588</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>328</v>
       </c>
@@ -36676,7 +36792,7 @@
         <v>116.003923121299</v>
       </c>
       <c r="O18" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P18" s="41"/>
       <c r="Q18" s="8">
@@ -36685,11 +36801,17 @@
       <c r="R18" s="8">
         <v>1983</v>
       </c>
-      <c r="T18" s="8">
+      <c r="S18" t="s">
+        <v>588</v>
+      </c>
+      <c r="T18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="U18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>329</v>
       </c>
@@ -36738,8 +36860,14 @@
       <c r="P19" s="22" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="S19" t="s">
+        <v>697</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>330</v>
       </c>
@@ -36788,8 +36916,20 @@
       <c r="P20" s="22" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="Q20">
+        <v>1993</v>
+      </c>
+      <c r="R20">
+        <v>2006</v>
+      </c>
+      <c r="S20" t="s">
+        <v>697</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>331</v>
       </c>
@@ -36838,8 +36978,20 @@
       <c r="P21" s="22" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="Q21">
+        <v>1974</v>
+      </c>
+      <c r="R21">
+        <v>1997</v>
+      </c>
+      <c r="S21" t="s">
+        <v>588</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>332</v>
       </c>
@@ -36888,8 +37040,20 @@
       <c r="P22" s="22" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Q22">
+        <v>1980</v>
+      </c>
+      <c r="R22">
+        <v>2000</v>
+      </c>
+      <c r="S22" t="s">
+        <v>588</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>333</v>
       </c>
@@ -36935,8 +37099,20 @@
       <c r="O23">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="Q23">
+        <v>1979</v>
+      </c>
+      <c r="R23">
+        <v>2007</v>
+      </c>
+      <c r="S23" t="s">
+        <v>697</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>334</v>
       </c>
@@ -36985,11 +37161,23 @@
       <c r="P24" s="22" t="s">
         <v>558</v>
       </c>
+      <c r="Q24">
+        <v>1979</v>
+      </c>
+      <c r="R24">
+        <v>2007</v>
+      </c>
+      <c r="S24" t="s">
+        <v>697</v>
+      </c>
       <c r="T24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="87" x14ac:dyDescent="0.35">
+      <c r="U24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>335</v>
       </c>
@@ -37038,8 +37226,20 @@
       <c r="P25" s="22" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="Q25">
+        <v>1991</v>
+      </c>
+      <c r="R25">
+        <v>2004</v>
+      </c>
+      <c r="S25" t="s">
+        <v>567</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>336</v>
       </c>
@@ -37089,8 +37289,20 @@
       <c r="P26" s="22" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q26" s="78">
+        <v>1982</v>
+      </c>
+      <c r="R26">
+        <v>2003</v>
+      </c>
+      <c r="S26" t="s">
+        <v>697</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>337</v>
       </c>
@@ -37106,22 +37318,22 @@
       <c r="E27" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27">
         <v>-32</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="3" t="s">
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" t="s">
         <v>171</v>
       </c>
       <c r="L27">
@@ -37138,8 +37350,20 @@
       <c r="P27" s="22" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" ht="203" x14ac:dyDescent="0.35">
+      <c r="Q27">
+        <v>1972</v>
+      </c>
+      <c r="R27">
+        <v>1988</v>
+      </c>
+      <c r="S27" t="s">
+        <v>567</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>204</v>
       </c>
@@ -37194,14 +37418,17 @@
       <c r="S28" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="K29" t="s">
         <v>767</v>
       </c>
       <c r="N29" s="34"/>
     </row>
-    <row r="30" spans="1:20" s="35" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" s="35" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="44">
         <v>205</v>
       </c>
@@ -37258,8 +37485,11 @@
       <c r="S30" s="10" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>206</v>
       </c>
@@ -37269,8 +37499,11 @@
       <c r="C31">
         <v>5800</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K31" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>207</v>
       </c>
@@ -37400,6 +37633,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/TablesZhangetal2017_11_28_EN_21.xlsx
+++ b/data/TablesZhangetal2017_11_28_EN_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rver4657\Dropbox (Sydney Uni)\Research\Forest_and_water\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200BB12C-7034-4D2D-AE06-951E66B819D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2F1CC1-B453-4DF5-A60E-6A712E828C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="3" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5214" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5221" uniqueCount="951">
   <si>
     <t>Watershed #</t>
   </si>
@@ -2978,6 +2978,12 @@
   </si>
   <si>
     <t>Pitman 1978 from Filoso et al. 2017</t>
+  </si>
+  <si>
+    <t>Valtorto</t>
+  </si>
+  <si>
+    <t>Stoof et al. 2012 https://hess.copernicus.org/articles/16/267/2012/. Rainfall and Et calculated as the average of the reported data in Table 3 in the paper</t>
   </si>
 </sst>
 </file>
@@ -3354,13 +3360,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3372,13 +3381,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -20706,7 +20712,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="39.4" thickBot="1">
+    <row r="252" spans="1:19" ht="49.15" thickBot="1">
       <c r="A252" s="55">
         <v>312</v>
       </c>
@@ -35820,10 +35826,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD75620-6F76-4BA6-A94E-CE93109D006F}">
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="S47" sqref="S47"/>
+      <selection activeCell="O46" sqref="O46:O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -35837,34 +35843,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="75" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="70" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="72" t="s">
@@ -35885,16 +35891,16 @@
       <c r="P1" s="72" t="s">
         <v>541</v>
       </c>
-      <c r="Q1" s="70" t="s">
+      <c r="Q1" s="77" t="s">
         <v>683</v>
       </c>
-      <c r="R1" s="70" t="s">
+      <c r="R1" s="77" t="s">
         <v>684</v>
       </c>
-      <c r="S1" s="71" t="s">
+      <c r="S1" s="78" t="s">
         <v>918</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="78" t="s">
         <v>776</v>
       </c>
       <c r="U1" s="64" t="s">
@@ -35902,26 +35908,26 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
       <c r="U2" s="68" t="s">
         <v>916</v>
       </c>
@@ -37633,7 +37639,7 @@
         <v>-83.214777799999993</v>
       </c>
       <c r="O31">
-        <f t="shared" ref="O31:O46" si="0">R31-Q31</f>
+        <f t="shared" ref="O31:O47" si="0">R31-Q31</f>
         <v>71</v>
       </c>
       <c r="Q31">
@@ -38413,20 +38419,65 @@
         <v>566</v>
       </c>
     </row>
+    <row r="47" spans="1:19">
+      <c r="A47">
+        <v>223</v>
+      </c>
+      <c r="B47" t="s">
+        <v>949</v>
+      </c>
+      <c r="C47">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="D47">
+        <f>SUM(1/(199/365)*878,1352,1/(265/365)*1069,1568)/4</f>
+        <v>1500.6995591163363</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47">
+        <v>-100</v>
+      </c>
+      <c r="H47">
+        <v>60</v>
+      </c>
+      <c r="I47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" t="s">
+        <v>950</v>
+      </c>
+      <c r="L47">
+        <f>40+6/60+21/3600</f>
+        <v>40.105833333333337</v>
+      </c>
+      <c r="M47">
+        <f>8+7/60+3/3600</f>
+        <v>8.1174999999999997</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q47">
+        <v>2008</v>
+      </c>
+      <c r="R47">
+        <v>2010</v>
+      </c>
+      <c r="S47" t="s">
+        <v>566</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
@@ -38435,6 +38486,18 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/TablesZhangetal2017_11_28_EN_21.xlsx
+++ b/data/TablesZhangetal2017_11_28_EN_21.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AADE45-F1D4-43FA-9E26-5C8B96BA7875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977E85DF-7362-42E2-8FAE-BD81931F5C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
   </bookViews>
@@ -24,7 +24,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'curated data_small'!$T$1:$T$254</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5317" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5270" uniqueCount="1001">
   <si>
     <t>Watershed #</t>
   </si>
@@ -2868,10 +2867,6 @@
     <t>There is not watershed 2 in Patric 1980, only 3 and 4. Extracted from Reihart et al 1963</t>
   </si>
   <si>
-    <t>Time study from Bosch and Hawlett 1982. Paper from them sayas 80% increase in runoff after 8 yrs treatment. In Hibbert 1971 says Watershed F was not
-treated until 1969 and was not included in that study</t>
-  </si>
-  <si>
     <t>Complete</t>
   </si>
   <si>
@@ -2977,18 +2972,6 @@
     <t>Stoof et al. 2012 https://hess.copernicus.org/articles/16/267/2012/. Rainfall and Et calculated as the average of the reported data in Table 3 in the paper</t>
   </si>
   <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>S Small , L large</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>wkt_geom</t>
   </si>
   <si>
@@ -3146,6 +3129,9 @@
   </si>
   <si>
     <t xml:space="preserve">Hibbert,1971 does not report this catchment Location as Natural Drainage Watersheds in Central Arizona. From Bosch and Hawlett 1982, treatment: 1954, 100% chemically controlled. Ingebo and Hibbert 1974 reports an incrase of 13% in water yield, meanwhile Bosch and Hawlett 1982 saysonly "not significantly". </t>
+  </si>
+  <si>
+    <t>Time study from Bosch and Hawlett 1982. Paper from them sayas 80% increase in runoff after 8 yrs treatment. In Hibbert 1971 says Watershed F was not treated until 1969 and was not included in that study</t>
   </si>
 </sst>
 </file>
@@ -3512,16 +3498,17 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3533,16 +3520,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3935,7 +3921,7 @@
         <v>682</v>
       </c>
       <c r="S1" s="48" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="57.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3998,7 +3984,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7603,7 +7589,7 @@
       <c r="K2" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="74">
+      <c r="L2" s="65">
         <v>947</v>
       </c>
       <c r="M2" s="52">
@@ -7662,7 +7648,7 @@
       <c r="K3" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="L3" s="74">
+      <c r="L3" s="65">
         <v>937</v>
       </c>
       <c r="M3" s="52">
@@ -7721,7 +7707,7 @@
       <c r="K4" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="L4" s="74">
+      <c r="L4" s="65">
         <v>1431</v>
       </c>
       <c r="M4" s="53">
@@ -7777,7 +7763,7 @@
       <c r="K5" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="L5" s="74">
+      <c r="L5" s="65">
         <v>1431</v>
       </c>
       <c r="M5" s="53">
@@ -7833,7 +7819,7 @@
       <c r="K6" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="L6" s="74">
+      <c r="L6" s="65">
         <v>1856</v>
       </c>
       <c r="M6" s="52">
@@ -7889,7 +7875,7 @@
       <c r="K7" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="L7" s="74">
+      <c r="L7" s="65">
         <v>1967</v>
       </c>
       <c r="M7" s="52">
@@ -7948,7 +7934,7 @@
       <c r="K8" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="L8" s="74">
+      <c r="L8" s="65">
         <v>1447</v>
       </c>
       <c r="M8" s="52">
@@ -8007,7 +7993,7 @@
       <c r="K9" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="L9" s="74">
+      <c r="L9" s="65">
         <v>1447</v>
       </c>
       <c r="M9" s="52">
@@ -8066,7 +8052,7 @@
       <c r="K10" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="L10" s="74">
+      <c r="L10" s="65">
         <v>537</v>
       </c>
       <c r="M10" s="52">
@@ -8125,7 +8111,7 @@
       <c r="K11" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="L11" s="74">
+      <c r="L11" s="65">
         <v>682</v>
       </c>
       <c r="M11" s="52">
@@ -8184,7 +8170,7 @@
       <c r="K12" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="L12" s="74">
+      <c r="L12" s="65">
         <v>1507</v>
       </c>
       <c r="M12" s="52">
@@ -8237,7 +8223,7 @@
       <c r="K13" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="L13" s="74">
+      <c r="L13" s="65">
         <v>1682</v>
       </c>
       <c r="M13" s="52">
@@ -8296,7 +8282,7 @@
       <c r="K14" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="L14" s="74">
+      <c r="L14" s="65">
         <v>1431</v>
       </c>
       <c r="M14" s="52">
@@ -8352,7 +8338,7 @@
       <c r="K15" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="L15" s="74">
+      <c r="L15" s="65">
         <v>510</v>
       </c>
       <c r="M15" s="52">
@@ -8408,7 +8394,7 @@
       <c r="K16" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="L16" s="74">
+      <c r="L16" s="65">
         <v>2252</v>
       </c>
       <c r="M16" s="52">
@@ -8467,7 +8453,7 @@
       <c r="K17" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="L17" s="74">
+      <c r="L17" s="65">
         <v>1667</v>
       </c>
       <c r="M17" s="52">
@@ -8526,7 +8512,7 @@
       <c r="K18" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="L18" s="74">
+      <c r="L18" s="65">
         <v>1241</v>
       </c>
       <c r="M18" s="52">
@@ -8585,7 +8571,7 @@
       <c r="K19" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="L19" s="74">
+      <c r="L19" s="65">
         <v>1241</v>
       </c>
       <c r="M19" s="52">
@@ -8644,7 +8630,7 @@
       <c r="K20" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="L20" s="74">
+      <c r="L20" s="65">
         <v>1195</v>
       </c>
       <c r="M20" s="52">
@@ -8700,7 +8686,7 @@
       <c r="K21" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="L21" s="74">
+      <c r="L21" s="65">
         <v>1195</v>
       </c>
       <c r="M21" s="52">
@@ -8756,7 +8742,7 @@
       <c r="K22" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="L22" s="74">
+      <c r="L22" s="65">
         <v>1195</v>
       </c>
       <c r="M22" s="52">
@@ -8812,7 +8798,7 @@
       <c r="K23" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="L23" s="74">
+      <c r="L23" s="65">
         <v>1507</v>
       </c>
       <c r="M23" s="52">
@@ -8865,7 +8851,7 @@
       <c r="K24" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="L24" s="74">
+      <c r="L24" s="65">
         <v>529</v>
       </c>
       <c r="M24" s="52">
@@ -8918,7 +8904,7 @@
       <c r="K25" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="L25" s="74">
+      <c r="L25" s="65">
         <v>1687</v>
       </c>
       <c r="M25" s="52">
@@ -8974,7 +8960,7 @@
       <c r="K26" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="L26" s="74">
+      <c r="L26" s="65">
         <v>870</v>
       </c>
       <c r="M26" s="52">
@@ -9030,7 +9016,7 @@
       <c r="K27" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="L27" s="74">
+      <c r="L27" s="65">
         <v>870</v>
       </c>
       <c r="M27" s="52">
@@ -9086,7 +9072,7 @@
       <c r="K28" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="L28" s="74">
+      <c r="L28" s="65">
         <v>925</v>
       </c>
       <c r="M28" s="52">
@@ -9145,7 +9131,7 @@
       <c r="K29" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="L29" s="74">
+      <c r="L29" s="65">
         <v>1834</v>
       </c>
       <c r="M29" s="52">
@@ -9204,7 +9190,7 @@
       <c r="K30" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="L30" s="74">
+      <c r="L30" s="65">
         <v>2067</v>
       </c>
       <c r="M30" s="52">
@@ -9263,7 +9249,7 @@
       <c r="K31" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="L31" s="74">
+      <c r="L31" s="65">
         <v>1053</v>
       </c>
       <c r="M31" s="52">
@@ -9319,7 +9305,7 @@
       <c r="K32" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="L32" s="74">
+      <c r="L32" s="65">
         <v>1591</v>
       </c>
       <c r="M32" s="52">
@@ -9378,7 +9364,7 @@
       <c r="K33" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="L33" s="74">
+      <c r="L33" s="65">
         <v>1446</v>
       </c>
       <c r="M33" s="52">
@@ -9434,7 +9420,7 @@
       <c r="K34" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="L34" s="74"/>
+      <c r="L34" s="65"/>
       <c r="M34" s="52">
         <v>-29</v>
       </c>
@@ -9491,7 +9477,7 @@
       <c r="K35" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="L35" s="74">
+      <c r="L35" s="65">
         <v>975</v>
       </c>
       <c r="M35" s="52">
@@ -9547,7 +9533,7 @@
       <c r="K36" s="50" t="s">
         <v>840</v>
       </c>
-      <c r="L36" s="74">
+      <c r="L36" s="65">
         <v>1814</v>
       </c>
       <c r="M36" s="52">
@@ -9603,7 +9589,7 @@
       <c r="K37" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="L37" s="74">
+      <c r="L37" s="65">
         <v>1811</v>
       </c>
       <c r="M37" s="52">
@@ -9662,7 +9648,7 @@
       <c r="K38" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="L38" s="74">
+      <c r="L38" s="65">
         <v>1371</v>
       </c>
       <c r="M38" s="52">
@@ -9715,7 +9701,7 @@
       <c r="K39" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="L39" s="74">
+      <c r="L39" s="65">
         <v>1371</v>
       </c>
       <c r="M39" s="52">
@@ -9768,7 +9754,7 @@
       <c r="K40" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="L40" s="74">
+      <c r="L40" s="65">
         <v>1507</v>
       </c>
       <c r="M40" s="52">
@@ -9821,7 +9807,7 @@
       <c r="K41" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="L41" s="74">
+      <c r="L41" s="65">
         <v>692</v>
       </c>
       <c r="M41" s="52">
@@ -9874,7 +9860,7 @@
       <c r="K42" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="L42" s="74">
+      <c r="L42" s="65">
         <v>974</v>
       </c>
       <c r="M42" s="52">
@@ -9924,7 +9910,7 @@
       <c r="K43" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="L43" s="74">
+      <c r="L43" s="65">
         <v>1507</v>
       </c>
       <c r="M43" s="52">
@@ -9977,7 +9963,7 @@
       <c r="K44" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="L44" s="74">
+      <c r="L44" s="65">
         <v>1717</v>
       </c>
       <c r="M44" s="52">
@@ -10036,7 +10022,7 @@
       <c r="K45" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="L45" s="74">
+      <c r="L45" s="65">
         <v>1281</v>
       </c>
       <c r="M45" s="52">
@@ -10095,7 +10081,7 @@
       <c r="K46" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="L46" s="74">
+      <c r="L46" s="65">
         <v>1302</v>
       </c>
       <c r="M46" s="52">
@@ -10151,7 +10137,7 @@
       <c r="K47" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="L47" s="74">
+      <c r="L47" s="65">
         <v>1306</v>
       </c>
       <c r="M47" s="52">
@@ -10201,7 +10187,7 @@
       <c r="K48" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="L48" s="74">
+      <c r="L48" s="65">
         <v>1302</v>
       </c>
       <c r="M48" s="52">
@@ -10257,7 +10243,7 @@
       <c r="K49" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="L49" s="74">
+      <c r="L49" s="65">
         <v>1302</v>
       </c>
       <c r="M49" s="52">
@@ -10313,7 +10299,7 @@
       <c r="K50" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="L50" s="74">
+      <c r="L50" s="65">
         <v>1306</v>
       </c>
       <c r="M50" s="52">
@@ -10369,7 +10355,7 @@
       <c r="K51" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="L51" s="74">
+      <c r="L51" s="65">
         <v>1167</v>
       </c>
       <c r="M51" s="52">
@@ -10428,7 +10414,7 @@
       <c r="K52" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="L52" s="74">
+      <c r="L52" s="65">
         <v>1069</v>
       </c>
       <c r="M52" s="52">
@@ -10484,7 +10470,7 @@
       <c r="K53" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="L53" s="74">
+      <c r="L53" s="65">
         <v>1302</v>
       </c>
       <c r="M53" s="52">
@@ -10534,7 +10520,7 @@
       <c r="K54" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="L54" s="74">
+      <c r="L54" s="65">
         <v>1302</v>
       </c>
       <c r="M54" s="52">
@@ -10590,7 +10576,7 @@
       <c r="K55" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="L55" s="74">
+      <c r="L55" s="65">
         <v>1263</v>
       </c>
       <c r="M55" s="52">
@@ -10649,7 +10635,7 @@
       <c r="K56" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="L56" s="74">
+      <c r="L56" s="65">
         <v>1306</v>
       </c>
       <c r="M56" s="52">
@@ -10708,7 +10694,7 @@
       <c r="K57" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="L57" s="74">
+      <c r="L57" s="65">
         <v>1205</v>
       </c>
       <c r="M57" s="52">
@@ -10767,7 +10753,7 @@
       <c r="K58" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="L58" s="74">
+      <c r="L58" s="65">
         <v>1302</v>
       </c>
       <c r="M58" s="52">
@@ -10823,7 +10809,7 @@
       <c r="K59" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="L59" s="74">
+      <c r="L59" s="65">
         <v>1180</v>
       </c>
       <c r="M59" s="52">
@@ -10879,7 +10865,7 @@
       <c r="K60" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="L60" s="74">
+      <c r="L60" s="65">
         <v>1736</v>
       </c>
       <c r="M60" s="52">
@@ -10926,7 +10912,7 @@
       <c r="K61" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="L61" s="74">
+      <c r="L61" s="65">
         <v>1736</v>
       </c>
       <c r="M61" s="52">
@@ -10982,7 +10968,7 @@
       <c r="K62" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="L62" s="74">
+      <c r="L62" s="65">
         <v>1259</v>
       </c>
       <c r="M62" s="52">
@@ -11038,7 +11024,7 @@
       <c r="K63" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="L63" s="74">
+      <c r="L63" s="65">
         <v>1848</v>
       </c>
       <c r="M63" s="52">
@@ -11097,7 +11083,7 @@
       <c r="K64" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="L64" s="74">
+      <c r="L64" s="65">
         <v>790</v>
       </c>
       <c r="M64" s="52">
@@ -11153,7 +11139,7 @@
       <c r="K65" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="L65" s="74">
+      <c r="L65" s="65">
         <v>1320</v>
       </c>
       <c r="M65" s="52">
@@ -11206,7 +11192,7 @@
       <c r="K66" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="L66" s="74">
+      <c r="L66" s="65">
         <v>1165</v>
       </c>
       <c r="M66" s="52">
@@ -11262,7 +11248,7 @@
       <c r="K67" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="L67" s="74">
+      <c r="L67" s="65">
         <v>1747</v>
       </c>
       <c r="M67" s="52">
@@ -11318,7 +11304,7 @@
       <c r="K68" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="L68" s="74">
+      <c r="L68" s="65">
         <v>1696</v>
       </c>
       <c r="M68" s="52">
@@ -11377,7 +11363,7 @@
       <c r="K69" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="L69" s="74">
+      <c r="L69" s="65">
         <v>1066</v>
       </c>
       <c r="M69" s="52">
@@ -11436,7 +11422,7 @@
       <c r="K70" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="L70" s="74">
+      <c r="L70" s="65">
         <v>1680</v>
       </c>
       <c r="M70" s="52">
@@ -11495,7 +11481,7 @@
       <c r="K71" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="L71" s="74">
+      <c r="L71" s="65">
         <v>1232</v>
       </c>
       <c r="M71" s="52">
@@ -11554,7 +11540,7 @@
       <c r="K72" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="L72" s="74">
+      <c r="L72" s="65">
         <v>1825</v>
       </c>
       <c r="M72" s="52">
@@ -11613,7 +11599,7 @@
       <c r="K73" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="L73" s="74">
+      <c r="L73" s="65">
         <v>1241</v>
       </c>
       <c r="M73" s="52">
@@ -11666,7 +11652,7 @@
       <c r="K74" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="L74" s="74">
+      <c r="L74" s="65">
         <v>1241</v>
       </c>
       <c r="M74" s="52">
@@ -11722,7 +11708,7 @@
       <c r="K75" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="L75" s="74">
+      <c r="L75" s="65">
         <v>1089</v>
       </c>
       <c r="M75" s="52">
@@ -11775,7 +11761,7 @@
       <c r="K76" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="L76" s="74">
+      <c r="L76" s="65">
         <v>1241</v>
       </c>
       <c r="M76" s="52">
@@ -11828,7 +11814,7 @@
       <c r="K77" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="L77" s="74">
+      <c r="L77" s="65">
         <v>1241</v>
       </c>
       <c r="M77" s="52">
@@ -11884,7 +11870,7 @@
       <c r="K78" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="L78" s="74">
+      <c r="L78" s="65">
         <v>1241</v>
       </c>
       <c r="M78" s="52">
@@ -11937,7 +11923,7 @@
       <c r="K79" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="L79" s="74">
+      <c r="L79" s="65">
         <v>1091</v>
       </c>
       <c r="M79" s="52">
@@ -11996,7 +11982,7 @@
       <c r="K80" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="L80" s="74">
+      <c r="L80" s="65">
         <v>1089</v>
       </c>
       <c r="M80" s="52">
@@ -12049,7 +12035,7 @@
       <c r="K81" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="L81" s="74">
+      <c r="L81" s="65">
         <v>1241</v>
       </c>
       <c r="M81" s="52">
@@ -12102,7 +12088,7 @@
       <c r="K82" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="L82" s="74">
+      <c r="L82" s="65">
         <v>1091</v>
       </c>
       <c r="M82" s="52">
@@ -12161,7 +12147,7 @@
       <c r="K83" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="L83" s="74">
+      <c r="L83" s="65">
         <v>1089</v>
       </c>
       <c r="M83" s="52">
@@ -12217,7 +12203,7 @@
       <c r="K84" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="L84" s="74">
+      <c r="L84" s="65">
         <v>1089</v>
       </c>
       <c r="M84" s="52">
@@ -12276,7 +12262,7 @@
       <c r="K85" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="L85" s="74">
+      <c r="L85" s="65">
         <v>1089</v>
       </c>
       <c r="M85" s="52">
@@ -12335,7 +12321,7 @@
       <c r="K86" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="L86" s="74">
+      <c r="L86" s="65">
         <v>1089</v>
       </c>
       <c r="M86" s="52">
@@ -12391,7 +12377,7 @@
       <c r="K87" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="L87" s="74">
+      <c r="L87" s="65">
         <v>1089</v>
       </c>
       <c r="M87" s="52">
@@ -12447,7 +12433,7 @@
       <c r="K88" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="L88" s="74">
+      <c r="L88" s="65">
         <v>1089</v>
       </c>
       <c r="M88" s="52">
@@ -12506,7 +12492,7 @@
       <c r="K89" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="L89" s="74">
+      <c r="L89" s="65">
         <v>1089</v>
       </c>
       <c r="M89" s="52">
@@ -12565,7 +12551,7 @@
       <c r="K90" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="L90" s="74">
+      <c r="L90" s="65">
         <v>1437</v>
       </c>
       <c r="M90" s="52">
@@ -12624,7 +12610,7 @@
       <c r="K91" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="L91" s="74">
+      <c r="L91" s="65">
         <v>1165</v>
       </c>
       <c r="M91" s="52">
@@ -12683,7 +12669,7 @@
       <c r="K92" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="L92" s="74">
+      <c r="L92" s="65">
         <v>1165</v>
       </c>
       <c r="M92" s="52">
@@ -12742,7 +12728,7 @@
       <c r="K93" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="L93" s="74">
+      <c r="L93" s="65">
         <v>1246</v>
       </c>
       <c r="M93" s="52">
@@ -12801,7 +12787,7 @@
       <c r="K94" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="L94" s="74">
+      <c r="L94" s="65">
         <v>1190</v>
       </c>
       <c r="M94" s="52">
@@ -12857,7 +12843,7 @@
       <c r="K95" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="L95" s="74">
+      <c r="L95" s="65">
         <v>1190</v>
       </c>
       <c r="M95" s="52">
@@ -12916,7 +12902,7 @@
       <c r="K96" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="L96" s="74">
+      <c r="L96" s="65">
         <v>1246</v>
       </c>
       <c r="M96" s="52">
@@ -12975,7 +12961,7 @@
       <c r="K97" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="L97" s="74">
+      <c r="L97" s="65">
         <v>1246</v>
       </c>
       <c r="M97" s="52">
@@ -13034,7 +13020,7 @@
       <c r="K98" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="L98" s="74">
+      <c r="L98" s="65">
         <v>1165</v>
       </c>
       <c r="M98" s="52">
@@ -13082,7 +13068,7 @@
       <c r="K99" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="L99" s="74">
+      <c r="L99" s="65">
         <v>1287</v>
       </c>
       <c r="M99" s="52">
@@ -13138,7 +13124,7 @@
       <c r="K100" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="L100" s="74">
+      <c r="L100" s="65">
         <v>1287</v>
       </c>
       <c r="M100" s="52">
@@ -13194,7 +13180,7 @@
       <c r="K101" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="L101" s="74">
+      <c r="L101" s="65">
         <v>1882</v>
       </c>
       <c r="M101" s="52">
@@ -13253,7 +13239,7 @@
       <c r="K102" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="L102" s="74">
+      <c r="L102" s="65">
         <v>1795</v>
       </c>
       <c r="M102" s="52">
@@ -13312,7 +13298,7 @@
       <c r="K103" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="L103" s="74">
+      <c r="L103" s="65">
         <v>1777</v>
       </c>
       <c r="M103" s="52">
@@ -13371,7 +13357,7 @@
       <c r="K104" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="L104" s="74">
+      <c r="L104" s="65">
         <v>1549</v>
       </c>
       <c r="M104" s="52">
@@ -13430,7 +13416,7 @@
       <c r="K105" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="L105" s="74">
+      <c r="L105" s="65">
         <v>1287</v>
       </c>
       <c r="M105" s="52">
@@ -13486,7 +13472,7 @@
       <c r="K106" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="L106" s="74">
+      <c r="L106" s="65">
         <v>599</v>
       </c>
       <c r="M106" s="52">
@@ -13542,7 +13528,7 @@
       <c r="K107" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="L107" s="74">
+      <c r="L107" s="65">
         <v>1920</v>
       </c>
       <c r="M107" s="52">
@@ -13598,7 +13584,7 @@
       <c r="K108" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="L108" s="74">
+      <c r="L108" s="65">
         <v>1393</v>
       </c>
       <c r="M108" s="52">
@@ -13657,7 +13643,7 @@
       <c r="K109" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="L109" s="74">
+      <c r="L109" s="65">
         <v>1393</v>
       </c>
       <c r="M109" s="52">
@@ -13713,7 +13699,7 @@
       <c r="K110" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="L110" s="74">
+      <c r="L110" s="65">
         <v>1398</v>
       </c>
       <c r="M110" s="52">
@@ -13772,7 +13758,7 @@
       <c r="K111" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="L111" s="74">
+      <c r="L111" s="65">
         <v>1397</v>
       </c>
       <c r="M111" s="52">
@@ -13828,7 +13814,7 @@
       <c r="K112" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="L112" s="74">
+      <c r="L112" s="65">
         <v>1217</v>
       </c>
       <c r="M112" s="44">
@@ -13884,7 +13870,7 @@
       <c r="K113" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="L113" s="74">
+      <c r="L113" s="65">
         <v>1217</v>
       </c>
       <c r="M113" s="24">
@@ -13934,7 +13920,7 @@
       <c r="K114" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="L114" s="74">
+      <c r="L114" s="65">
         <v>1217</v>
       </c>
       <c r="M114" s="52">
@@ -13990,7 +13976,7 @@
       <c r="K115" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="L115" s="74">
+      <c r="L115" s="65">
         <v>1217</v>
       </c>
       <c r="M115" s="24">
@@ -14040,7 +14026,7 @@
       <c r="K116" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="L116" s="74">
+      <c r="L116" s="65">
         <v>1217</v>
       </c>
       <c r="M116" s="24">
@@ -14090,7 +14076,7 @@
       <c r="K117" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="L117" s="74">
+      <c r="L117" s="65">
         <v>599</v>
       </c>
       <c r="M117" s="52">
@@ -14146,7 +14132,7 @@
       <c r="K118" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="L118" s="74">
+      <c r="L118" s="65">
         <v>1134</v>
       </c>
       <c r="M118" s="52">
@@ -14199,7 +14185,7 @@
       <c r="K119" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="L119" s="74">
+      <c r="L119" s="65">
         <v>938</v>
       </c>
       <c r="M119" s="52">
@@ -14258,7 +14244,7 @@
       <c r="K120" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="L120" s="74">
+      <c r="L120" s="65">
         <v>938</v>
       </c>
       <c r="M120" s="52">
@@ -14317,7 +14303,7 @@
       <c r="K121" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="L121" s="74">
+      <c r="L121" s="65">
         <v>1789</v>
       </c>
       <c r="M121" s="52">
@@ -14376,7 +14362,7 @@
       <c r="K122" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="L122" s="74">
+      <c r="L122" s="65">
         <v>1507</v>
       </c>
       <c r="M122" s="52">
@@ -14429,7 +14415,7 @@
       <c r="K123" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="L123" s="74">
+      <c r="L123" s="65">
         <v>1156</v>
       </c>
       <c r="M123" s="52">
@@ -14485,7 +14471,7 @@
       <c r="K124" s="44" t="s">
         <v>320</v>
       </c>
-      <c r="L124" s="74">
+      <c r="L124" s="65">
         <v>1687</v>
       </c>
       <c r="M124" s="52">
@@ -14583,7 +14569,7 @@
       <c r="K126" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="L126" s="74">
+      <c r="L126" s="65">
         <v>596</v>
       </c>
       <c r="M126" s="52">
@@ -14639,7 +14625,7 @@
       <c r="K127" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="L127" s="74">
+      <c r="L127" s="65">
         <v>1530</v>
       </c>
       <c r="M127" s="52">
@@ -14698,7 +14684,7 @@
       <c r="K128" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="L128" s="74">
+      <c r="L128" s="65">
         <v>1458</v>
       </c>
       <c r="M128" s="52">
@@ -14754,7 +14740,7 @@
       <c r="K129" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="L129" s="74">
+      <c r="L129" s="65">
         <v>1458</v>
       </c>
       <c r="M129" s="52">
@@ -14804,7 +14790,7 @@
       <c r="K130" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="L130" s="74">
+      <c r="L130" s="65">
         <v>599</v>
       </c>
       <c r="M130" s="52">
@@ -14860,7 +14846,7 @@
       <c r="K131" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="L131" s="74">
+      <c r="L131" s="65">
         <v>1507</v>
       </c>
       <c r="M131" s="52">
@@ -14913,7 +14899,7 @@
       <c r="K132" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="L132" s="74">
+      <c r="L132" s="65">
         <v>1219</v>
       </c>
       <c r="M132" s="52">
@@ -14969,7 +14955,7 @@
       <c r="K133" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="L133" s="74">
+      <c r="L133" s="65">
         <v>1391</v>
       </c>
       <c r="M133" s="52">
@@ -15025,7 +15011,7 @@
       <c r="K134" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="L134" s="74">
+      <c r="L134" s="65">
         <v>1670</v>
       </c>
       <c r="M134" s="52">
@@ -15081,7 +15067,7 @@
       <c r="K135" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="L135" s="74">
+      <c r="L135" s="65">
         <v>1292</v>
       </c>
       <c r="M135" s="52">
@@ -15131,7 +15117,7 @@
       <c r="K136" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="L136" s="74">
+      <c r="L136" s="65">
         <v>1111</v>
       </c>
       <c r="M136" s="52">
@@ -15191,8 +15177,8 @@
         <v>135</v>
       </c>
       <c r="L137"/>
-      <c r="M137" s="75"/>
-      <c r="N137" s="75"/>
+      <c r="M137" s="66"/>
+      <c r="N137" s="66"/>
       <c r="P137" s="51" t="s">
         <v>831</v>
       </c>
@@ -15231,7 +15217,7 @@
       <c r="K138" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="L138" s="74">
+      <c r="L138" s="65">
         <v>3140</v>
       </c>
       <c r="M138" s="52">
@@ -15284,7 +15270,7 @@
       <c r="K139" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="L139" s="74">
+      <c r="L139" s="65">
         <v>1656</v>
       </c>
       <c r="M139" s="52">
@@ -15343,7 +15329,7 @@
       <c r="K140" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="L140" s="74">
+      <c r="L140" s="65">
         <v>2209</v>
       </c>
       <c r="M140" s="52">
@@ -15399,7 +15385,7 @@
       <c r="K141" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="L141" s="74">
+      <c r="L141" s="65">
         <v>1183</v>
       </c>
       <c r="M141" s="52">
@@ -15452,7 +15438,7 @@
       <c r="K142" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="L142" s="74">
+      <c r="L142" s="65">
         <v>914</v>
       </c>
       <c r="M142" s="52">
@@ -15505,7 +15491,7 @@
       <c r="K143" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="L143" s="74"/>
+      <c r="L143" s="65"/>
       <c r="M143" s="52">
         <v>12.666666666666666</v>
       </c>
@@ -15559,7 +15545,7 @@
       <c r="K144" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="L144" s="74">
+      <c r="L144" s="65">
         <v>780</v>
       </c>
       <c r="M144" s="52">
@@ -15618,7 +15604,7 @@
       <c r="K145" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="L145" s="74">
+      <c r="L145" s="65">
         <v>1265</v>
       </c>
       <c r="M145" s="52">
@@ -15671,7 +15657,7 @@
       <c r="K146" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="L146" s="74">
+      <c r="L146" s="65">
         <v>2194</v>
       </c>
       <c r="M146" s="52">
@@ -15724,13 +15710,13 @@
       <c r="K147" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="L147" s="74">
+      <c r="L147" s="65">
         <v>1121</v>
       </c>
-      <c r="M147" s="75">
+      <c r="M147" s="66">
         <v>-42.160676000000002</v>
       </c>
-      <c r="N147" s="75">
+      <c r="N147" s="66">
         <v>171.73598200000001</v>
       </c>
       <c r="P147" s="51" t="s">
@@ -15771,13 +15757,13 @@
       <c r="K148" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="L148" s="74">
+      <c r="L148" s="65">
         <v>1121</v>
       </c>
-      <c r="M148" s="75">
+      <c r="M148" s="66">
         <v>-42.160676000000002</v>
       </c>
-      <c r="N148" s="75">
+      <c r="N148" s="66">
         <v>171.73598200000001</v>
       </c>
       <c r="P148" s="51" t="s">
@@ -15816,9 +15802,9 @@
         <v>16</v>
       </c>
       <c r="K149" s="24" t="s">
-        <v>934</v>
-      </c>
-      <c r="L149" s="74">
+        <v>933</v>
+      </c>
+      <c r="L149" s="65">
         <v>899</v>
       </c>
       <c r="M149" s="52">
@@ -15877,7 +15863,7 @@
       <c r="K150" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="L150" s="74">
+      <c r="L150" s="65">
         <v>1540</v>
       </c>
       <c r="M150" s="52">
@@ -15933,7 +15919,7 @@
       <c r="K151" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="L151" s="74">
+      <c r="L151" s="65">
         <v>1433</v>
       </c>
       <c r="M151" s="52">
@@ -15986,7 +15972,7 @@
       <c r="K152" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="L152" s="74">
+      <c r="L152" s="65">
         <v>1641</v>
       </c>
       <c r="M152" s="52">
@@ -16042,7 +16028,7 @@
       <c r="K153" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="L153" s="74">
+      <c r="L153" s="65">
         <v>1241</v>
       </c>
       <c r="M153" s="52">
@@ -16098,7 +16084,7 @@
       <c r="K154" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="L154" s="74">
+      <c r="L154" s="65">
         <v>1241</v>
       </c>
       <c r="M154" s="52">
@@ -16154,7 +16140,7 @@
       <c r="K155" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="L155" s="74">
+      <c r="L155" s="65">
         <v>1241</v>
       </c>
       <c r="M155" s="52">
@@ -16210,7 +16196,7 @@
       <c r="K156" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="L156" s="74">
+      <c r="L156" s="65">
         <v>1223</v>
       </c>
       <c r="M156" s="52">
@@ -16266,7 +16252,7 @@
       <c r="K157" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="L157" s="74">
+      <c r="L157" s="65">
         <v>1061</v>
       </c>
       <c r="M157" s="52">
@@ -16322,7 +16308,7 @@
       <c r="K158" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="L158" s="74">
+      <c r="L158" s="65">
         <v>1228</v>
       </c>
       <c r="M158" s="52">
@@ -16378,7 +16364,7 @@
       <c r="K159" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="L159" s="74">
+      <c r="L159" s="65">
         <v>1241</v>
       </c>
       <c r="M159" s="52">
@@ -16437,7 +16423,7 @@
       <c r="K160" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="L160" s="74">
+      <c r="L160" s="65">
         <v>2087</v>
       </c>
       <c r="M160" s="52">
@@ -16496,7 +16482,7 @@
       <c r="K161" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="L161" s="74">
+      <c r="L161" s="65">
         <v>1849</v>
       </c>
       <c r="M161" s="52">
@@ -16555,7 +16541,7 @@
       <c r="K162" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="L162" s="74">
+      <c r="L162" s="65">
         <v>1165</v>
       </c>
       <c r="M162" s="52">
@@ -16612,9 +16598,9 @@
         <v>16</v>
       </c>
       <c r="K163" s="24" t="s">
-        <v>935</v>
-      </c>
-      <c r="L163" s="74">
+        <v>934</v>
+      </c>
+      <c r="L163" s="65">
         <v>1165</v>
       </c>
       <c r="M163" s="52">
@@ -16673,7 +16659,7 @@
       <c r="K164" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="L164" s="74">
+      <c r="L164" s="65">
         <v>1179</v>
       </c>
       <c r="M164" s="52">
@@ -16732,7 +16718,7 @@
       <c r="K165" s="24" t="s">
         <v>389</v>
       </c>
-      <c r="L165" s="74">
+      <c r="L165" s="65">
         <v>2701</v>
       </c>
       <c r="M165" s="52">
@@ -16791,7 +16777,7 @@
       <c r="K166" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="L166" s="74">
+      <c r="L166" s="65">
         <v>2701</v>
       </c>
       <c r="M166" s="52">
@@ -16841,7 +16827,7 @@
       <c r="K167" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="L167" s="74">
+      <c r="L167" s="65">
         <v>937</v>
       </c>
       <c r="M167" s="52">
@@ -16897,7 +16883,7 @@
       <c r="K168" s="49" t="s">
         <v>762</v>
       </c>
-      <c r="L168" s="74">
+      <c r="L168" s="65">
         <v>1543</v>
       </c>
       <c r="M168" s="52">
@@ -16953,7 +16939,7 @@
       <c r="K169" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="L169" s="74">
+      <c r="L169" s="65">
         <v>928</v>
       </c>
       <c r="M169" s="52">
@@ -17003,7 +16989,7 @@
       <c r="K170" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="L170" s="74"/>
+      <c r="L170" s="65"/>
       <c r="M170" s="52">
         <v>18.004166666666666</v>
       </c>
@@ -17057,7 +17043,7 @@
       <c r="K171" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="L171" s="74">
+      <c r="L171" s="65">
         <v>1219</v>
       </c>
       <c r="M171" s="52">
@@ -17113,7 +17099,7 @@
       <c r="K172" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="L172" s="74">
+      <c r="L172" s="65">
         <v>1491</v>
       </c>
       <c r="M172" s="52">
@@ -17172,7 +17158,7 @@
       <c r="K173" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="L173" s="74">
+      <c r="L173" s="65">
         <v>1429</v>
       </c>
       <c r="M173" s="24">
@@ -17225,7 +17211,7 @@
       <c r="K174" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="L174" s="74">
+      <c r="L174" s="65">
         <v>1429</v>
       </c>
       <c r="M174" s="24">
@@ -17278,7 +17264,7 @@
       <c r="K175" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="L175" s="74">
+      <c r="L175" s="65">
         <v>1429</v>
       </c>
       <c r="M175" s="24">
@@ -17331,7 +17317,7 @@
       <c r="K176" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="L176" s="74"/>
+      <c r="L176" s="65"/>
       <c r="M176" s="52">
         <v>38.983333000000002</v>
       </c>
@@ -17385,7 +17371,7 @@
       <c r="K177" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="L177" s="74">
+      <c r="L177" s="65">
         <v>1429</v>
       </c>
       <c r="M177" s="24">
@@ -17438,7 +17424,7 @@
       <c r="K178" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="L178" s="74">
+      <c r="L178" s="65">
         <v>1491</v>
       </c>
       <c r="M178" s="52">
@@ -17497,7 +17483,7 @@
       <c r="K179" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="L179" s="74">
+      <c r="L179" s="65">
         <v>1287</v>
       </c>
       <c r="M179" s="52">
@@ -17553,7 +17539,7 @@
       <c r="K180" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="L180" s="74">
+      <c r="L180" s="65">
         <v>1287</v>
       </c>
       <c r="M180" s="52">
@@ -17609,7 +17595,7 @@
       <c r="K181" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="L181" s="74">
+      <c r="L181" s="65">
         <v>1372</v>
       </c>
       <c r="M181" s="52">
@@ -17665,7 +17651,7 @@
       <c r="K182" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="L182" s="74">
+      <c r="L182" s="65">
         <v>1408</v>
       </c>
       <c r="M182" s="55">
@@ -17721,7 +17707,7 @@
       <c r="K183" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="L183" s="74"/>
+      <c r="L183" s="65"/>
       <c r="M183" s="52">
         <v>38.983333000000002</v>
       </c>
@@ -17775,7 +17761,7 @@
       <c r="K184" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="L184" s="74">
+      <c r="L184" s="65">
         <v>1767</v>
       </c>
       <c r="M184" s="52">
@@ -17834,7 +17820,7 @@
       <c r="K185" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="L185" s="74">
+      <c r="L185" s="65">
         <v>1037</v>
       </c>
       <c r="M185" s="52">
@@ -17890,7 +17876,7 @@
       <c r="K186" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="L186" s="74">
+      <c r="L186" s="65">
         <v>1070</v>
       </c>
       <c r="M186" s="52">
@@ -17946,7 +17932,7 @@
       <c r="K187" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="L187" s="74"/>
+      <c r="L187" s="65"/>
       <c r="M187" s="52">
         <v>18.298950000000001</v>
       </c>
@@ -18000,7 +17986,7 @@
       <c r="K188" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="L188" s="74">
+      <c r="L188" s="65">
         <v>1625</v>
       </c>
       <c r="M188" s="52">
@@ -18056,7 +18042,7 @@
       <c r="K189" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="L189" s="74">
+      <c r="L189" s="65">
         <v>1393</v>
       </c>
       <c r="M189" s="52">
@@ -18112,7 +18098,7 @@
       <c r="K190" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="L190" s="74"/>
+      <c r="L190" s="65"/>
       <c r="M190" s="52">
         <v>43.066667000000002</v>
       </c>
@@ -18166,7 +18152,7 @@
       <c r="K191" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="L191" s="74"/>
+      <c r="L191" s="65"/>
       <c r="M191" s="52">
         <v>-33.839837000000003</v>
       </c>
@@ -18223,7 +18209,7 @@
       <c r="K192" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="L192" s="74">
+      <c r="L192" s="65">
         <v>1466</v>
       </c>
       <c r="M192" s="52">
@@ -18279,7 +18265,7 @@
       <c r="K193" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="L193" s="74">
+      <c r="L193" s="65">
         <v>1466</v>
       </c>
       <c r="M193" s="52">
@@ -18335,7 +18321,7 @@
       <c r="K194" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="L194" s="74">
+      <c r="L194" s="65">
         <v>1641</v>
       </c>
       <c r="M194" s="52">
@@ -18391,7 +18377,7 @@
       <c r="K195" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="L195" s="74">
+      <c r="L195" s="65">
         <v>2072</v>
       </c>
       <c r="M195" s="52">
@@ -18444,7 +18430,7 @@
       <c r="K196" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="L196" s="74">
+      <c r="L196" s="65">
         <v>1913</v>
       </c>
       <c r="M196" s="52">
@@ -18503,7 +18489,7 @@
       <c r="K197" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="L197" s="74">
+      <c r="L197" s="65">
         <v>1829</v>
       </c>
       <c r="M197" s="52">
@@ -18562,7 +18548,7 @@
       <c r="K198" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="L198" s="74">
+      <c r="L198" s="65">
         <v>602</v>
       </c>
       <c r="M198" s="52">
@@ -18621,7 +18607,7 @@
       <c r="K199" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="L199" s="74">
+      <c r="L199" s="65">
         <v>950</v>
       </c>
       <c r="M199" s="52">
@@ -18680,7 +18666,7 @@
       <c r="K200" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="L200" s="74">
+      <c r="L200" s="65">
         <v>2087</v>
       </c>
       <c r="M200" s="52">
@@ -18739,7 +18725,7 @@
       <c r="K201" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="L201" s="74">
+      <c r="L201" s="65">
         <v>1159</v>
       </c>
       <c r="M201" s="52">
@@ -18795,7 +18781,7 @@
       <c r="K202" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="L202" s="74">
+      <c r="L202" s="65">
         <v>924</v>
       </c>
       <c r="M202" s="52">
@@ -18845,7 +18831,7 @@
       <c r="K203" s="44" t="s">
         <v>448</v>
       </c>
-      <c r="L203" s="74">
+      <c r="L203" s="65">
         <v>1185</v>
       </c>
       <c r="M203" s="52">
@@ -18901,7 +18887,7 @@
       <c r="K204" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L204" s="74">
+      <c r="L204" s="65">
         <v>1108</v>
       </c>
       <c r="M204" s="52">
@@ -18960,7 +18946,7 @@
       <c r="K205" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L205" s="74">
+      <c r="L205" s="65">
         <v>1246</v>
       </c>
       <c r="M205" s="52">
@@ -19019,7 +19005,7 @@
       <c r="K206" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="L206" s="74">
+      <c r="L206" s="65">
         <v>939</v>
       </c>
       <c r="M206" s="52">
@@ -19069,7 +19055,7 @@
       <c r="K207" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="L207" s="74">
+      <c r="L207" s="65">
         <v>1391</v>
       </c>
       <c r="M207" s="52">
@@ -19119,7 +19105,7 @@
       <c r="K208" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="L208" s="74">
+      <c r="L208" s="65">
         <v>1287</v>
       </c>
       <c r="M208" s="52">
@@ -19178,7 +19164,7 @@
       <c r="K209" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="L209" s="74">
+      <c r="L209" s="65">
         <v>1646</v>
       </c>
       <c r="M209" s="52">
@@ -19237,7 +19223,7 @@
       <c r="K210" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="L210" s="74">
+      <c r="L210" s="65">
         <v>873</v>
       </c>
       <c r="M210" s="52">
@@ -19290,7 +19276,7 @@
       <c r="K211" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="L211" s="74">
+      <c r="L211" s="65">
         <v>1724</v>
       </c>
       <c r="M211" s="52">
@@ -19349,7 +19335,7 @@
       <c r="K212" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="L212" s="74">
+      <c r="L212" s="65">
         <v>602</v>
       </c>
       <c r="M212" s="52">
@@ -19408,7 +19394,7 @@
       <c r="K213" s="24" t="s">
         <v>461</v>
       </c>
-      <c r="L213" s="74">
+      <c r="L213" s="65">
         <v>1826</v>
       </c>
       <c r="M213" s="52">
@@ -19464,7 +19450,7 @@
       <c r="K214" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="L214" s="74">
+      <c r="L214" s="65">
         <v>1443</v>
       </c>
       <c r="M214" s="52">
@@ -19520,7 +19506,7 @@
       <c r="K215" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="L215" s="74">
+      <c r="L215" s="65">
         <v>2254</v>
       </c>
       <c r="M215" s="52">
@@ -19573,7 +19559,7 @@
       <c r="K216" s="44" t="s">
         <v>467</v>
       </c>
-      <c r="L216" s="74">
+      <c r="L216" s="65">
         <v>2254</v>
       </c>
       <c r="M216" s="52">
@@ -19623,7 +19609,7 @@
       <c r="K217" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="L217" s="74">
+      <c r="L217" s="65">
         <v>2254</v>
       </c>
       <c r="M217" s="52">
@@ -19682,7 +19668,7 @@
       <c r="K218" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="L218" s="74"/>
+      <c r="L218" s="65"/>
       <c r="M218" s="52">
         <v>-33.950000000000003</v>
       </c>
@@ -19730,7 +19716,7 @@
       <c r="K219" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="L219" s="74">
+      <c r="L219" s="65">
         <v>1358</v>
       </c>
       <c r="M219" s="52">
@@ -19786,7 +19772,7 @@
       <c r="K220" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="L220" s="74">
+      <c r="L220" s="65">
         <v>1358</v>
       </c>
       <c r="M220" s="52">
@@ -19842,7 +19828,7 @@
       <c r="K221" s="24" t="s">
         <v>473</v>
       </c>
-      <c r="L221" s="74">
+      <c r="L221" s="65">
         <v>963</v>
       </c>
       <c r="M221" s="52">
@@ -19895,7 +19881,7 @@
       <c r="K222" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="L222" s="74">
+      <c r="L222" s="65">
         <v>963</v>
       </c>
       <c r="M222" s="52">
@@ -19951,7 +19937,7 @@
       <c r="K223" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="L223" s="74">
+      <c r="L223" s="65">
         <v>1866</v>
       </c>
       <c r="M223" s="52">
@@ -20010,7 +19996,7 @@
       <c r="K224" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="L224" s="74">
+      <c r="L224" s="65">
         <v>599</v>
       </c>
       <c r="M224" s="52">
@@ -20066,7 +20052,7 @@
       <c r="K225" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="L225" s="74">
+      <c r="L225" s="65">
         <v>1168</v>
       </c>
       <c r="M225" s="52">
@@ -20122,7 +20108,7 @@
       <c r="K226" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="L226" s="74">
+      <c r="L226" s="65">
         <v>1606</v>
       </c>
       <c r="M226" s="52">
@@ -20175,7 +20161,7 @@
       <c r="K227" s="46" t="s">
         <v>481</v>
       </c>
-      <c r="L227" s="74">
+      <c r="L227" s="65">
         <v>1272</v>
       </c>
       <c r="M227" s="52">
@@ -20228,7 +20214,7 @@
       <c r="K228" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="L228" s="74">
+      <c r="L228" s="65">
         <v>1272</v>
       </c>
       <c r="M228" s="52">
@@ -20281,7 +20267,7 @@
       <c r="K229" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="L229" s="74">
+      <c r="L229" s="65">
         <v>1272</v>
       </c>
       <c r="M229" s="52">
@@ -20334,7 +20320,7 @@
       <c r="K230" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="L230" s="74">
+      <c r="L230" s="65">
         <v>1272</v>
       </c>
       <c r="M230" s="52">
@@ -20387,7 +20373,7 @@
       <c r="K231" s="24" t="s">
         <v>486</v>
       </c>
-      <c r="L231" s="74">
+      <c r="L231" s="65">
         <v>1905</v>
       </c>
       <c r="M231" s="52">
@@ -20443,7 +20429,7 @@
       <c r="K232" s="24" t="s">
         <v>488</v>
       </c>
-      <c r="L232" s="74">
+      <c r="L232" s="65">
         <v>1234</v>
       </c>
       <c r="M232" s="52">
@@ -20499,7 +20485,7 @@
       <c r="K233" s="24" t="s">
         <v>490</v>
       </c>
-      <c r="L233" s="74">
+      <c r="L233" s="65">
         <v>1005</v>
       </c>
       <c r="M233" s="52">
@@ -20555,7 +20541,7 @@
       <c r="K234" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="L234" s="74">
+      <c r="L234" s="65">
         <v>1239</v>
       </c>
       <c r="M234" s="55">
@@ -20611,7 +20597,7 @@
       <c r="K235" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="L235" s="74">
+      <c r="L235" s="65">
         <v>2256</v>
       </c>
       <c r="M235" s="52">
@@ -20670,7 +20656,7 @@
       <c r="K236" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="L236" s="74">
+      <c r="L236" s="65">
         <v>2051</v>
       </c>
       <c r="M236" s="52">
@@ -20726,7 +20712,7 @@
       <c r="K237" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="L237" s="74">
+      <c r="L237" s="65">
         <v>1404</v>
       </c>
       <c r="M237" s="52">
@@ -20782,7 +20768,7 @@
       <c r="K238" s="24" t="s">
         <v>499</v>
       </c>
-      <c r="L238" s="74">
+      <c r="L238" s="65">
         <v>1751</v>
       </c>
       <c r="M238" s="52">
@@ -20835,7 +20821,7 @@
       <c r="K239" s="24" t="s">
         <v>501</v>
       </c>
-      <c r="L239" s="74">
+      <c r="L239" s="65">
         <v>1335</v>
       </c>
       <c r="M239" s="52">
@@ -20888,7 +20874,7 @@
       <c r="K240" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="L240" s="74">
+      <c r="L240" s="65">
         <v>1404</v>
       </c>
       <c r="M240" s="52">
@@ -20944,7 +20930,7 @@
       <c r="K241" s="24" t="s">
         <v>504</v>
       </c>
-      <c r="L241" s="74">
+      <c r="L241" s="65">
         <v>1746</v>
       </c>
       <c r="M241" s="52">
@@ -20991,7 +20977,7 @@
       <c r="K242" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="L242" s="74">
+      <c r="L242" s="65">
         <v>2087</v>
       </c>
       <c r="M242" s="52">
@@ -21044,7 +21030,7 @@
       <c r="K243" s="24" t="s">
         <v>507</v>
       </c>
-      <c r="L243" s="74">
+      <c r="L243" s="65">
         <v>2087</v>
       </c>
       <c r="M243" s="52">
@@ -21094,7 +21080,7 @@
       <c r="K244" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="L244" s="74">
+      <c r="L244" s="65">
         <v>2087</v>
       </c>
       <c r="M244" s="52">
@@ -21147,7 +21133,7 @@
       <c r="K245" s="24" t="s">
         <v>511</v>
       </c>
-      <c r="L245" s="74">
+      <c r="L245" s="65">
         <v>2087</v>
       </c>
       <c r="M245" s="52">
@@ -21200,7 +21186,7 @@
       <c r="K246" s="24" t="s">
         <v>513</v>
       </c>
-      <c r="L246" s="74">
+      <c r="L246" s="65">
         <v>2087</v>
       </c>
       <c r="M246" s="52">
@@ -21253,7 +21239,7 @@
       <c r="K247" s="24" t="s">
         <v>732</v>
       </c>
-      <c r="L247" s="74">
+      <c r="L247" s="65">
         <v>1121</v>
       </c>
       <c r="M247" s="52">
@@ -21312,7 +21298,7 @@
       <c r="K248" s="24" t="s">
         <v>732</v>
       </c>
-      <c r="L248" s="74">
+      <c r="L248" s="65">
         <v>1121</v>
       </c>
       <c r="M248" s="52">
@@ -21371,7 +21357,7 @@
       <c r="K249" s="24" t="s">
         <v>732</v>
       </c>
-      <c r="L249" s="74">
+      <c r="L249" s="65">
         <v>1121</v>
       </c>
       <c r="M249" s="52">
@@ -21430,7 +21416,7 @@
       <c r="K250" s="24" t="s">
         <v>732</v>
       </c>
-      <c r="L250" s="74">
+      <c r="L250" s="65">
         <v>930</v>
       </c>
       <c r="M250" s="52">
@@ -21489,7 +21475,7 @@
       <c r="K251" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="L251" s="74">
+      <c r="L251" s="65">
         <v>1643</v>
       </c>
       <c r="M251" s="52">
@@ -21545,7 +21531,7 @@
       <c r="K252" s="49" t="s">
         <v>341</v>
       </c>
-      <c r="L252" s="74">
+      <c r="L252" s="65">
         <v>1254</v>
       </c>
       <c r="M252" s="52">
@@ -21584,8 +21570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AFE286-8638-404F-9DBC-2F4BDB10044C}">
   <dimension ref="A1:V252"/>
   <sheetViews>
-    <sheetView topLeftCell="C247" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="I248" sqref="I248"/>
+    <sheetView topLeftCell="A238" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="S218" sqref="S218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21658,7 +21644,7 @@
         <v>682</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T1" s="40" t="s">
         <v>774</v>
@@ -21701,7 +21687,7 @@
       <c r="K2" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="74">
+      <c r="L2" s="65">
         <v>947</v>
       </c>
       <c r="M2" s="52">
@@ -21765,7 +21751,7 @@
       <c r="K3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L3" s="74">
+      <c r="L3" s="65">
         <v>937</v>
       </c>
       <c r="M3" s="52">
@@ -21830,7 +21816,7 @@
       <c r="K4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L4" s="74">
+      <c r="L4" s="65">
         <v>1431</v>
       </c>
       <c r="M4" s="53">
@@ -21892,7 +21878,7 @@
       <c r="K5" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L5" s="74">
+      <c r="L5" s="65">
         <v>1431</v>
       </c>
       <c r="M5" s="53">
@@ -21954,7 +21940,7 @@
       <c r="K6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L6" s="74">
+      <c r="L6" s="65">
         <v>1856</v>
       </c>
       <c r="M6" s="52">
@@ -22017,7 +22003,7 @@
       <c r="K7" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="L7" s="74">
+      <c r="L7" s="65">
         <v>1967</v>
       </c>
       <c r="M7" s="52">
@@ -22081,7 +22067,7 @@
       <c r="K8" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L8" s="74">
+      <c r="L8" s="65">
         <v>1447</v>
       </c>
       <c r="M8" s="52">
@@ -22144,7 +22130,7 @@
       <c r="K9" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L9" s="74">
+      <c r="L9" s="65">
         <v>1447</v>
       </c>
       <c r="M9" s="52">
@@ -22206,7 +22192,7 @@
       <c r="K10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="L10" s="74">
+      <c r="L10" s="65">
         <v>537</v>
       </c>
       <c r="M10" s="52">
@@ -22268,7 +22254,7 @@
       <c r="K11" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="L11" s="74">
+      <c r="L11" s="65">
         <v>682</v>
       </c>
       <c r="M11" s="52">
@@ -22330,7 +22316,7 @@
       <c r="K12" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="L12" s="74">
+      <c r="L12" s="65">
         <v>1507</v>
       </c>
       <c r="M12" s="52">
@@ -22391,7 +22377,7 @@
       <c r="K13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L13" s="74">
+      <c r="L13" s="65">
         <v>1682</v>
       </c>
       <c r="M13" s="52">
@@ -22453,7 +22439,7 @@
       <c r="K14" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="L14" s="74">
+      <c r="L14" s="65">
         <v>1431</v>
       </c>
       <c r="M14" s="52">
@@ -22478,7 +22464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>75</v>
       </c>
@@ -22512,7 +22498,7 @@
       <c r="K15" s="35" t="s">
         <v>796</v>
       </c>
-      <c r="L15" s="74">
+      <c r="L15" s="65">
         <v>510</v>
       </c>
       <c r="M15" s="52">
@@ -22571,7 +22557,7 @@
       <c r="K16" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L16" s="74">
+      <c r="L16" s="65">
         <v>2252</v>
       </c>
       <c r="M16" s="52">
@@ -22634,7 +22620,7 @@
       <c r="K17" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="L17" s="74">
+      <c r="L17" s="65">
         <v>1667</v>
       </c>
       <c r="M17" s="52">
@@ -22696,7 +22682,7 @@
       <c r="K18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="L18" s="74">
+      <c r="L18" s="65">
         <v>1241</v>
       </c>
       <c r="M18" s="52">
@@ -22724,7 +22710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>79</v>
       </c>
@@ -22758,7 +22744,7 @@
       <c r="K19" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="L19" s="74">
+      <c r="L19" s="65">
         <v>1241</v>
       </c>
       <c r="M19" s="52">
@@ -22820,7 +22806,7 @@
       <c r="K20" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="L20" s="74">
+      <c r="L20" s="65">
         <v>1195</v>
       </c>
       <c r="M20" s="52">
@@ -22830,7 +22816,7 @@
         <v>-118.155303331478</v>
       </c>
       <c r="O20" s="8">
-        <f>R20-Q20</f>
+        <f t="shared" ref="O20:O25" si="0">R20-Q20</f>
         <v>6</v>
       </c>
       <c r="P20" s="8" t="s">
@@ -22883,7 +22869,7 @@
       <c r="K21" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="L21" s="74">
+      <c r="L21" s="65">
         <v>1195</v>
       </c>
       <c r="M21" s="52">
@@ -22893,7 +22879,7 @@
         <v>-118.155303331478</v>
       </c>
       <c r="O21" s="8">
-        <f>R21-Q21</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P21" s="8" t="s">
@@ -22946,7 +22932,7 @@
       <c r="K22" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="L22" s="74">
+      <c r="L22" s="65">
         <v>1195</v>
       </c>
       <c r="M22" s="52">
@@ -22956,7 +22942,7 @@
         <v>-118.155303331478</v>
       </c>
       <c r="O22" s="8">
-        <f>R22-Q22</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P22" s="8" t="s">
@@ -23009,7 +22995,7 @@
       <c r="K23" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="L23" s="74">
+      <c r="L23" s="65">
         <v>1507</v>
       </c>
       <c r="M23" s="52">
@@ -23019,7 +23005,7 @@
         <v>151.72778823315099</v>
       </c>
       <c r="O23" s="8">
-        <f>R23-Q23</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="P23" s="8"/>
@@ -23070,7 +23056,7 @@
       <c r="K24" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="L24" s="74">
+      <c r="L24" s="65">
         <v>529</v>
       </c>
       <c r="M24" s="52">
@@ -23080,7 +23066,7 @@
         <v>111.77138888888889</v>
       </c>
       <c r="O24" s="8">
-        <f>R24-Q24</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P24" s="8"/>
@@ -23131,7 +23117,7 @@
       <c r="K25" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L25" s="74">
+      <c r="L25" s="65">
         <v>1687</v>
       </c>
       <c r="M25" s="52">
@@ -23141,7 +23127,7 @@
         <v>18.931111111111111</v>
       </c>
       <c r="O25" s="22">
-        <f>R25-Q25</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P25" t="s">
@@ -23197,7 +23183,7 @@
       <c r="K26" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="L26" s="74">
+      <c r="L26" s="65">
         <v>870</v>
       </c>
       <c r="M26" s="52">
@@ -23259,7 +23245,7 @@
       <c r="K27" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="L27" s="74">
+      <c r="L27" s="65">
         <v>870</v>
       </c>
       <c r="M27" s="52">
@@ -23321,7 +23307,7 @@
       <c r="K28" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="L28" s="74">
+      <c r="L28" s="65">
         <v>925</v>
       </c>
       <c r="M28" s="52">
@@ -23384,7 +23370,7 @@
       <c r="K29" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L29" s="74">
+      <c r="L29" s="65">
         <v>1834</v>
       </c>
       <c r="M29" s="52">
@@ -23446,7 +23432,7 @@
       <c r="K30" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L30" s="74">
+      <c r="L30" s="65">
         <v>2067</v>
       </c>
       <c r="M30" s="52">
@@ -23468,7 +23454,7 @@
         <v>1984</v>
       </c>
       <c r="S30" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="T30" s="8">
         <v>1</v>
@@ -23508,7 +23494,7 @@
       <c r="K31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L31" s="74">
+      <c r="L31" s="65">
         <v>1053</v>
       </c>
       <c r="M31" s="52">
@@ -23569,7 +23555,7 @@
       <c r="K32" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="L32" s="74">
+      <c r="L32" s="65">
         <v>1591</v>
       </c>
       <c r="M32" s="52">
@@ -23632,7 +23618,7 @@
       <c r="K33" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="L33" s="74">
+      <c r="L33" s="65">
         <v>1446</v>
       </c>
       <c r="M33" s="52">
@@ -23691,7 +23677,7 @@
       <c r="K34" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="L34" s="74"/>
+      <c r="L34" s="65"/>
       <c r="M34" s="52">
         <v>-29</v>
       </c>
@@ -23751,7 +23737,7 @@
       <c r="K35" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="L35" s="74">
+      <c r="L35" s="65">
         <v>975</v>
       </c>
       <c r="M35" s="52">
@@ -23813,7 +23799,7 @@
       <c r="K36" s="42" t="s">
         <v>840</v>
       </c>
-      <c r="L36" s="74">
+      <c r="L36" s="65">
         <v>1814</v>
       </c>
       <c r="M36" s="52">
@@ -23873,7 +23859,7 @@
       <c r="K37" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L37" s="74">
+      <c r="L37" s="65">
         <v>1811</v>
       </c>
       <c r="M37" s="52">
@@ -23935,7 +23921,7 @@
       <c r="K38" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L38" s="74">
+      <c r="L38" s="65">
         <v>1371</v>
       </c>
       <c r="M38" s="52">
@@ -23993,7 +23979,7 @@
       <c r="K39" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="L39" s="74">
+      <c r="L39" s="65">
         <v>1371</v>
       </c>
       <c r="M39" s="52">
@@ -24051,7 +24037,7 @@
       <c r="K40" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="L40" s="74">
+      <c r="L40" s="65">
         <v>1507</v>
       </c>
       <c r="M40" s="52">
@@ -24112,7 +24098,7 @@
       <c r="K41" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="L41" s="74">
+      <c r="L41" s="65">
         <v>692</v>
       </c>
       <c r="M41" s="52">
@@ -24169,7 +24155,7 @@
       <c r="K42" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="L42" s="74">
+      <c r="L42" s="65">
         <v>974</v>
       </c>
       <c r="M42" s="52">
@@ -24231,7 +24217,7 @@
       <c r="K43" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="L43" s="74">
+      <c r="L43" s="65">
         <v>1507</v>
       </c>
       <c r="M43" s="52">
@@ -24292,7 +24278,7 @@
       <c r="K44" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="L44" s="74">
+      <c r="L44" s="65">
         <v>1717</v>
       </c>
       <c r="M44" s="52">
@@ -24355,7 +24341,7 @@
       <c r="K45" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="L45" s="74">
+      <c r="L45" s="65">
         <v>1281</v>
       </c>
       <c r="M45" s="52">
@@ -24417,7 +24403,7 @@
       <c r="K46" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="L46" s="74">
+      <c r="L46" s="65">
         <v>1302</v>
       </c>
       <c r="M46" s="52">
@@ -24480,7 +24466,7 @@
       <c r="K47" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="L47" s="74">
+      <c r="L47" s="65">
         <v>1306</v>
       </c>
       <c r="M47" s="52">
@@ -24542,7 +24528,7 @@
       <c r="K48" s="35" t="s">
         <v>816</v>
       </c>
-      <c r="L48" s="74">
+      <c r="L48" s="65">
         <v>1302</v>
       </c>
       <c r="M48" s="52">
@@ -24605,7 +24591,7 @@
       <c r="K49" s="35" t="s">
         <v>815</v>
       </c>
-      <c r="L49" s="74">
+      <c r="L49" s="65">
         <v>1302</v>
       </c>
       <c r="M49" s="52">
@@ -24668,7 +24654,7 @@
       <c r="K50" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="L50" s="74">
+      <c r="L50" s="65">
         <v>1306</v>
       </c>
       <c r="M50" s="52">
@@ -24696,7 +24682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="145" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>111</v>
       </c>
@@ -24730,7 +24716,7 @@
       <c r="K51" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="L51" s="74">
+      <c r="L51" s="65">
         <v>1167</v>
       </c>
       <c r="M51" s="52">
@@ -24793,7 +24779,7 @@
       <c r="K52" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="L52" s="74">
+      <c r="L52" s="65">
         <v>1069</v>
       </c>
       <c r="M52" s="52">
@@ -24816,7 +24802,7 @@
         <v>1964</v>
       </c>
       <c r="S52" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="T52" s="8">
         <v>1</v>
@@ -24856,7 +24842,7 @@
       <c r="K53" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L53" s="74">
+      <c r="L53" s="65">
         <v>1302</v>
       </c>
       <c r="M53" s="52">
@@ -24919,7 +24905,7 @@
       <c r="K54" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L54" s="74">
+      <c r="L54" s="65">
         <v>1302</v>
       </c>
       <c r="M54" s="52">
@@ -24982,7 +24968,7 @@
       <c r="K55" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="L55" s="74">
+      <c r="L55" s="65">
         <v>1263</v>
       </c>
       <c r="M55" s="52">
@@ -25044,7 +25030,7 @@
       <c r="K56" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="L56" s="74">
+      <c r="L56" s="65">
         <v>1306</v>
       </c>
       <c r="M56" s="52">
@@ -25106,7 +25092,7 @@
       <c r="K57" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L57" s="74">
+      <c r="L57" s="65">
         <v>1205</v>
       </c>
       <c r="M57" s="52">
@@ -25168,7 +25154,7 @@
       <c r="K58" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="L58" s="74">
+      <c r="L58" s="65">
         <v>1302</v>
       </c>
       <c r="M58" s="52">
@@ -25231,7 +25217,7 @@
       <c r="K59" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="L59" s="74">
+      <c r="L59" s="65">
         <v>1180</v>
       </c>
       <c r="M59" s="52">
@@ -25290,7 +25276,7 @@
       <c r="K60" s="35" t="s">
         <v>849</v>
       </c>
-      <c r="L60" s="74">
+      <c r="L60" s="65">
         <v>1736</v>
       </c>
       <c r="M60" s="52">
@@ -25352,7 +25338,7 @@
       <c r="K61" s="35" t="s">
         <v>849</v>
       </c>
-      <c r="L61" s="74">
+      <c r="L61" s="65">
         <v>1736</v>
       </c>
       <c r="M61" s="52">
@@ -25414,7 +25400,7 @@
       <c r="K62" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="L62" s="74">
+      <c r="L62" s="65">
         <v>1259</v>
       </c>
       <c r="M62" s="52">
@@ -25474,7 +25460,7 @@
       <c r="K63" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L63" s="74">
+      <c r="L63" s="65">
         <v>1848</v>
       </c>
       <c r="M63" s="52">
@@ -25536,7 +25522,7 @@
       <c r="K64" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="L64" s="74">
+      <c r="L64" s="65">
         <v>790</v>
       </c>
       <c r="M64" s="52">
@@ -25598,7 +25584,7 @@
       <c r="K65" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="L65" s="74">
+      <c r="L65" s="65">
         <v>1320</v>
       </c>
       <c r="M65" s="52">
@@ -25659,7 +25645,7 @@
       <c r="K66" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="L66" s="74">
+      <c r="L66" s="65">
         <v>1165</v>
       </c>
       <c r="M66" s="52">
@@ -25718,7 +25704,7 @@
       <c r="K67" s="43" t="s">
         <v>852</v>
       </c>
-      <c r="L67" s="74">
+      <c r="L67" s="65">
         <v>1747</v>
       </c>
       <c r="M67" s="52">
@@ -25780,7 +25766,7 @@
       <c r="K68" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L68" s="74">
+      <c r="L68" s="65">
         <v>1696</v>
       </c>
       <c r="M68" s="52">
@@ -25842,7 +25828,7 @@
       <c r="K69" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="L69" s="74">
+      <c r="L69" s="65">
         <v>1066</v>
       </c>
       <c r="M69" s="52">
@@ -25904,7 +25890,7 @@
       <c r="K70" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="L70" s="74">
+      <c r="L70" s="65">
         <v>1680</v>
       </c>
       <c r="M70" s="52">
@@ -25966,7 +25952,7 @@
       <c r="K71" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="L71" s="74">
+      <c r="L71" s="65">
         <v>1232</v>
       </c>
       <c r="M71" s="52">
@@ -26028,7 +26014,7 @@
       <c r="K72" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L72" s="74">
+      <c r="L72" s="65">
         <v>1825</v>
       </c>
       <c r="M72" s="52">
@@ -26090,7 +26076,7 @@
       <c r="K73" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="L73" s="74">
+      <c r="L73" s="65">
         <v>1241</v>
       </c>
       <c r="M73" s="52">
@@ -26149,7 +26135,7 @@
       <c r="K74" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="L74" s="74">
+      <c r="L74" s="65">
         <v>1241</v>
       </c>
       <c r="M74" s="52">
@@ -26208,7 +26194,7 @@
       <c r="K75" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="L75" s="74">
+      <c r="L75" s="65">
         <v>1089</v>
       </c>
       <c r="M75" s="52">
@@ -26267,7 +26253,7 @@
       <c r="K76" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="L76" s="74">
+      <c r="L76" s="65">
         <v>1241</v>
       </c>
       <c r="M76" s="52">
@@ -26326,7 +26312,7 @@
       <c r="K77" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="L77" s="74">
+      <c r="L77" s="65">
         <v>1241</v>
       </c>
       <c r="M77" s="52">
@@ -26385,7 +26371,7 @@
       <c r="K78" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="L78" s="74">
+      <c r="L78" s="65">
         <v>1241</v>
       </c>
       <c r="M78" s="52">
@@ -26444,7 +26430,7 @@
       <c r="K79" s="35" t="s">
         <v>814</v>
       </c>
-      <c r="L79" s="74">
+      <c r="L79" s="65">
         <v>1091</v>
       </c>
       <c r="M79" s="52">
@@ -26506,7 +26492,7 @@
       <c r="K80" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L80" s="74">
+      <c r="L80" s="65">
         <v>1089</v>
       </c>
       <c r="M80" s="52">
@@ -26568,7 +26554,7 @@
       <c r="K81" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="L81" s="74">
+      <c r="L81" s="65">
         <v>1241</v>
       </c>
       <c r="M81" s="52">
@@ -26631,7 +26617,7 @@
       <c r="K82" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="L82" s="74">
+      <c r="L82" s="65">
         <v>1091</v>
       </c>
       <c r="M82" s="52">
@@ -26693,7 +26679,7 @@
       <c r="K83" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="L83" s="74">
+      <c r="L83" s="65">
         <v>1089</v>
       </c>
       <c r="M83" s="52">
@@ -26755,7 +26741,7 @@
       <c r="K84" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="L84" s="74">
+      <c r="L84" s="65">
         <v>1089</v>
       </c>
       <c r="M84" s="52">
@@ -26815,7 +26801,7 @@
       <c r="K85" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="L85" s="74">
+      <c r="L85" s="65">
         <v>1089</v>
       </c>
       <c r="M85" s="52">
@@ -26877,7 +26863,7 @@
       <c r="K86" s="35" t="s">
         <v>810</v>
       </c>
-      <c r="L86" s="74">
+      <c r="L86" s="65">
         <v>1089</v>
       </c>
       <c r="M86" s="52">
@@ -26942,7 +26928,7 @@
       <c r="K87" s="35" t="s">
         <v>811</v>
       </c>
-      <c r="L87" s="74">
+      <c r="L87" s="65">
         <v>1089</v>
       </c>
       <c r="M87" s="52">
@@ -27007,7 +26993,7 @@
       <c r="K88" s="35" t="s">
         <v>812</v>
       </c>
-      <c r="L88" s="74">
+      <c r="L88" s="65">
         <v>1089</v>
       </c>
       <c r="M88" s="52">
@@ -27069,7 +27055,7 @@
       <c r="K89" s="35" t="s">
         <v>813</v>
       </c>
-      <c r="L89" s="74">
+      <c r="L89" s="65">
         <v>1089</v>
       </c>
       <c r="M89" s="52">
@@ -27131,7 +27117,7 @@
       <c r="K90" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="L90" s="74">
+      <c r="L90" s="65">
         <v>1437</v>
       </c>
       <c r="M90" s="52">
@@ -27193,7 +27179,7 @@
       <c r="K91" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="L91" s="74">
+      <c r="L91" s="65">
         <v>1165</v>
       </c>
       <c r="M91" s="52">
@@ -27258,7 +27244,7 @@
       <c r="K92" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="L92" s="74">
+      <c r="L92" s="65">
         <v>1165</v>
       </c>
       <c r="M92" s="52">
@@ -27323,7 +27309,7 @@
       <c r="K93" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="L93" s="74">
+      <c r="L93" s="65">
         <v>1246</v>
       </c>
       <c r="M93" s="52">
@@ -27389,7 +27375,7 @@
       <c r="K94" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="L94" s="74">
+      <c r="L94" s="65">
         <v>1190</v>
       </c>
       <c r="M94" s="52">
@@ -27452,7 +27438,7 @@
       <c r="K95" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="L95" s="74">
+      <c r="L95" s="65">
         <v>1190</v>
       </c>
       <c r="M95" s="52">
@@ -27515,7 +27501,7 @@
       <c r="K96" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="L96" s="74">
+      <c r="L96" s="65">
         <v>1246</v>
       </c>
       <c r="M96" s="52">
@@ -27581,7 +27567,7 @@
       <c r="K97" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="L97" s="74">
+      <c r="L97" s="65">
         <v>1246</v>
       </c>
       <c r="M97" s="52">
@@ -27647,7 +27633,7 @@
       <c r="K98" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="L98" s="74">
+      <c r="L98" s="65">
         <v>1165</v>
       </c>
       <c r="M98" s="52">
@@ -27704,7 +27690,7 @@
       <c r="K99" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="L99" s="74">
+      <c r="L99" s="65">
         <v>1287</v>
       </c>
       <c r="M99" s="52">
@@ -27767,7 +27753,7 @@
       <c r="K100" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="L100" s="74">
+      <c r="L100" s="65">
         <v>1287</v>
       </c>
       <c r="M100" s="52">
@@ -27830,7 +27816,7 @@
       <c r="K101" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L101" s="74">
+      <c r="L101" s="65">
         <v>1882</v>
       </c>
       <c r="M101" s="52">
@@ -27892,7 +27878,7 @@
       <c r="K102" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L102" s="74">
+      <c r="L102" s="65">
         <v>1795</v>
       </c>
       <c r="M102" s="52">
@@ -27954,7 +27940,7 @@
       <c r="K103" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L103" s="74">
+      <c r="L103" s="65">
         <v>1777</v>
       </c>
       <c r="M103" s="52">
@@ -27982,7 +27968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>164</v>
       </c>
@@ -28016,7 +28002,7 @@
       <c r="K104" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="L104" s="74">
+      <c r="L104" s="65">
         <v>1549</v>
       </c>
       <c r="M104" s="52">
@@ -28079,7 +28065,7 @@
       <c r="K105" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="L105" s="74">
+      <c r="L105" s="65">
         <v>1287</v>
       </c>
       <c r="M105" s="52">
@@ -28142,7 +28128,7 @@
       <c r="K106" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="L106" s="74">
+      <c r="L106" s="65">
         <v>599</v>
       </c>
       <c r="M106" s="52">
@@ -28204,7 +28190,7 @@
       <c r="K107" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="L107" s="74">
+      <c r="L107" s="65">
         <v>1920</v>
       </c>
       <c r="M107" s="52">
@@ -28263,7 +28249,7 @@
       <c r="K108" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="L108" s="74">
+      <c r="L108" s="65">
         <v>1393</v>
       </c>
       <c r="M108" s="52">
@@ -28325,7 +28311,7 @@
       <c r="K109" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="L109" s="74">
+      <c r="L109" s="65">
         <v>1393</v>
       </c>
       <c r="M109" s="52">
@@ -28384,7 +28370,7 @@
       <c r="K110" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="L110" s="74">
+      <c r="L110" s="65">
         <v>1398</v>
       </c>
       <c r="M110" s="52">
@@ -28446,7 +28432,7 @@
       <c r="K111" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="L111" s="74">
+      <c r="L111" s="65">
         <v>1397</v>
       </c>
       <c r="M111" s="52">
@@ -28505,7 +28491,7 @@
       <c r="K112" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="L112" s="74">
+      <c r="L112" s="65">
         <v>1217</v>
       </c>
       <c r="M112" s="44">
@@ -28566,7 +28552,7 @@
       <c r="K113" s="24" t="s">
         <v>910</v>
       </c>
-      <c r="L113" s="74">
+      <c r="L113" s="65">
         <v>1217</v>
       </c>
       <c r="M113" s="24">
@@ -28626,7 +28612,7 @@
       <c r="K114" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="L114" s="74">
+      <c r="L114" s="65">
         <v>1217</v>
       </c>
       <c r="M114" s="52">
@@ -28685,7 +28671,7 @@
       <c r="K115" s="24" t="s">
         <v>910</v>
       </c>
-      <c r="L115" s="74">
+      <c r="L115" s="65">
         <v>1217</v>
       </c>
       <c r="M115" s="24">
@@ -28749,7 +28735,7 @@
       <c r="K116" s="24" t="s">
         <v>910</v>
       </c>
-      <c r="L116" s="74">
+      <c r="L116" s="65">
         <v>1217</v>
       </c>
       <c r="M116" s="24">
@@ -28812,7 +28798,7 @@
       <c r="K117" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="L117" s="74">
+      <c r="L117" s="65">
         <v>599</v>
       </c>
       <c r="M117" s="52">
@@ -28874,7 +28860,7 @@
       <c r="K118" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="L118" s="74">
+      <c r="L118" s="65">
         <v>1134</v>
       </c>
       <c r="M118" s="52">
@@ -28933,7 +28919,7 @@
       <c r="K119" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="L119" s="74">
+      <c r="L119" s="65">
         <v>938</v>
       </c>
       <c r="M119" s="52">
@@ -28996,7 +28982,7 @@
       <c r="K120" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="L120" s="74">
+      <c r="L120" s="65">
         <v>938</v>
       </c>
       <c r="M120" s="52">
@@ -29059,7 +29045,7 @@
       <c r="K121" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L121" s="74">
+      <c r="L121" s="65">
         <v>1789</v>
       </c>
       <c r="M121" s="52">
@@ -29121,7 +29107,7 @@
       <c r="K122" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="L122" s="74">
+      <c r="L122" s="65">
         <v>1507</v>
       </c>
       <c r="M122" s="52">
@@ -29182,7 +29168,7 @@
       <c r="K123" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="L123" s="74">
+      <c r="L123" s="65">
         <v>1156</v>
       </c>
       <c r="M123" s="52">
@@ -29241,7 +29227,7 @@
       <c r="K124" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="L124" s="74">
+      <c r="L124" s="65">
         <v>1687</v>
       </c>
       <c r="M124" s="52">
@@ -29309,7 +29295,7 @@
       <c r="N125" s="21"/>
       <c r="O125" s="21"/>
       <c r="P125" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
@@ -29351,7 +29337,7 @@
       <c r="K126" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="L126" s="74">
+      <c r="L126" s="65">
         <v>596</v>
       </c>
       <c r="M126" s="52">
@@ -29410,7 +29396,7 @@
       <c r="K127" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="L127" s="74">
+      <c r="L127" s="65">
         <v>1530</v>
       </c>
       <c r="M127" s="52">
@@ -29472,7 +29458,7 @@
       <c r="K128" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L128" s="74">
+      <c r="L128" s="65">
         <v>1458</v>
       </c>
       <c r="M128" s="52">
@@ -29531,7 +29517,7 @@
       <c r="K129" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="L129" s="74">
+      <c r="L129" s="65">
         <v>1458</v>
       </c>
       <c r="M129" s="52">
@@ -29588,7 +29574,7 @@
       <c r="K130" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L130" s="74">
+      <c r="L130" s="65">
         <v>599</v>
       </c>
       <c r="M130" s="52">
@@ -29647,7 +29633,7 @@
       <c r="K131" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="L131" s="74">
+      <c r="L131" s="65">
         <v>1507</v>
       </c>
       <c r="M131" s="52">
@@ -29708,7 +29694,7 @@
       <c r="K132" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="L132" s="74">
+      <c r="L132" s="65">
         <v>1219</v>
       </c>
       <c r="M132" s="52">
@@ -29771,7 +29757,7 @@
       <c r="K133" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="L133" s="74">
+      <c r="L133" s="65">
         <v>1391</v>
       </c>
       <c r="M133" s="52">
@@ -29831,7 +29817,7 @@
       <c r="K134" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="L134" s="74">
+      <c r="L134" s="65">
         <v>1670</v>
       </c>
       <c r="M134" s="52">
@@ -29894,7 +29880,7 @@
       <c r="K135" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="L135" s="74">
+      <c r="L135" s="65">
         <v>1292</v>
       </c>
       <c r="M135" s="52">
@@ -29956,7 +29942,7 @@
       <c r="K136" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="L136" s="74">
+      <c r="L136" s="65">
         <v>1111</v>
       </c>
       <c r="M136" s="52">
@@ -30019,8 +30005,8 @@
         <v>135</v>
       </c>
       <c r="L137"/>
-      <c r="M137" s="75"/>
-      <c r="N137" s="75"/>
+      <c r="M137" s="66"/>
+      <c r="N137" s="66"/>
       <c r="P137" t="s">
         <v>831</v>
       </c>
@@ -30064,7 +30050,7 @@
       <c r="K138" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="L138" s="74">
+      <c r="L138" s="65">
         <v>3140</v>
       </c>
       <c r="M138" s="52">
@@ -30120,7 +30106,7 @@
       <c r="K139" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="L139" s="74">
+      <c r="L139" s="65">
         <v>1656</v>
       </c>
       <c r="M139" s="52">
@@ -30142,7 +30128,7 @@
         <v>1990</v>
       </c>
       <c r="S139" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="T139" s="8">
         <v>1</v>
@@ -30182,7 +30168,7 @@
       <c r="K140" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L140" s="74">
+      <c r="L140" s="65">
         <v>2209</v>
       </c>
       <c r="M140" s="52">
@@ -30241,7 +30227,7 @@
       <c r="K141" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="L141" s="74">
+      <c r="L141" s="65">
         <v>1183</v>
       </c>
       <c r="M141" s="52">
@@ -30299,7 +30285,7 @@
       <c r="K142" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="L142" s="74">
+      <c r="L142" s="65">
         <v>914</v>
       </c>
       <c r="M142" s="52">
@@ -30358,7 +30344,7 @@
       <c r="K143" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="L143" s="74"/>
+      <c r="L143" s="65"/>
       <c r="M143" s="52">
         <v>12.666666666666666</v>
       </c>
@@ -30416,7 +30402,7 @@
       <c r="K144" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L144" s="74">
+      <c r="L144" s="65">
         <v>780</v>
       </c>
       <c r="M144" s="52">
@@ -30478,7 +30464,7 @@
       <c r="K145" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="L145" s="74">
+      <c r="L145" s="65">
         <v>1265</v>
       </c>
       <c r="M145" s="52">
@@ -30539,7 +30525,7 @@
       <c r="K146" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="L146" s="74">
+      <c r="L146" s="65">
         <v>2194</v>
       </c>
       <c r="M146" s="52">
@@ -30599,13 +30585,13 @@
       <c r="K147" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="L147" s="74">
+      <c r="L147" s="65">
         <v>1121</v>
       </c>
-      <c r="M147" s="75">
+      <c r="M147" s="66">
         <v>-42.160676000000002</v>
       </c>
-      <c r="N147" s="75">
+      <c r="N147" s="66">
         <v>171.73598200000001</v>
       </c>
       <c r="O147">
@@ -30661,13 +30647,13 @@
       <c r="K148" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="L148" s="74">
+      <c r="L148" s="65">
         <v>1121</v>
       </c>
-      <c r="M148" s="75">
+      <c r="M148" s="66">
         <v>-42.160676000000002</v>
       </c>
-      <c r="N148" s="75">
+      <c r="N148" s="66">
         <v>171.73598200000001</v>
       </c>
       <c r="O148">
@@ -30723,7 +30709,7 @@
       <c r="K149" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="L149" s="74">
+      <c r="L149" s="65">
         <v>899</v>
       </c>
       <c r="M149" s="52">
@@ -30785,7 +30771,7 @@
       <c r="K150" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="L150" s="74">
+      <c r="L150" s="65">
         <v>1540</v>
       </c>
       <c r="M150" s="52">
@@ -30845,7 +30831,7 @@
       <c r="K151" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="L151" s="74">
+      <c r="L151" s="65">
         <v>1433</v>
       </c>
       <c r="M151" s="52">
@@ -30906,7 +30892,7 @@
       <c r="K152" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="L152" s="74">
+      <c r="L152" s="65">
         <v>1641</v>
       </c>
       <c r="M152" s="52">
@@ -30967,7 +30953,7 @@
       <c r="K153" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="L153" s="74">
+      <c r="L153" s="65">
         <v>1241</v>
       </c>
       <c r="M153" s="52">
@@ -31026,7 +31012,7 @@
       <c r="K154" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="L154" s="74">
+      <c r="L154" s="65">
         <v>1241</v>
       </c>
       <c r="M154" s="52">
@@ -31085,7 +31071,7 @@
       <c r="K155" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="L155" s="74">
+      <c r="L155" s="65">
         <v>1241</v>
       </c>
       <c r="M155" s="52">
@@ -31144,7 +31130,7 @@
       <c r="K156" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="L156" s="74">
+      <c r="L156" s="65">
         <v>1223</v>
       </c>
       <c r="M156" s="52">
@@ -31203,7 +31189,7 @@
       <c r="K157" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L157" s="74">
+      <c r="L157" s="65">
         <v>1061</v>
       </c>
       <c r="M157" s="52">
@@ -31264,7 +31250,7 @@
       <c r="K158" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L158" s="74">
+      <c r="L158" s="65">
         <v>1228</v>
       </c>
       <c r="M158" s="52">
@@ -31325,7 +31311,7 @@
       <c r="K159" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="L159" s="74">
+      <c r="L159" s="65">
         <v>1241</v>
       </c>
       <c r="M159" s="52">
@@ -31355,7 +31341,7 @@
       </c>
       <c r="U159" s="8"/>
     </row>
-    <row r="160" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:21" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>220</v>
       </c>
@@ -31389,7 +31375,7 @@
       <c r="K160" s="35" t="s">
         <v>796</v>
       </c>
-      <c r="L160" s="74">
+      <c r="L160" s="65">
         <v>2087</v>
       </c>
       <c r="M160" s="52">
@@ -31454,7 +31440,7 @@
       <c r="K161" s="24" t="s">
         <v>864</v>
       </c>
-      <c r="L161" s="74">
+      <c r="L161" s="65">
         <v>1849</v>
       </c>
       <c r="M161" s="52">
@@ -31516,7 +31502,7 @@
       <c r="K162" s="35" t="s">
         <v>818</v>
       </c>
-      <c r="L162" s="74">
+      <c r="L162" s="65">
         <v>1165</v>
       </c>
       <c r="M162" s="52">
@@ -31578,7 +31564,7 @@
       <c r="K163" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="L163" s="74">
+      <c r="L163" s="65">
         <v>1165</v>
       </c>
       <c r="M163" s="52">
@@ -31643,7 +31629,7 @@
       <c r="K164" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="L164" s="74">
+      <c r="L164" s="65">
         <v>1179</v>
       </c>
       <c r="M164" s="52">
@@ -31703,9 +31689,9 @@
         <v>16</v>
       </c>
       <c r="K165" s="24" t="s">
-        <v>1001</v>
-      </c>
-      <c r="L165" s="74">
+        <v>996</v>
+      </c>
+      <c r="L165" s="65">
         <v>2701</v>
       </c>
       <c r="M165" s="52">
@@ -31718,7 +31704,7 @@
         <v>17</v>
       </c>
       <c r="P165" s="40" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="Q165">
         <v>1954</v>
@@ -31735,7 +31721,7 @@
         <v>225</v>
       </c>
       <c r="B166" s="24" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="C166" s="1">
         <v>0.05</v>
@@ -31762,9 +31748,9 @@
         <v>16</v>
       </c>
       <c r="K166" s="24" t="s">
-        <v>1001</v>
-      </c>
-      <c r="L166" s="74">
+        <v>996</v>
+      </c>
+      <c r="L166" s="65">
         <v>2701</v>
       </c>
       <c r="M166" s="52">
@@ -31777,7 +31763,7 @@
         <v>17</v>
       </c>
       <c r="P166" s="40" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="Q166">
         <v>1954</v>
@@ -31826,7 +31812,7 @@
       <c r="K167" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="L167" s="74">
+      <c r="L167" s="65">
         <v>937</v>
       </c>
       <c r="M167" s="52">
@@ -31892,7 +31878,7 @@
       <c r="K168" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="L168" s="74">
+      <c r="L168" s="65">
         <v>1543</v>
       </c>
       <c r="M168" s="52">
@@ -31951,7 +31937,7 @@
       <c r="K169" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="L169" s="74">
+      <c r="L169" s="65">
         <v>928</v>
       </c>
       <c r="M169" s="52">
@@ -32010,7 +31996,7 @@
       <c r="K170" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="L170" s="74"/>
+      <c r="L170" s="65"/>
       <c r="M170" s="52">
         <v>18.004166666666666</v>
       </c>
@@ -32068,7 +32054,7 @@
       <c r="K171" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="L171" s="74">
+      <c r="L171" s="65">
         <v>1219</v>
       </c>
       <c r="M171" s="52">
@@ -32131,7 +32117,7 @@
       <c r="K172" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="L172" s="74">
+      <c r="L172" s="65">
         <v>1491</v>
       </c>
       <c r="M172" s="52">
@@ -32193,7 +32179,7 @@
       <c r="K173" s="24" t="s">
         <v>906</v>
       </c>
-      <c r="L173" s="74">
+      <c r="L173" s="65">
         <v>1429</v>
       </c>
       <c r="M173" s="24">
@@ -32216,7 +32202,7 @@
         <v>1983</v>
       </c>
       <c r="S173" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="T173" s="8">
         <v>1</v>
@@ -32256,7 +32242,7 @@
       <c r="K174" s="24" t="s">
         <v>906</v>
       </c>
-      <c r="L174" s="74">
+      <c r="L174" s="65">
         <v>1429</v>
       </c>
       <c r="M174" s="24">
@@ -32279,7 +32265,7 @@
         <v>1983</v>
       </c>
       <c r="S174" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="T174" s="8">
         <v>1</v>
@@ -32319,7 +32305,7 @@
       <c r="K175" s="24" t="s">
         <v>906</v>
       </c>
-      <c r="L175" s="74">
+      <c r="L175" s="65">
         <v>1429</v>
       </c>
       <c r="M175" s="24">
@@ -32342,7 +32328,7 @@
         <v>1983</v>
       </c>
       <c r="S175" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="T175" s="8">
         <v>1</v>
@@ -32382,7 +32368,7 @@
       <c r="K176" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="L176" s="74"/>
+      <c r="L176" s="65"/>
       <c r="M176" s="52">
         <v>38.983333000000002</v>
       </c>
@@ -32439,7 +32425,7 @@
       <c r="K177" s="24" t="s">
         <v>906</v>
       </c>
-      <c r="L177" s="74">
+      <c r="L177" s="65">
         <v>1429</v>
       </c>
       <c r="M177" s="24">
@@ -32462,7 +32448,7 @@
         <v>1983</v>
       </c>
       <c r="S177" s="8" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="T177" s="8">
         <v>1</v>
@@ -32502,7 +32488,7 @@
       <c r="K178" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="L178" s="74">
+      <c r="L178" s="65">
         <v>1491</v>
       </c>
       <c r="M178" s="52">
@@ -32564,7 +32550,7 @@
       <c r="K179" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="L179" s="74">
+      <c r="L179" s="65">
         <v>1287</v>
       </c>
       <c r="M179" s="52">
@@ -32627,7 +32613,7 @@
       <c r="K180" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="L180" s="74">
+      <c r="L180" s="65">
         <v>1287</v>
       </c>
       <c r="M180" s="52">
@@ -32690,7 +32676,7 @@
       <c r="K181" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="L181" s="74">
+      <c r="L181" s="65">
         <v>1372</v>
       </c>
       <c r="M181" s="52">
@@ -32751,7 +32737,7 @@
       <c r="K182" s="41" t="s">
         <v>796</v>
       </c>
-      <c r="L182" s="74">
+      <c r="L182" s="65">
         <v>1408</v>
       </c>
       <c r="M182" s="55">
@@ -32814,7 +32800,7 @@
       <c r="K183" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="L183" s="74"/>
+      <c r="L183" s="65"/>
       <c r="M183" s="52">
         <v>38.983333000000002</v>
       </c>
@@ -32871,7 +32857,7 @@
       <c r="K184" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L184" s="74">
+      <c r="L184" s="65">
         <v>1767</v>
       </c>
       <c r="M184" s="52">
@@ -32933,7 +32919,7 @@
       <c r="K185" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L185" s="74">
+      <c r="L185" s="65">
         <v>1037</v>
       </c>
       <c r="M185" s="52">
@@ -32994,7 +32980,7 @@
       <c r="K186" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L186" s="74">
+      <c r="L186" s="65">
         <v>1070</v>
       </c>
       <c r="M186" s="52">
@@ -33055,7 +33041,7 @@
       <c r="K187" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="L187" s="74"/>
+      <c r="L187" s="65"/>
       <c r="M187" s="52">
         <v>18.298950000000001</v>
       </c>
@@ -33113,7 +33099,7 @@
       <c r="K188" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="L188" s="74">
+      <c r="L188" s="65">
         <v>1625</v>
       </c>
       <c r="M188" s="52">
@@ -33172,7 +33158,7 @@
       <c r="K189" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="L189" s="74">
+      <c r="L189" s="65">
         <v>1393</v>
       </c>
       <c r="M189" s="52">
@@ -33231,7 +33217,7 @@
       <c r="K190" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="L190" s="74"/>
+      <c r="L190" s="65"/>
       <c r="M190" s="52">
         <v>43.066667000000002</v>
       </c>
@@ -33288,7 +33274,7 @@
       <c r="K191" s="35" t="s">
         <v>820</v>
       </c>
-      <c r="L191" s="74"/>
+      <c r="L191" s="65"/>
       <c r="M191" s="52">
         <v>-33.839837000000003</v>
       </c>
@@ -33348,7 +33334,7 @@
       <c r="K192" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L192" s="74">
+      <c r="L192" s="65">
         <v>1466</v>
       </c>
       <c r="M192" s="52">
@@ -33407,7 +33393,7 @@
       <c r="K193" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L193" s="74">
+      <c r="L193" s="65">
         <v>1466</v>
       </c>
       <c r="M193" s="52">
@@ -33466,7 +33452,7 @@
       <c r="K194" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L194" s="74">
+      <c r="L194" s="65">
         <v>1641</v>
       </c>
       <c r="M194" s="52">
@@ -33525,7 +33511,7 @@
       <c r="K195" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="L195" s="74">
+      <c r="L195" s="65">
         <v>2072</v>
       </c>
       <c r="M195" s="52">
@@ -33587,7 +33573,7 @@
       <c r="K196" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L196" s="74">
+      <c r="L196" s="65">
         <v>1913</v>
       </c>
       <c r="M196" s="52">
@@ -33609,7 +33595,7 @@
         <v>1990</v>
       </c>
       <c r="S196" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="T196" s="8">
         <v>1</v>
@@ -33649,7 +33635,7 @@
       <c r="K197" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="L197" s="74">
+      <c r="L197" s="65">
         <v>1829</v>
       </c>
       <c r="M197" s="52">
@@ -33671,7 +33657,7 @@
         <v>1990</v>
       </c>
       <c r="S197" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="T197" s="8">
         <v>1</v>
@@ -33711,7 +33697,7 @@
       <c r="K198" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="L198" s="74">
+      <c r="L198" s="65">
         <v>602</v>
       </c>
       <c r="M198" s="52">
@@ -33773,7 +33759,7 @@
       <c r="K199" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="L199" s="74">
+      <c r="L199" s="65">
         <v>950</v>
       </c>
       <c r="M199" s="52">
@@ -33836,7 +33822,7 @@
       <c r="K200" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="L200" s="74">
+      <c r="L200" s="65">
         <v>2087</v>
       </c>
       <c r="M200" s="52">
@@ -33901,7 +33887,7 @@
       <c r="K201" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="L201" s="74">
+      <c r="L201" s="65">
         <v>1159</v>
       </c>
       <c r="M201" s="52">
@@ -33960,7 +33946,7 @@
       <c r="K202" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="L202" s="74">
+      <c r="L202" s="65">
         <v>924</v>
       </c>
       <c r="M202" s="52">
@@ -34019,7 +34005,7 @@
       <c r="K203" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="L203" s="74">
+      <c r="L203" s="65">
         <v>1185</v>
       </c>
       <c r="M203" s="52">
@@ -34078,7 +34064,7 @@
       <c r="K204" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L204" s="74">
+      <c r="L204" s="65">
         <v>1108</v>
       </c>
       <c r="M204" s="52">
@@ -34144,7 +34130,7 @@
       <c r="K205" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L205" s="74">
+      <c r="L205" s="65">
         <v>1246</v>
       </c>
       <c r="M205" s="52">
@@ -34210,7 +34196,7 @@
       <c r="K206" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="L206" s="74">
+      <c r="L206" s="65">
         <v>939</v>
       </c>
       <c r="M206" s="52">
@@ -34269,7 +34255,7 @@
       <c r="K207" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="L207" s="74">
+      <c r="L207" s="65">
         <v>1391</v>
       </c>
       <c r="M207" s="52">
@@ -34331,7 +34317,7 @@
       <c r="K208" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="L208" s="74">
+      <c r="L208" s="65">
         <v>1287</v>
       </c>
       <c r="M208" s="52">
@@ -34393,7 +34379,7 @@
       <c r="K209" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="L209" s="74">
+      <c r="L209" s="65">
         <v>1646</v>
       </c>
       <c r="M209" s="52">
@@ -34455,7 +34441,7 @@
       <c r="K210" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="L210" s="74">
+      <c r="L210" s="65">
         <v>873</v>
       </c>
       <c r="M210" s="52">
@@ -34517,7 +34503,7 @@
       <c r="K211" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L211" s="74">
+      <c r="L211" s="65">
         <v>1724</v>
       </c>
       <c r="M211" s="52">
@@ -34579,7 +34565,7 @@
       <c r="K212" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="L212" s="74">
+      <c r="L212" s="65">
         <v>602</v>
       </c>
       <c r="M212" s="52">
@@ -34641,7 +34627,7 @@
       <c r="K213" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="L213" s="74">
+      <c r="L213" s="65">
         <v>1826</v>
       </c>
       <c r="M213" s="52">
@@ -34700,7 +34686,7 @@
       <c r="K214" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="L214" s="74">
+      <c r="L214" s="65">
         <v>1443</v>
       </c>
       <c r="M214" s="52">
@@ -34759,7 +34745,7 @@
       <c r="K215" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="L215" s="74">
+      <c r="L215" s="65">
         <v>2254</v>
       </c>
       <c r="M215" s="52">
@@ -34822,7 +34808,7 @@
       <c r="K216" s="63" t="s">
         <v>467</v>
       </c>
-      <c r="L216" s="74">
+      <c r="L216" s="65">
         <v>2254</v>
       </c>
       <c r="M216" s="52">
@@ -34883,7 +34869,7 @@
       <c r="K217" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="L217" s="74">
+      <c r="L217" s="65">
         <v>2254</v>
       </c>
       <c r="M217" s="52">
@@ -34896,7 +34882,7 @@
         <v>8</v>
       </c>
       <c r="P217" s="60" t="s">
-        <v>912</v>
+        <v>1000</v>
       </c>
       <c r="Q217" s="7">
         <v>1969</v>
@@ -34946,7 +34932,7 @@
       <c r="K218" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L218" s="74"/>
+      <c r="L218" s="65"/>
       <c r="M218" s="52">
         <v>-33.950000000000003</v>
       </c>
@@ -34999,7 +34985,7 @@
       <c r="K219" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L219" s="74">
+      <c r="L219" s="65">
         <v>1358</v>
       </c>
       <c r="M219" s="52">
@@ -35058,7 +35044,7 @@
       <c r="K220" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L220" s="74">
+      <c r="L220" s="65">
         <v>1358</v>
       </c>
       <c r="M220" s="52">
@@ -35117,7 +35103,7 @@
       <c r="K221" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="L221" s="74">
+      <c r="L221" s="65">
         <v>963</v>
       </c>
       <c r="M221" s="52">
@@ -35176,7 +35162,7 @@
       <c r="K222" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="L222" s="74">
+      <c r="L222" s="65">
         <v>963</v>
       </c>
       <c r="M222" s="52">
@@ -35235,7 +35221,7 @@
       <c r="K223" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L223" s="74">
+      <c r="L223" s="65">
         <v>1866</v>
       </c>
       <c r="M223" s="52">
@@ -35297,7 +35283,7 @@
       <c r="K224" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L224" s="74">
+      <c r="L224" s="65">
         <v>599</v>
       </c>
       <c r="M224" s="52">
@@ -35356,7 +35342,7 @@
       <c r="K225" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="L225" s="74">
+      <c r="L225" s="65">
         <v>1168</v>
       </c>
       <c r="M225" s="52">
@@ -35415,7 +35401,7 @@
       <c r="K226" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L226" s="74">
+      <c r="L226" s="65">
         <v>1606</v>
       </c>
       <c r="M226" s="52">
@@ -35476,7 +35462,7 @@
       <c r="K227" s="46" t="s">
         <v>481</v>
       </c>
-      <c r="L227" s="74">
+      <c r="L227" s="65">
         <v>1272</v>
       </c>
       <c r="M227" s="52">
@@ -35536,7 +35522,7 @@
       <c r="K228" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="L228" s="74">
+      <c r="L228" s="65">
         <v>1272</v>
       </c>
       <c r="M228" s="52">
@@ -35596,7 +35582,7 @@
       <c r="K229" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="L229" s="74">
+      <c r="L229" s="65">
         <v>1272</v>
       </c>
       <c r="M229" s="52">
@@ -35656,7 +35642,7 @@
       <c r="K230" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="L230" s="74">
+      <c r="L230" s="65">
         <v>1272</v>
       </c>
       <c r="M230" s="52">
@@ -35716,7 +35702,7 @@
       <c r="K231" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="L231" s="74">
+      <c r="L231" s="65">
         <v>1905</v>
       </c>
       <c r="M231" s="52">
@@ -35776,7 +35762,7 @@
       <c r="K232" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="L232" s="74">
+      <c r="L232" s="65">
         <v>1234</v>
       </c>
       <c r="M232" s="52">
@@ -35835,7 +35821,7 @@
       <c r="K233" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="L233" s="74">
+      <c r="L233" s="65">
         <v>1005</v>
       </c>
       <c r="M233" s="52">
@@ -35895,7 +35881,7 @@
       <c r="K234" s="41" t="s">
         <v>817</v>
       </c>
-      <c r="L234" s="74">
+      <c r="L234" s="65">
         <v>1239</v>
       </c>
       <c r="M234" s="55">
@@ -35958,7 +35944,7 @@
       <c r="K235" s="35" t="s">
         <v>822</v>
       </c>
-      <c r="L235" s="74">
+      <c r="L235" s="65">
         <v>2256</v>
       </c>
       <c r="M235" s="52">
@@ -36020,7 +36006,7 @@
       <c r="K236" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="L236" s="74">
+      <c r="L236" s="65">
         <v>2051</v>
       </c>
       <c r="M236" s="52">
@@ -36083,7 +36069,7 @@
       <c r="K237" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="L237" s="74">
+      <c r="L237" s="65">
         <v>1404</v>
       </c>
       <c r="M237" s="52">
@@ -36143,7 +36129,7 @@
       <c r="K238" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="L238" s="74">
+      <c r="L238" s="65">
         <v>1751</v>
       </c>
       <c r="M238" s="52">
@@ -36205,7 +36191,7 @@
       <c r="K239" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="L239" s="74">
+      <c r="L239" s="65">
         <v>1335</v>
       </c>
       <c r="M239" s="52">
@@ -36266,7 +36252,7 @@
       <c r="K240" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="L240" s="74">
+      <c r="L240" s="65">
         <v>1404</v>
       </c>
       <c r="M240" s="52">
@@ -36326,7 +36312,7 @@
       <c r="K241" s="43" t="s">
         <v>854</v>
       </c>
-      <c r="L241" s="74">
+      <c r="L241" s="65">
         <v>1746</v>
       </c>
       <c r="M241" s="52">
@@ -36385,7 +36371,7 @@
       <c r="K242" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="L242" s="74">
+      <c r="L242" s="65">
         <v>2087</v>
       </c>
       <c r="M242" s="52">
@@ -36451,7 +36437,7 @@
       <c r="K243" s="35" t="s">
         <v>794</v>
       </c>
-      <c r="L243" s="74">
+      <c r="L243" s="65">
         <v>2087</v>
       </c>
       <c r="M243" s="52">
@@ -36516,7 +36502,7 @@
       <c r="K244" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="L244" s="74">
+      <c r="L244" s="65">
         <v>2087</v>
       </c>
       <c r="M244" s="52">
@@ -36581,7 +36567,7 @@
       <c r="K245" s="35" t="s">
         <v>795</v>
       </c>
-      <c r="L245" s="74">
+      <c r="L245" s="65">
         <v>2087</v>
       </c>
       <c r="M245" s="52">
@@ -36643,7 +36629,7 @@
       <c r="K246" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="L246" s="74">
+      <c r="L246" s="65">
         <v>2087</v>
       </c>
       <c r="M246" s="52">
@@ -36708,7 +36694,7 @@
       <c r="K247" s="24" t="s">
         <v>732</v>
       </c>
-      <c r="L247" s="74">
+      <c r="L247" s="65">
         <v>1121</v>
       </c>
       <c r="M247" s="52">
@@ -36770,7 +36756,7 @@
       <c r="K248" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="L248" s="74">
+      <c r="L248" s="65">
         <v>1121</v>
       </c>
       <c r="M248" s="52">
@@ -36832,7 +36818,7 @@
       <c r="K249" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="L249" s="74">
+      <c r="L249" s="65">
         <v>1121</v>
       </c>
       <c r="M249" s="52">
@@ -36894,7 +36880,7 @@
       <c r="K250" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="L250" s="74">
+      <c r="L250" s="65">
         <v>930</v>
       </c>
       <c r="M250" s="52">
@@ -36956,7 +36942,7 @@
       <c r="K251" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="L251" s="74">
+      <c r="L251" s="65">
         <v>1643</v>
       </c>
       <c r="M251" s="52">
@@ -37018,7 +37004,7 @@
       <c r="K252" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="L252" s="74">
+      <c r="L252" s="65">
         <v>1254</v>
       </c>
       <c r="M252" s="52">
@@ -37059,10 +37045,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD75620-6F76-4BA6-A94E-CE93109D006F}">
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37075,103 +37061,97 @@
     <col min="16" max="16" width="4.453125" style="20" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="69" t="s">
         <v>518</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="69" t="s">
         <v>519</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="69" t="s">
         <v>521</v>
       </c>
-      <c r="O1" s="67" t="s">
+      <c r="O1" s="69" t="s">
         <v>542</v>
       </c>
-      <c r="P1" s="67" t="s">
+      <c r="P1" s="69" t="s">
         <v>541</v>
       </c>
-      <c r="Q1" s="72" t="s">
+      <c r="Q1" s="67" t="s">
         <v>681</v>
       </c>
-      <c r="R1" s="72" t="s">
+      <c r="R1" s="67" t="s">
         <v>682</v>
       </c>
-      <c r="S1" s="73" t="s">
-        <v>915</v>
-      </c>
-      <c r="T1" s="73" t="s">
+      <c r="S1" s="68" t="s">
+        <v>914</v>
+      </c>
+      <c r="T1" s="68" t="s">
         <v>774</v>
       </c>
       <c r="U1" s="58" t="s">
         <v>882</v>
       </c>
-      <c r="V1" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
+    </row>
+    <row r="2" spans="1:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
       <c r="U2" s="61" t="s">
-        <v>913</v>
-      </c>
-      <c r="V2" s="58" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>313</v>
       </c>
@@ -37211,7 +37191,7 @@
       <c r="M3">
         <v>148.25</v>
       </c>
-      <c r="N3" s="74">
+      <c r="N3" s="65">
         <v>1939</v>
       </c>
       <c r="O3">
@@ -37229,11 +37209,8 @@
       <c r="T3">
         <v>1</v>
       </c>
-      <c r="V3" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>314</v>
       </c>
@@ -37273,7 +37250,7 @@
       <c r="M4">
         <v>116.57</v>
       </c>
-      <c r="N4" s="74">
+      <c r="N4" s="65">
         <v>1835</v>
       </c>
       <c r="O4">
@@ -37291,11 +37268,8 @@
       <c r="T4">
         <v>1</v>
       </c>
-      <c r="V4" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>315</v>
       </c>
@@ -37335,7 +37309,7 @@
       <c r="M5">
         <v>149.38</v>
       </c>
-      <c r="N5" s="74">
+      <c r="N5" s="65">
         <v>1180</v>
       </c>
       <c r="O5">
@@ -37353,11 +37327,8 @@
       <c r="T5">
         <v>1</v>
       </c>
-      <c r="V5" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>316</v>
       </c>
@@ -37397,7 +37368,7 @@
       <c r="M6">
         <v>138.69999999999999</v>
       </c>
-      <c r="N6" s="74">
+      <c r="N6" s="65">
         <v>1647</v>
       </c>
       <c r="O6">
@@ -37415,11 +37386,8 @@
       <c r="T6">
         <v>1</v>
       </c>
-      <c r="V6" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>317</v>
       </c>
@@ -37459,7 +37427,7 @@
       <c r="M7">
         <v>141.46</v>
       </c>
-      <c r="N7" s="74">
+      <c r="N7" s="65">
         <v>1340</v>
       </c>
       <c r="O7">
@@ -37477,11 +37445,8 @@
       <c r="T7">
         <v>1</v>
       </c>
-      <c r="V7" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>318</v>
       </c>
@@ -37521,7 +37486,7 @@
       <c r="M8">
         <v>141.77000000000001</v>
       </c>
-      <c r="N8" s="74">
+      <c r="N8" s="65">
         <v>1315</v>
       </c>
       <c r="O8">
@@ -37539,11 +37504,8 @@
       <c r="T8">
         <v>1</v>
       </c>
-      <c r="V8" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>319</v>
       </c>
@@ -37583,7 +37545,7 @@
       <c r="M9">
         <v>149.05000000000001</v>
       </c>
-      <c r="N9" s="74">
+      <c r="N9" s="65">
         <v>1303</v>
       </c>
       <c r="O9">
@@ -37601,11 +37563,8 @@
       <c r="T9">
         <v>1</v>
       </c>
-      <c r="V9" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>320</v>
       </c>
@@ -37645,7 +37604,7 @@
       <c r="M10">
         <v>141.94</v>
       </c>
-      <c r="N10" s="74">
+      <c r="N10" s="65">
         <v>1296</v>
       </c>
       <c r="O10">
@@ -37663,11 +37622,8 @@
       <c r="T10">
         <v>1</v>
       </c>
-      <c r="V10" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>321</v>
       </c>
@@ -37707,7 +37663,7 @@
       <c r="M11">
         <v>148.19999999999999</v>
       </c>
-      <c r="N11" s="74">
+      <c r="N11" s="65">
         <v>1658</v>
       </c>
       <c r="O11">
@@ -37725,11 +37681,8 @@
       <c r="T11">
         <v>1</v>
       </c>
-      <c r="V11" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>322</v>
       </c>
@@ -37769,7 +37722,7 @@
       <c r="M12">
         <v>147.41</v>
       </c>
-      <c r="N12" s="74">
+      <c r="N12" s="65">
         <v>1659</v>
       </c>
       <c r="O12">
@@ -37787,11 +37740,8 @@
       <c r="T12">
         <v>1</v>
       </c>
-      <c r="V12" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>323</v>
       </c>
@@ -37831,7 +37781,7 @@
       <c r="M13">
         <v>145.05000000000001</v>
       </c>
-      <c r="N13" s="74">
+      <c r="N13" s="65">
         <v>1469</v>
       </c>
       <c r="O13">
@@ -37849,11 +37799,8 @@
       <c r="T13">
         <v>1</v>
       </c>
-      <c r="V13" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>324</v>
       </c>
@@ -37893,7 +37840,7 @@
       <c r="M14" s="7">
         <v>149.35</v>
       </c>
-      <c r="N14" s="74">
+      <c r="N14" s="65">
         <v>1447</v>
       </c>
       <c r="O14" s="7">
@@ -37917,11 +37864,8 @@
       <c r="U14">
         <v>1</v>
       </c>
-      <c r="V14" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>325</v>
       </c>
@@ -37961,7 +37905,7 @@
       <c r="M15">
         <v>146.53</v>
       </c>
-      <c r="N15" s="74">
+      <c r="N15" s="65">
         <v>1325</v>
       </c>
       <c r="O15">
@@ -37979,11 +37923,8 @@
       <c r="T15">
         <v>1</v>
       </c>
-      <c r="V15" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>326</v>
       </c>
@@ -38023,7 +37964,7 @@
       <c r="M16">
         <v>117.22</v>
       </c>
-      <c r="N16" s="74">
+      <c r="N16" s="65">
         <v>1502</v>
       </c>
       <c r="O16">
@@ -38041,11 +37982,8 @@
       <c r="T16">
         <v>1</v>
       </c>
-      <c r="V16" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>327</v>
       </c>
@@ -38085,7 +38023,7 @@
       <c r="M17">
         <v>117.29</v>
       </c>
-      <c r="N17" s="74">
+      <c r="N17" s="65">
         <v>1833</v>
       </c>
       <c r="O17">
@@ -38103,11 +38041,8 @@
       <c r="T17">
         <v>1</v>
       </c>
-      <c r="V17" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>328</v>
       </c>
@@ -38148,7 +38083,7 @@
       <c r="M18" s="7">
         <v>116.003923121299</v>
       </c>
-      <c r="N18" s="74">
+      <c r="N18" s="65">
         <v>1749</v>
       </c>
       <c r="O18" s="7">
@@ -38170,11 +38105,8 @@
       <c r="U18" s="7">
         <v>1</v>
       </c>
-      <c r="V18" s="7" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>329</v>
       </c>
@@ -38214,7 +38146,7 @@
       <c r="M19">
         <v>101.18</v>
       </c>
-      <c r="N19" s="74">
+      <c r="N19" s="65">
         <v>1812</v>
       </c>
       <c r="O19">
@@ -38229,11 +38161,8 @@
       <c r="T19">
         <v>0</v>
       </c>
-      <c r="V19" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:21" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>330</v>
       </c>
@@ -38273,7 +38202,7 @@
       <c r="M20">
         <v>113.5</v>
       </c>
-      <c r="N20" s="74">
+      <c r="N20" s="65">
         <v>1343</v>
       </c>
       <c r="O20">
@@ -38294,11 +38223,8 @@
       <c r="T20">
         <v>1</v>
       </c>
-      <c r="V20" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>331</v>
       </c>
@@ -38338,7 +38264,7 @@
       <c r="M21">
         <v>116.41</v>
       </c>
-      <c r="N21" s="74">
+      <c r="N21" s="65">
         <v>1818</v>
       </c>
       <c r="O21">
@@ -38359,11 +38285,8 @@
       <c r="T21">
         <v>1</v>
       </c>
-      <c r="V21" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:21" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>332</v>
       </c>
@@ -38403,7 +38326,7 @@
       <c r="M22">
         <v>169.75</v>
       </c>
-      <c r="N22" s="74">
+      <c r="N22" s="65">
         <v>1066</v>
       </c>
       <c r="O22">
@@ -38424,11 +38347,8 @@
       <c r="T22">
         <v>1</v>
       </c>
-      <c r="V22" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>333</v>
       </c>
@@ -38468,7 +38388,7 @@
       <c r="M23">
         <v>145</v>
       </c>
-      <c r="N23" s="74">
+      <c r="N23" s="65">
         <v>2216</v>
       </c>
       <c r="O23">
@@ -38486,11 +38406,8 @@
       <c r="T23">
         <v>1</v>
       </c>
-      <c r="V23" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>334</v>
       </c>
@@ -38530,7 +38447,7 @@
       <c r="M24">
         <v>148.5</v>
       </c>
-      <c r="N24" s="74">
+      <c r="N24" s="65">
         <v>2166</v>
       </c>
       <c r="O24">
@@ -38554,11 +38471,8 @@
       <c r="U24">
         <v>1</v>
       </c>
-      <c r="V24" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:21" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>335</v>
       </c>
@@ -38598,7 +38512,7 @@
       <c r="M25">
         <v>-61.94</v>
       </c>
-      <c r="N25" s="74">
+      <c r="N25" s="65">
         <v>1289</v>
       </c>
       <c r="O25">
@@ -38619,11 +38533,8 @@
       <c r="T25">
         <v>1</v>
       </c>
-      <c r="V25" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:21" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>336</v>
       </c>
@@ -38664,7 +38575,7 @@
       <c r="M26">
         <v>149.80000000000001</v>
       </c>
-      <c r="N26" s="74">
+      <c r="N26" s="65">
         <v>2083</v>
       </c>
       <c r="O26">
@@ -38685,11 +38596,8 @@
       <c r="T26">
         <v>1</v>
       </c>
-      <c r="V26" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:21" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>337</v>
       </c>
@@ -38731,7 +38639,7 @@
         <f>-121-5/60-14/3600</f>
         <v>-121.08722222222222</v>
       </c>
-      <c r="N27" s="74">
+      <c r="N27" s="65">
         <v>1695</v>
       </c>
       <c r="O27">
@@ -38752,11 +38660,8 @@
       <c r="T27">
         <v>1</v>
       </c>
-      <c r="V27" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <f>A27+1</f>
         <v>338</v>
@@ -38797,7 +38702,7 @@
       <c r="M28" s="31">
         <v>-83.65</v>
       </c>
-      <c r="N28" s="74">
+      <c r="N28" s="65">
         <v>746</v>
       </c>
       <c r="O28">
@@ -38818,11 +38723,8 @@
       <c r="T28">
         <v>1</v>
       </c>
-      <c r="V28" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" s="32" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:21" s="32" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" ref="A29:A47" si="0">A28+1</f>
         <v>339</v>
@@ -38863,7 +38765,7 @@
       <c r="M29" s="32">
         <v>-72.010281000000006</v>
       </c>
-      <c r="N29" s="74">
+      <c r="N29" s="65">
         <v>1248</v>
       </c>
       <c r="O29">
@@ -38885,22 +38787,21 @@
       <c r="T29" s="8">
         <v>1</v>
       </c>
-      <c r="V29" s="32" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
       <c r="B30" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C30">
         <v>5800</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="65">
+        <v>1200.6500243999999</v>
+      </c>
       <c r="E30" t="s">
         <v>19</v>
       </c>
@@ -38917,7 +38818,7 @@
         <v>26</v>
       </c>
       <c r="K30" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L30">
         <v>32.838611</v>
@@ -38925,7 +38826,7 @@
       <c r="M30">
         <v>-83.620555600000003</v>
       </c>
-      <c r="N30" s="74">
+      <c r="N30" s="65">
         <v>1567</v>
       </c>
       <c r="O30">
@@ -38939,24 +38840,26 @@
         <v>1975</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>916</v>
-      </c>
-      <c r="V30" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+        <v>915</v>
+      </c>
+      <c r="T30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>341</v>
       </c>
       <c r="B31" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C31">
         <v>7640</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="65">
+        <v>1206.0999756000001</v>
+      </c>
       <c r="E31" t="s">
         <v>19</v>
       </c>
@@ -38973,7 +38876,7 @@
         <v>26</v>
       </c>
       <c r="K31" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L31">
         <v>33.090166670000002</v>
@@ -38981,7 +38884,7 @@
       <c r="M31">
         <v>-83.214777799999993</v>
       </c>
-      <c r="N31" s="74">
+      <c r="N31" s="65">
         <v>1576</v>
       </c>
       <c r="O31">
@@ -38995,13 +38898,13 @@
         <v>1975</v>
       </c>
       <c r="S31" s="8" t="s">
-        <v>916</v>
-      </c>
-      <c r="V31" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+        <v>915</v>
+      </c>
+      <c r="T31" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>342</v>
@@ -39012,7 +38915,9 @@
       <c r="C32">
         <v>4790</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="65">
+        <v>1265.6899414</v>
+      </c>
       <c r="E32" t="s">
         <v>19</v>
       </c>
@@ -39029,7 +38934,7 @@
         <v>26</v>
       </c>
       <c r="K32" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="L32">
         <v>32.72138889</v>
@@ -39037,7 +38942,7 @@
       <c r="M32">
         <v>-84.232500000000002</v>
       </c>
-      <c r="N32" s="74">
+      <c r="N32" s="65">
         <v>1566</v>
       </c>
       <c r="O32">
@@ -39051,24 +38956,26 @@
         <v>1975</v>
       </c>
       <c r="S32" s="8" t="s">
-        <v>916</v>
-      </c>
-      <c r="V32" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+        <v>915</v>
+      </c>
+      <c r="T32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>343</v>
       </c>
       <c r="B33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C33">
         <v>2820</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="65">
+        <v>1250.2299805</v>
+      </c>
       <c r="E33" t="s">
         <v>19</v>
       </c>
@@ -39085,7 +38992,7 @@
         <v>26</v>
       </c>
       <c r="K33" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L33">
         <v>33.720694440000003</v>
@@ -39093,7 +39000,7 @@
       <c r="M33">
         <v>-83.295611100000002</v>
       </c>
-      <c r="N33" s="74">
+      <c r="N33" s="65">
         <v>1535</v>
       </c>
       <c r="O33">
@@ -39107,24 +39014,26 @@
         <v>1975</v>
       </c>
       <c r="S33" s="8" t="s">
-        <v>916</v>
-      </c>
-      <c r="V33" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+        <v>915</v>
+      </c>
+      <c r="T33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>344</v>
       </c>
       <c r="B34" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C34">
         <v>9195</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="65">
+        <v>1353.5500488</v>
+      </c>
       <c r="E34" t="s">
         <v>19</v>
       </c>
@@ -39141,7 +39050,7 @@
         <v>26</v>
       </c>
       <c r="K34" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L34">
         <v>32.88663889</v>
@@ -39149,7 +39058,7 @@
       <c r="M34">
         <v>-85.1815833</v>
       </c>
-      <c r="N34" s="74">
+      <c r="N34" s="65">
         <v>1491</v>
       </c>
       <c r="O34">
@@ -39163,24 +39072,26 @@
         <v>1975</v>
       </c>
       <c r="S34" s="8" t="s">
-        <v>916</v>
-      </c>
-      <c r="V34" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+        <v>915</v>
+      </c>
+      <c r="T34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>345</v>
       </c>
       <c r="B35" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C35">
         <v>19450</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="D35" s="65">
+        <v>1140.1300048999999</v>
+      </c>
       <c r="E35" t="s">
         <v>19</v>
       </c>
@@ -39197,7 +39108,7 @@
         <v>26</v>
       </c>
       <c r="K35" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L35">
         <v>33.372527779999999</v>
@@ -39205,7 +39116,7 @@
       <c r="M35">
         <v>-81.942083299999993</v>
       </c>
-      <c r="N35" s="74">
+      <c r="N35" s="65">
         <v>1577</v>
       </c>
       <c r="O35">
@@ -39219,24 +39130,26 @@
         <v>1975</v>
       </c>
       <c r="S35" s="8" t="s">
-        <v>916</v>
-      </c>
-      <c r="V35" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+        <v>915</v>
+      </c>
+      <c r="T35" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>346</v>
       </c>
       <c r="B36" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C36">
         <v>4300</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="65">
+        <v>1390.7600098</v>
+      </c>
       <c r="E36" t="s">
         <v>19</v>
       </c>
@@ -39253,7 +39166,7 @@
         <v>26</v>
       </c>
       <c r="K36" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L36">
         <v>33.116786840000003</v>
@@ -39261,7 +39174,7 @@
       <c r="M36">
         <v>-85.560787500000004</v>
       </c>
-      <c r="N36" s="74">
+      <c r="N36" s="65">
         <v>1467</v>
       </c>
       <c r="O36">
@@ -39275,24 +39188,26 @@
         <v>1975</v>
       </c>
       <c r="S36" s="8" t="s">
-        <v>916</v>
-      </c>
-      <c r="V36" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+        <v>915</v>
+      </c>
+      <c r="T36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>347</v>
       </c>
       <c r="B37" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C37">
         <v>3030</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="65">
+        <v>1411.9100341999999</v>
+      </c>
       <c r="E37" t="s">
         <v>19</v>
       </c>
@@ -39309,7 +39224,7 @@
         <v>26</v>
       </c>
       <c r="K37" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L37">
         <v>33.997222200000003</v>
@@ -39317,7 +39232,7 @@
       <c r="M37">
         <v>-84.201944400000002</v>
       </c>
-      <c r="N37" s="74">
+      <c r="N37" s="65">
         <v>1457</v>
       </c>
       <c r="O37">
@@ -39331,24 +39246,26 @@
         <v>1975</v>
       </c>
       <c r="S37" s="8" t="s">
-        <v>916</v>
-      </c>
-      <c r="V37" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+        <v>915</v>
+      </c>
+      <c r="T37" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>348</v>
       </c>
       <c r="B38" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C38">
         <v>6500</v>
       </c>
-      <c r="D38" s="7"/>
+      <c r="D38" s="65">
+        <v>1214.2399902</v>
+      </c>
       <c r="E38" t="s">
         <v>19</v>
       </c>
@@ -39365,7 +39282,7 @@
         <v>26</v>
       </c>
       <c r="K38" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L38">
         <v>34.014041599999999</v>
@@ -39373,7 +39290,7 @@
       <c r="M38">
         <v>-81.087871699999994</v>
       </c>
-      <c r="N38" s="74">
+      <c r="N38" s="65">
         <v>1589</v>
       </c>
       <c r="O38">
@@ -39387,24 +39304,26 @@
         <v>1975</v>
       </c>
       <c r="S38" s="8" t="s">
-        <v>916</v>
-      </c>
-      <c r="V38" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+        <v>915</v>
+      </c>
+      <c r="T38" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>349</v>
       </c>
       <c r="B39" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C39">
         <v>4200</v>
       </c>
-      <c r="D39" s="7"/>
+      <c r="D39" s="65">
+        <v>1179.3499756000001</v>
+      </c>
       <c r="E39" t="s">
         <v>19</v>
       </c>
@@ -39421,7 +39340,7 @@
         <v>26</v>
       </c>
       <c r="K39" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L39">
         <v>34.184712188575901</v>
@@ -39429,7 +39348,7 @@
       <c r="M39">
         <v>-81.725633679354999</v>
       </c>
-      <c r="N39" s="74">
+      <c r="N39" s="65">
         <v>1543</v>
       </c>
       <c r="O39">
@@ -39445,17 +39364,17 @@
       <c r="S39" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="V39" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="T39" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
       <c r="B40" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C40">
         <v>1.5</v>
@@ -39482,7 +39401,7 @@
         <v>26</v>
       </c>
       <c r="K40" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="L40">
         <v>55.096891825362803</v>
@@ -39490,7 +39409,7 @@
       <c r="M40">
         <v>-2.4825423989861899</v>
       </c>
-      <c r="N40" s="74">
+      <c r="N40" s="65">
         <v>640</v>
       </c>
       <c r="O40">
@@ -39506,17 +39425,17 @@
       <c r="S40" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="V40" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="T40" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>351</v>
       </c>
       <c r="B41" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C41">
         <v>267</v>
@@ -39544,7 +39463,7 @@
         <v>26</v>
       </c>
       <c r="K41" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="L41">
         <v>44.036507143754903</v>
@@ -39552,7 +39471,7 @@
       <c r="M41">
         <v>-78.522799382448</v>
       </c>
-      <c r="N41" s="74">
+      <c r="N41" s="65">
         <v>919</v>
       </c>
       <c r="O41">
@@ -39568,17 +39487,17 @@
       <c r="S41" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="V41" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="T41" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
       <c r="B42" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C42">
         <v>1117</v>
@@ -39591,7 +39510,7 @@
         <v>14</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H42">
         <v>-32</v>
@@ -39600,7 +39519,7 @@
         <v>26</v>
       </c>
       <c r="K42" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L42">
         <v>38.284999999999997</v>
@@ -39608,7 +39527,7 @@
       <c r="M42">
         <v>110.15</v>
       </c>
-      <c r="N42" s="74">
+      <c r="N42" s="65">
         <v>1483</v>
       </c>
       <c r="O42">
@@ -39624,17 +39543,17 @@
       <c r="S42" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="V42" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="T42" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>353</v>
       </c>
       <c r="B43" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C43">
         <v>0.19</v>
@@ -39661,7 +39580,7 @@
         <v>26</v>
       </c>
       <c r="K43" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L43">
         <v>39.133384429172899</v>
@@ -39669,7 +39588,7 @@
       <c r="M43">
         <v>-79.825483972020905</v>
       </c>
-      <c r="N43" s="74">
+      <c r="N43" s="65">
         <v>1060</v>
       </c>
       <c r="O43">
@@ -39685,17 +39604,17 @@
       <c r="S43" t="s">
         <v>693</v>
       </c>
-      <c r="V43" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="T43" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>354</v>
       </c>
       <c r="B44" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C44">
         <v>0.12</v>
@@ -39722,7 +39641,7 @@
         <v>26</v>
       </c>
       <c r="K44" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L44">
         <v>39.133384429172899</v>
@@ -39730,7 +39649,7 @@
       <c r="M44">
         <v>-79.825483972020905</v>
       </c>
-      <c r="N44" s="74">
+      <c r="N44" s="65">
         <v>1060</v>
       </c>
       <c r="O44">
@@ -39746,17 +39665,17 @@
       <c r="S44" t="s">
         <v>693</v>
       </c>
-      <c r="V44" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="T44" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>355</v>
       </c>
       <c r="B45" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C45">
         <v>13.3</v>
@@ -39783,7 +39702,7 @@
         <v>26</v>
       </c>
       <c r="K45" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="L45">
         <f>11+45/60</f>
@@ -39793,7 +39712,7 @@
         <f>33+50/60</f>
         <v>33.833333333333336</v>
       </c>
-      <c r="N45" s="74">
+      <c r="N45" s="65">
         <v>2480</v>
       </c>
       <c r="O45">
@@ -39809,17 +39728,17 @@
       <c r="S45" t="s">
         <v>564</v>
       </c>
-      <c r="V45" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="T45" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>356</v>
       </c>
       <c r="B46" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C46">
         <v>200</v>
@@ -39848,7 +39767,7 @@
         <v>21</v>
       </c>
       <c r="K46" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L46">
         <v>-25.75</v>
@@ -39856,7 +39775,7 @@
       <c r="M46">
         <v>28.23</v>
       </c>
-      <c r="N46" s="74">
+      <c r="N46" s="65">
         <v>1973</v>
       </c>
       <c r="O46">
@@ -39872,17 +39791,17 @@
       <c r="S46" t="s">
         <v>564</v>
       </c>
-      <c r="V46" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="T46" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>357</v>
       </c>
       <c r="B47" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C47">
         <v>9.7000000000000003E-2</v>
@@ -39910,7 +39829,7 @@
         <v>16</v>
       </c>
       <c r="K47" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="L47">
         <v>40.100999999999999</v>
@@ -39918,7 +39837,7 @@
       <c r="M47">
         <v>8.5709999999999997</v>
       </c>
-      <c r="N47" s="74">
+      <c r="N47" s="65">
         <v>1350</v>
       </c>
       <c r="O47">
@@ -39934,12 +39853,24 @@
       <c r="S47" t="s">
         <v>564</v>
       </c>
-      <c r="V47" t="s">
-        <v>951</v>
+      <c r="T47" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
@@ -39948,18 +39879,6 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39978,784 +39897,784 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="65" t="s">
+        <v>947</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>948</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>949</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>950</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="65" t="s">
         <v>952</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B2" s="65">
+        <v>313</v>
+      </c>
+      <c r="C2" s="65">
+        <v>-32.020000000000003</v>
+      </c>
+      <c r="D2" s="65">
+        <v>148.25</v>
+      </c>
+      <c r="E2" s="65">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="65" t="s">
         <v>953</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="B3" s="65">
+        <v>314</v>
+      </c>
+      <c r="C3" s="65">
+        <v>-33.32</v>
+      </c>
+      <c r="D3" s="65">
+        <v>116.57</v>
+      </c>
+      <c r="E3" s="65">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="65" t="s">
         <v>954</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="B4" s="65">
+        <v>315</v>
+      </c>
+      <c r="C4" s="65">
+        <v>-37</v>
+      </c>
+      <c r="D4" s="65">
+        <v>149.38</v>
+      </c>
+      <c r="E4" s="65">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="65" t="s">
         <v>955</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="B5" s="65">
+        <v>316</v>
+      </c>
+      <c r="C5" s="65">
+        <v>-35.130000000000003</v>
+      </c>
+      <c r="D5" s="65">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="E5" s="65">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="65" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="74" t="s">
+      <c r="B6" s="65">
+        <v>317</v>
+      </c>
+      <c r="C6" s="65">
+        <v>-37.979999999999997</v>
+      </c>
+      <c r="D6" s="65">
+        <v>141.46</v>
+      </c>
+      <c r="E6" s="65">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="65" t="s">
         <v>957</v>
       </c>
-      <c r="B2" s="74">
-        <v>313</v>
-      </c>
-      <c r="C2" s="74">
-        <v>-32.020000000000003</v>
-      </c>
-      <c r="D2" s="74">
-        <v>148.25</v>
-      </c>
-      <c r="E2" s="74">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="B7" s="65">
+        <v>318</v>
+      </c>
+      <c r="C7" s="65">
+        <v>-38.15</v>
+      </c>
+      <c r="D7" s="65">
+        <v>141.77000000000001</v>
+      </c>
+      <c r="E7" s="65">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="65" t="s">
         <v>958</v>
       </c>
-      <c r="B3" s="74">
-        <v>314</v>
-      </c>
-      <c r="C3" s="74">
-        <v>-33.32</v>
-      </c>
-      <c r="D3" s="74">
-        <v>116.57</v>
-      </c>
-      <c r="E3" s="74">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="74" t="s">
+      <c r="B8" s="65">
+        <v>319</v>
+      </c>
+      <c r="C8" s="65">
+        <v>-36.979999999999997</v>
+      </c>
+      <c r="D8" s="65">
+        <v>149.05000000000001</v>
+      </c>
+      <c r="E8" s="65">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="65" t="s">
         <v>959</v>
       </c>
-      <c r="B4" s="74">
-        <v>315</v>
-      </c>
-      <c r="C4" s="74">
-        <v>-37</v>
-      </c>
-      <c r="D4" s="74">
-        <v>149.38</v>
-      </c>
-      <c r="E4" s="74">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="74" t="s">
+      <c r="B9" s="65">
+        <v>320</v>
+      </c>
+      <c r="C9" s="65">
+        <v>-38.26</v>
+      </c>
+      <c r="D9" s="65">
+        <v>141.94</v>
+      </c>
+      <c r="E9" s="65">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="65" t="s">
         <v>960</v>
       </c>
-      <c r="B5" s="74">
-        <v>316</v>
-      </c>
-      <c r="C5" s="74">
-        <v>-35.130000000000003</v>
-      </c>
-      <c r="D5" s="74">
-        <v>138.69999999999999</v>
-      </c>
-      <c r="E5" s="74">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="74" t="s">
+      <c r="B10" s="65">
+        <v>321</v>
+      </c>
+      <c r="C10" s="65">
+        <v>-35.19</v>
+      </c>
+      <c r="D10" s="65">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="E10" s="65">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="65" t="s">
         <v>961</v>
       </c>
-      <c r="B6" s="74">
-        <v>317</v>
-      </c>
-      <c r="C6" s="74">
-        <v>-37.979999999999997</v>
-      </c>
-      <c r="D6" s="74">
-        <v>141.46</v>
-      </c>
-      <c r="E6" s="74">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="74" t="s">
+      <c r="B11" s="65">
+        <v>322</v>
+      </c>
+      <c r="C11" s="65">
+        <v>-35.53</v>
+      </c>
+      <c r="D11" s="65">
+        <v>147.41</v>
+      </c>
+      <c r="E11" s="65">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="65" t="s">
         <v>962</v>
       </c>
-      <c r="B7" s="74">
-        <v>318</v>
-      </c>
-      <c r="C7" s="74">
-        <v>-38.15</v>
-      </c>
-      <c r="D7" s="74">
-        <v>141.77000000000001</v>
-      </c>
-      <c r="E7" s="74">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="74" t="s">
+      <c r="B12" s="65">
+        <v>323</v>
+      </c>
+      <c r="C12" s="65">
+        <v>-37.29</v>
+      </c>
+      <c r="D12" s="65">
+        <v>145.05000000000001</v>
+      </c>
+      <c r="E12" s="65">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="65" t="s">
         <v>963</v>
       </c>
-      <c r="B8" s="74">
-        <v>319</v>
-      </c>
-      <c r="C8" s="74">
-        <v>-36.979999999999997</v>
-      </c>
-      <c r="D8" s="74">
-        <v>149.05000000000001</v>
-      </c>
-      <c r="E8" s="74">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="74" t="s">
+      <c r="B13" s="65">
+        <v>324</v>
+      </c>
+      <c r="C13" s="65">
+        <v>-35.119999999999997</v>
+      </c>
+      <c r="D13" s="65">
+        <v>149.35</v>
+      </c>
+      <c r="E13" s="65">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="65" t="s">
         <v>964</v>
       </c>
-      <c r="B9" s="74">
-        <v>320</v>
-      </c>
-      <c r="C9" s="74">
-        <v>-38.26</v>
-      </c>
-      <c r="D9" s="74">
-        <v>141.94</v>
-      </c>
-      <c r="E9" s="74">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="74" t="s">
+      <c r="B14" s="65">
+        <v>325</v>
+      </c>
+      <c r="C14" s="65">
+        <v>-38.32</v>
+      </c>
+      <c r="D14" s="65">
+        <v>146.53</v>
+      </c>
+      <c r="E14" s="65">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="65" t="s">
         <v>965</v>
       </c>
-      <c r="B10" s="74">
-        <v>321</v>
-      </c>
-      <c r="C10" s="74">
-        <v>-35.19</v>
-      </c>
-      <c r="D10" s="74">
-        <v>148.19999999999999</v>
-      </c>
-      <c r="E10" s="74">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="74" t="s">
+      <c r="B15" s="65">
+        <v>326</v>
+      </c>
+      <c r="C15" s="65">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="D15" s="65">
+        <v>117.22</v>
+      </c>
+      <c r="E15" s="65">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="65" t="s">
         <v>966</v>
       </c>
-      <c r="B11" s="74">
-        <v>322</v>
-      </c>
-      <c r="C11" s="74">
-        <v>-35.53</v>
-      </c>
-      <c r="D11" s="74">
-        <v>147.41</v>
-      </c>
-      <c r="E11" s="74">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="74" t="s">
+      <c r="B16" s="65">
+        <v>327</v>
+      </c>
+      <c r="C16" s="65">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="D16" s="65">
+        <v>117.29</v>
+      </c>
+      <c r="E16" s="65">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="65" t="s">
         <v>967</v>
       </c>
-      <c r="B12" s="74">
-        <v>323</v>
-      </c>
-      <c r="C12" s="74">
-        <v>-37.29</v>
-      </c>
-      <c r="D12" s="74">
-        <v>145.05000000000001</v>
-      </c>
-      <c r="E12" s="74">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="74" t="s">
+      <c r="B17" s="65">
+        <v>328</v>
+      </c>
+      <c r="C17" s="65">
+        <v>-33.810141399999999</v>
+      </c>
+      <c r="D17" s="65">
+        <v>116.00392309999999</v>
+      </c>
+      <c r="E17" s="65">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="65" t="s">
         <v>968</v>
       </c>
-      <c r="B13" s="74">
-        <v>324</v>
-      </c>
-      <c r="C13" s="74">
-        <v>-35.119999999999997</v>
-      </c>
-      <c r="D13" s="74">
-        <v>149.35</v>
-      </c>
-      <c r="E13" s="74">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="74" t="s">
+      <c r="B18" s="65">
+        <v>329</v>
+      </c>
+      <c r="C18" s="65">
+        <v>16.433</v>
+      </c>
+      <c r="D18" s="65">
+        <v>101.18</v>
+      </c>
+      <c r="E18" s="65">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="65" t="s">
         <v>969</v>
       </c>
-      <c r="B14" s="74">
-        <v>325</v>
-      </c>
-      <c r="C14" s="74">
-        <v>-38.32</v>
-      </c>
-      <c r="D14" s="74">
-        <v>146.53</v>
-      </c>
-      <c r="E14" s="74">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="74" t="s">
+      <c r="B19" s="65">
+        <v>330</v>
+      </c>
+      <c r="C19" s="65">
+        <v>22.88</v>
+      </c>
+      <c r="D19" s="65">
+        <v>113.5</v>
+      </c>
+      <c r="E19" s="65">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="65" t="s">
         <v>970</v>
       </c>
-      <c r="B15" s="74">
-        <v>326</v>
-      </c>
-      <c r="C15" s="74">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="D15" s="74">
-        <v>117.22</v>
-      </c>
-      <c r="E15" s="74">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="74" t="s">
+      <c r="B20" s="65">
+        <v>331</v>
+      </c>
+      <c r="C20" s="65">
+        <v>-33.295999999999999</v>
+      </c>
+      <c r="D20" s="65">
+        <v>116.41</v>
+      </c>
+      <c r="E20" s="65">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="65" t="s">
         <v>971</v>
       </c>
-      <c r="B16" s="74">
-        <v>327</v>
-      </c>
-      <c r="C16" s="74">
-        <v>-33.700000000000003</v>
-      </c>
-      <c r="D16" s="74">
-        <v>117.29</v>
-      </c>
-      <c r="E16" s="74">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="74" t="s">
+      <c r="B21" s="65">
+        <v>332</v>
+      </c>
+      <c r="C21" s="65">
+        <v>-45.713000000000001</v>
+      </c>
+      <c r="D21" s="65">
+        <v>169.75</v>
+      </c>
+      <c r="E21" s="65">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="65" t="s">
         <v>972</v>
       </c>
-      <c r="B17" s="74">
-        <v>328</v>
-      </c>
-      <c r="C17" s="74">
-        <v>-33.810141399999999</v>
-      </c>
-      <c r="D17" s="74">
-        <v>116.00392309999999</v>
-      </c>
-      <c r="E17" s="74">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="74" t="s">
+      <c r="B22" s="65">
+        <v>333</v>
+      </c>
+      <c r="C22" s="65">
+        <v>-19</v>
+      </c>
+      <c r="D22" s="65">
+        <v>145</v>
+      </c>
+      <c r="E22" s="65">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="65" t="s">
         <v>973</v>
       </c>
-      <c r="B18" s="74">
-        <v>329</v>
-      </c>
-      <c r="C18" s="74">
-        <v>16.433</v>
-      </c>
-      <c r="D18" s="74">
-        <v>101.18</v>
-      </c>
-      <c r="E18" s="74">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="74" t="s">
+      <c r="B23" s="65">
+        <v>334</v>
+      </c>
+      <c r="C23" s="65">
+        <v>-24.5</v>
+      </c>
+      <c r="D23" s="65">
+        <v>148.5</v>
+      </c>
+      <c r="E23" s="65">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="65" t="s">
         <v>974</v>
       </c>
-      <c r="B19" s="74">
-        <v>330</v>
-      </c>
-      <c r="C19" s="74">
-        <v>22.88</v>
-      </c>
-      <c r="D19" s="74">
-        <v>113.5</v>
-      </c>
-      <c r="E19" s="74">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="74" t="s">
+      <c r="B24" s="65">
+        <v>335</v>
+      </c>
+      <c r="C24" s="65">
+        <v>-10.87</v>
+      </c>
+      <c r="D24" s="65">
+        <v>-61.94</v>
+      </c>
+      <c r="E24" s="65">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="65" t="s">
         <v>975</v>
       </c>
-      <c r="B20" s="74">
-        <v>331</v>
-      </c>
-      <c r="C20" s="74">
-        <v>-33.295999999999999</v>
-      </c>
-      <c r="D20" s="74">
-        <v>116.41</v>
-      </c>
-      <c r="E20" s="74">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="74" t="s">
+      <c r="B25" s="65">
+        <v>336</v>
+      </c>
+      <c r="C25" s="65">
+        <v>-24.81</v>
+      </c>
+      <c r="D25" s="65">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="E25" s="65">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="65" t="s">
         <v>976</v>
       </c>
-      <c r="B21" s="74">
-        <v>332</v>
-      </c>
-      <c r="C21" s="74">
-        <v>-45.713000000000001</v>
-      </c>
-      <c r="D21" s="74">
-        <v>169.75</v>
-      </c>
-      <c r="E21" s="74">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="74" t="s">
+      <c r="B26" s="65">
+        <v>337</v>
+      </c>
+      <c r="C26" s="65">
+        <v>35.896666670000002</v>
+      </c>
+      <c r="D26" s="65">
+        <v>-121.0872222</v>
+      </c>
+      <c r="E26" s="65">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="65" t="s">
         <v>977</v>
       </c>
-      <c r="B22" s="74">
-        <v>333</v>
-      </c>
-      <c r="C22" s="74">
-        <v>-19</v>
-      </c>
-      <c r="D22" s="74">
-        <v>145</v>
-      </c>
-      <c r="E22" s="74">
-        <v>2216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="74" t="s">
+      <c r="B27" s="65">
+        <v>338</v>
+      </c>
+      <c r="C27" s="65">
+        <v>49.68</v>
+      </c>
+      <c r="D27" s="65">
+        <v>-83.65</v>
+      </c>
+      <c r="E27" s="65">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="65" t="s">
         <v>978</v>
       </c>
-      <c r="B23" s="74">
-        <v>334</v>
-      </c>
-      <c r="C23" s="74">
-        <v>-24.5</v>
-      </c>
-      <c r="D23" s="74">
-        <v>148.5</v>
-      </c>
-      <c r="E23" s="74">
-        <v>2166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="74" t="s">
+      <c r="B28" s="65">
+        <v>339</v>
+      </c>
+      <c r="C28" s="65">
+        <v>-37.552613000000001</v>
+      </c>
+      <c r="D28" s="65">
+        <v>-72.010281000000006</v>
+      </c>
+      <c r="E28" s="65">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="65" t="s">
         <v>979</v>
       </c>
-      <c r="B24" s="74">
-        <v>335</v>
-      </c>
-      <c r="C24" s="74">
-        <v>-10.87</v>
-      </c>
-      <c r="D24" s="74">
-        <v>-61.94</v>
-      </c>
-      <c r="E24" s="74">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="74" t="s">
+      <c r="B29" s="65">
+        <v>340</v>
+      </c>
+      <c r="C29" s="65">
+        <v>32.838611</v>
+      </c>
+      <c r="D29" s="65">
+        <v>-83.620555600000003</v>
+      </c>
+      <c r="E29" s="65">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="65" t="s">
         <v>980</v>
       </c>
-      <c r="B25" s="74">
-        <v>336</v>
-      </c>
-      <c r="C25" s="74">
-        <v>-24.81</v>
-      </c>
-      <c r="D25" s="74">
-        <v>149.80000000000001</v>
-      </c>
-      <c r="E25" s="74">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="74" t="s">
+      <c r="B30" s="65">
+        <v>341</v>
+      </c>
+      <c r="C30" s="65">
+        <v>33.090166670000002</v>
+      </c>
+      <c r="D30" s="65">
+        <v>-83.214777799999993</v>
+      </c>
+      <c r="E30" s="65">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="65" t="s">
         <v>981</v>
       </c>
-      <c r="B26" s="74">
-        <v>337</v>
-      </c>
-      <c r="C26" s="74">
-        <v>35.896666670000002</v>
-      </c>
-      <c r="D26" s="74">
-        <v>-121.0872222</v>
-      </c>
-      <c r="E26" s="74">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="74" t="s">
+      <c r="B31" s="65">
+        <v>342</v>
+      </c>
+      <c r="C31" s="65">
+        <v>32.72138889</v>
+      </c>
+      <c r="D31" s="65">
+        <v>-84.232500000000002</v>
+      </c>
+      <c r="E31" s="65">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="65" t="s">
         <v>982</v>
       </c>
-      <c r="B27" s="74">
-        <v>338</v>
-      </c>
-      <c r="C27" s="74">
-        <v>49.68</v>
-      </c>
-      <c r="D27" s="74">
-        <v>-83.65</v>
-      </c>
-      <c r="E27" s="74">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="74" t="s">
+      <c r="B32" s="65">
+        <v>343</v>
+      </c>
+      <c r="C32" s="65">
+        <v>33.720694440000003</v>
+      </c>
+      <c r="D32" s="65">
+        <v>-83.295611100000002</v>
+      </c>
+      <c r="E32" s="65">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="65" t="s">
         <v>983</v>
       </c>
-      <c r="B28" s="74">
-        <v>339</v>
-      </c>
-      <c r="C28" s="74">
-        <v>-37.552613000000001</v>
-      </c>
-      <c r="D28" s="74">
-        <v>-72.010281000000006</v>
-      </c>
-      <c r="E28" s="74">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="74" t="s">
+      <c r="B33" s="65">
+        <v>344</v>
+      </c>
+      <c r="C33" s="65">
+        <v>32.88663889</v>
+      </c>
+      <c r="D33" s="65">
+        <v>-85.1815833</v>
+      </c>
+      <c r="E33" s="65">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="65" t="s">
         <v>984</v>
       </c>
-      <c r="B29" s="74">
-        <v>340</v>
-      </c>
-      <c r="C29" s="74">
-        <v>32.838611</v>
-      </c>
-      <c r="D29" s="74">
-        <v>-83.620555600000003</v>
-      </c>
-      <c r="E29" s="74">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="74" t="s">
+      <c r="B34" s="65">
+        <v>345</v>
+      </c>
+      <c r="C34" s="65">
+        <v>33.372527779999999</v>
+      </c>
+      <c r="D34" s="65">
+        <v>-81.942083299999993</v>
+      </c>
+      <c r="E34" s="65">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="65" t="s">
         <v>985</v>
       </c>
-      <c r="B30" s="74">
-        <v>341</v>
-      </c>
-      <c r="C30" s="74">
-        <v>33.090166670000002</v>
-      </c>
-      <c r="D30" s="74">
-        <v>-83.214777799999993</v>
-      </c>
-      <c r="E30" s="74">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="74" t="s">
+      <c r="B35" s="65">
+        <v>346</v>
+      </c>
+      <c r="C35" s="65">
+        <v>33.116786840000003</v>
+      </c>
+      <c r="D35" s="65">
+        <v>-85.560787500000004</v>
+      </c>
+      <c r="E35" s="65">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="65" t="s">
         <v>986</v>
       </c>
-      <c r="B31" s="74">
-        <v>342</v>
-      </c>
-      <c r="C31" s="74">
-        <v>32.72138889</v>
-      </c>
-      <c r="D31" s="74">
-        <v>-84.232500000000002</v>
-      </c>
-      <c r="E31" s="74">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="74" t="s">
+      <c r="B36" s="65">
+        <v>347</v>
+      </c>
+      <c r="C36" s="65">
+        <v>33.997222200000003</v>
+      </c>
+      <c r="D36" s="65">
+        <v>-84.201944400000002</v>
+      </c>
+      <c r="E36" s="65">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="65" t="s">
         <v>987</v>
       </c>
-      <c r="B32" s="74">
-        <v>343</v>
-      </c>
-      <c r="C32" s="74">
-        <v>33.720694440000003</v>
-      </c>
-      <c r="D32" s="74">
-        <v>-83.295611100000002</v>
-      </c>
-      <c r="E32" s="74">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="74" t="s">
+      <c r="B37" s="65">
+        <v>348</v>
+      </c>
+      <c r="C37" s="65">
+        <v>34.014041599999999</v>
+      </c>
+      <c r="D37" s="65">
+        <v>-81.087871699999994</v>
+      </c>
+      <c r="E37" s="65">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="65" t="s">
         <v>988</v>
       </c>
-      <c r="B33" s="74">
-        <v>344</v>
-      </c>
-      <c r="C33" s="74">
-        <v>32.88663889</v>
-      </c>
-      <c r="D33" s="74">
-        <v>-85.1815833</v>
-      </c>
-      <c r="E33" s="74">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="74" t="s">
+      <c r="B38" s="65">
+        <v>349</v>
+      </c>
+      <c r="C38" s="65">
+        <v>34.184712189999999</v>
+      </c>
+      <c r="D38" s="65">
+        <v>-81.725633680000001</v>
+      </c>
+      <c r="E38" s="65">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="65" t="s">
         <v>989</v>
       </c>
-      <c r="B34" s="74">
-        <v>345</v>
-      </c>
-      <c r="C34" s="74">
-        <v>33.372527779999999</v>
-      </c>
-      <c r="D34" s="74">
-        <v>-81.942083299999993</v>
-      </c>
-      <c r="E34" s="74">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="74" t="s">
+      <c r="B39" s="65">
+        <v>350</v>
+      </c>
+      <c r="C39" s="65">
+        <v>55.096891829999997</v>
+      </c>
+      <c r="D39" s="65">
+        <v>-2.4825423990000002</v>
+      </c>
+      <c r="E39" s="65">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="65" t="s">
         <v>990</v>
       </c>
-      <c r="B35" s="74">
-        <v>346</v>
-      </c>
-      <c r="C35" s="74">
-        <v>33.116786840000003</v>
-      </c>
-      <c r="D35" s="74">
-        <v>-85.560787500000004</v>
-      </c>
-      <c r="E35" s="74">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="74" t="s">
+      <c r="B40" s="65">
+        <v>351</v>
+      </c>
+      <c r="C40" s="65">
+        <v>44.036507139999998</v>
+      </c>
+      <c r="D40" s="65">
+        <v>-78.522799379999995</v>
+      </c>
+      <c r="E40" s="65">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="65" t="s">
         <v>991</v>
       </c>
-      <c r="B36" s="74">
-        <v>347</v>
-      </c>
-      <c r="C36" s="74">
-        <v>33.997222200000003</v>
-      </c>
-      <c r="D36" s="74">
-        <v>-84.201944400000002</v>
-      </c>
-      <c r="E36" s="74">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="74" t="s">
+      <c r="B41" s="65">
+        <v>352</v>
+      </c>
+      <c r="C41" s="65">
+        <v>38.284999999999997</v>
+      </c>
+      <c r="D41" s="65">
+        <v>110.15</v>
+      </c>
+      <c r="E41" s="65">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="65" t="s">
         <v>992</v>
       </c>
-      <c r="B37" s="74">
-        <v>348</v>
-      </c>
-      <c r="C37" s="74">
-        <v>34.014041599999999</v>
-      </c>
-      <c r="D37" s="74">
-        <v>-81.087871699999994</v>
-      </c>
-      <c r="E37" s="74">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="74" t="s">
+      <c r="B42" s="65">
+        <v>353</v>
+      </c>
+      <c r="C42" s="65">
+        <v>39.13338443</v>
+      </c>
+      <c r="D42" s="65">
+        <v>-79.825483969999993</v>
+      </c>
+      <c r="E42" s="65">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="65" t="s">
+        <v>992</v>
+      </c>
+      <c r="B43" s="65">
+        <v>354</v>
+      </c>
+      <c r="C43" s="65">
+        <v>39.13338443</v>
+      </c>
+      <c r="D43" s="65">
+        <v>-79.825483969999993</v>
+      </c>
+      <c r="E43" s="65">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="65" t="s">
         <v>993</v>
       </c>
-      <c r="B38" s="74">
-        <v>349</v>
-      </c>
-      <c r="C38" s="74">
-        <v>34.184712189999999</v>
-      </c>
-      <c r="D38" s="74">
-        <v>-81.725633680000001</v>
-      </c>
-      <c r="E38" s="74">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="74" t="s">
+      <c r="B44" s="65">
+        <v>355</v>
+      </c>
+      <c r="C44" s="65">
+        <v>11.75</v>
+      </c>
+      <c r="D44" s="65">
+        <v>33.833333330000002</v>
+      </c>
+      <c r="E44" s="65">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="65" t="s">
         <v>994</v>
       </c>
-      <c r="B39" s="74">
-        <v>350</v>
-      </c>
-      <c r="C39" s="74">
-        <v>55.096891829999997</v>
-      </c>
-      <c r="D39" s="74">
-        <v>-2.4825423990000002</v>
-      </c>
-      <c r="E39" s="74">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="74" t="s">
+      <c r="B45" s="65">
+        <v>356</v>
+      </c>
+      <c r="C45" s="65">
+        <v>-25.75</v>
+      </c>
+      <c r="D45" s="65">
+        <v>28.23</v>
+      </c>
+      <c r="E45" s="65">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="65" t="s">
         <v>995</v>
       </c>
-      <c r="B40" s="74">
-        <v>351</v>
-      </c>
-      <c r="C40" s="74">
-        <v>44.036507139999998</v>
-      </c>
-      <c r="D40" s="74">
-        <v>-78.522799379999995</v>
-      </c>
-      <c r="E40" s="74">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="74" t="s">
-        <v>996</v>
-      </c>
-      <c r="B41" s="74">
-        <v>352</v>
-      </c>
-      <c r="C41" s="74">
-        <v>38.284999999999997</v>
-      </c>
-      <c r="D41" s="74">
-        <v>110.15</v>
-      </c>
-      <c r="E41" s="74">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="74" t="s">
-        <v>997</v>
-      </c>
-      <c r="B42" s="74">
-        <v>353</v>
-      </c>
-      <c r="C42" s="74">
-        <v>39.13338443</v>
-      </c>
-      <c r="D42" s="74">
-        <v>-79.825483969999993</v>
-      </c>
-      <c r="E42" s="74">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="74" t="s">
-        <v>997</v>
-      </c>
-      <c r="B43" s="74">
-        <v>354</v>
-      </c>
-      <c r="C43" s="74">
-        <v>39.13338443</v>
-      </c>
-      <c r="D43" s="74">
-        <v>-79.825483969999993</v>
-      </c>
-      <c r="E43" s="74">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="74" t="s">
-        <v>998</v>
-      </c>
-      <c r="B44" s="74">
-        <v>355</v>
-      </c>
-      <c r="C44" s="74">
-        <v>11.75</v>
-      </c>
-      <c r="D44" s="74">
-        <v>33.833333330000002</v>
-      </c>
-      <c r="E44" s="74">
-        <v>2480</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="74" t="s">
-        <v>999</v>
-      </c>
-      <c r="B45" s="74">
-        <v>356</v>
-      </c>
-      <c r="C45" s="74">
-        <v>-25.75</v>
-      </c>
-      <c r="D45" s="74">
-        <v>28.23</v>
-      </c>
-      <c r="E45" s="74">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="74" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B46" s="74">
+      <c r="B46" s="65">
         <v>357</v>
       </c>
-      <c r="C46" s="74">
+      <c r="C46" s="65">
         <v>40.105833330000003</v>
       </c>
-      <c r="D46" s="74">
+      <c r="D46" s="65">
         <v>8.1174999999999997</v>
       </c>
-      <c r="E46" s="74"/>
+      <c r="E46" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40842,7 +40761,7 @@
         <v>682</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T1" s="56" t="s">
         <v>879</v>

--- a/data/TablesZhangetal2017_11_28_EN_21.xlsx
+++ b/data/TablesZhangetal2017_11_28_EN_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977E85DF-7362-42E2-8FAE-BD81931F5C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B247474B-D213-47CE-82CC-5D089D1CF5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5270" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5270" uniqueCount="1003">
   <si>
     <t>Watershed #</t>
   </si>
@@ -2870,9 +2870,6 @@
     <t>Complete</t>
   </si>
   <si>
-    <t>Trimble and Weirich, 1987, data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich</t>
-  </si>
-  <si>
     <t>Location Details AL=aprox location given by author, PL=point location given by author, GM= coordinates guessed from google maps, USGS = USGS location data</t>
   </si>
   <si>
@@ -2891,12 +2888,6 @@
     <t>Ocmulgee Macon, USA</t>
   </si>
   <si>
-    <t>Trimble and Weirich, 1987, data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich, location using gauge 02347500 near Carsonville, the Flint does not go through Culloden</t>
-  </si>
-  <si>
-    <t>Trimble and Weirich, 1987, data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich, for location used gauge 02218300 as original gauge location is probably now in Lake Oconee</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chattahoochee at West Point, USA, </t>
   </si>
   <si>
@@ -2915,9 +2906,6 @@
     <t>Tallapoosa at Wadley AL, USA</t>
   </si>
   <si>
-    <t>Trimble and Weirich, 1987, data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich. Gauge probably no longer exists</t>
-  </si>
-  <si>
     <t>Coalburn catchment</t>
   </si>
   <si>
@@ -3132,6 +3120,24 @@
   </si>
   <si>
     <t>Time study from Bosch and Hawlett 1982. Paper from them sayas 80% increase in runoff after 8 yrs treatment. In Hibbert 1971 says Watershed F was not treated until 1969 and was not included in that study</t>
+  </si>
+  <si>
+    <t>Trimble and Weirich, 1987, data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich. Rainfall data from https://prism.oregonstate.edu/normals/</t>
+  </si>
+  <si>
+    <t>Trimble and Weirich, 1987, data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich Rainfall data from https://prism.oregonstate.edu/normals/</t>
+  </si>
+  <si>
+    <t>Trimble and Weirich, 1987, data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich, location using gauge 02347500 near Carsonville, the Flint does not go through Culloden.Rainfall data from https://prism.oregonstate.edu/normals/</t>
+  </si>
+  <si>
+    <t>Trimble and Weirich, 1987, data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich, for location used gauge 02218300 as original gauge location is probably now in Lake Oconee. Rainfall data from https://prism.oregonstate.edu/normals/</t>
+  </si>
+  <si>
+    <t>Trimble and Weirich, 1987, data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich.Rainfall data from https://prism.oregonstate.edu/normals/</t>
+  </si>
+  <si>
+    <t>Trimble and Weirich, 1987, data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich. Gauge probably no longer exists.Rainfall data from https://prism.oregonstate.edu/normals/</t>
   </si>
 </sst>
 </file>
@@ -3921,7 +3927,7 @@
         <v>682</v>
       </c>
       <c r="S1" s="48" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="57.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15802,7 +15808,7 @@
         <v>16</v>
       </c>
       <c r="K149" s="24" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="L149" s="65">
         <v>899</v>
@@ -16598,7 +16604,7 @@
         <v>16</v>
       </c>
       <c r="K163" s="24" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="L163" s="65">
         <v>1165</v>
@@ -21644,7 +21650,7 @@
         <v>682</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="T1" s="40" t="s">
         <v>774</v>
@@ -23454,7 +23460,7 @@
         <v>1984</v>
       </c>
       <c r="S30" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T30" s="8">
         <v>1</v>
@@ -24802,7 +24808,7 @@
         <v>1964</v>
       </c>
       <c r="S52" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T52" s="8">
         <v>1</v>
@@ -29295,7 +29301,7 @@
       <c r="N125" s="21"/>
       <c r="O125" s="21"/>
       <c r="P125" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
@@ -30128,7 +30134,7 @@
         <v>1990</v>
       </c>
       <c r="S139" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T139" s="8">
         <v>1</v>
@@ -31689,7 +31695,7 @@
         <v>16</v>
       </c>
       <c r="K165" s="24" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="L165" s="65">
         <v>2701</v>
@@ -31704,7 +31710,7 @@
         <v>17</v>
       </c>
       <c r="P165" s="40" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="Q165">
         <v>1954</v>
@@ -31721,7 +31727,7 @@
         <v>225</v>
       </c>
       <c r="B166" s="24" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C166" s="1">
         <v>0.05</v>
@@ -31748,7 +31754,7 @@
         <v>16</v>
       </c>
       <c r="K166" s="24" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="L166" s="65">
         <v>2701</v>
@@ -31763,7 +31769,7 @@
         <v>17</v>
       </c>
       <c r="P166" s="40" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="Q166">
         <v>1954</v>
@@ -32202,7 +32208,7 @@
         <v>1983</v>
       </c>
       <c r="S173" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T173" s="8">
         <v>1</v>
@@ -32265,7 +32271,7 @@
         <v>1983</v>
       </c>
       <c r="S174" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T174" s="8">
         <v>1</v>
@@ -32328,7 +32334,7 @@
         <v>1983</v>
       </c>
       <c r="S175" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T175" s="8">
         <v>1</v>
@@ -32448,7 +32454,7 @@
         <v>1983</v>
       </c>
       <c r="S177" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T177" s="8">
         <v>1</v>
@@ -33595,7 +33601,7 @@
         <v>1990</v>
       </c>
       <c r="S196" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T196" s="8">
         <v>1</v>
@@ -33657,7 +33663,7 @@
         <v>1990</v>
       </c>
       <c r="S197" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T197" s="8">
         <v>1</v>
@@ -34882,7 +34888,7 @@
         <v>8</v>
       </c>
       <c r="P217" s="60" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="Q217" s="7">
         <v>1969</v>
@@ -37047,8 +37053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD75620-6F76-4BA6-A94E-CE93109D006F}">
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37117,7 +37123,7 @@
         <v>682</v>
       </c>
       <c r="S1" s="68" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="T1" s="68" t="s">
         <v>774</v>
@@ -38794,7 +38800,7 @@
         <v>340</v>
       </c>
       <c r="B30" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C30">
         <v>5800</v>
@@ -38818,7 +38824,7 @@
         <v>26</v>
       </c>
       <c r="K30" t="s">
-        <v>913</v>
+        <v>997</v>
       </c>
       <c r="L30">
         <v>32.838611</v>
@@ -38840,7 +38846,7 @@
         <v>1975</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T30" s="8">
         <v>1</v>
@@ -38852,7 +38858,7 @@
         <v>341</v>
       </c>
       <c r="B31" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C31">
         <v>7640</v>
@@ -38876,7 +38882,7 @@
         <v>26</v>
       </c>
       <c r="K31" t="s">
-        <v>913</v>
+        <v>998</v>
       </c>
       <c r="L31">
         <v>33.090166670000002</v>
@@ -38898,7 +38904,7 @@
         <v>1975</v>
       </c>
       <c r="S31" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T31" s="8">
         <v>1</v>
@@ -38934,7 +38940,7 @@
         <v>26</v>
       </c>
       <c r="K32" t="s">
-        <v>920</v>
+        <v>999</v>
       </c>
       <c r="L32">
         <v>32.72138889</v>
@@ -38956,7 +38962,7 @@
         <v>1975</v>
       </c>
       <c r="S32" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T32" s="8">
         <v>1</v>
@@ -38968,7 +38974,7 @@
         <v>343</v>
       </c>
       <c r="B33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C33">
         <v>2820</v>
@@ -38992,7 +38998,7 @@
         <v>26</v>
       </c>
       <c r="K33" t="s">
-        <v>921</v>
+        <v>1000</v>
       </c>
       <c r="L33">
         <v>33.720694440000003</v>
@@ -39014,7 +39020,7 @@
         <v>1975</v>
       </c>
       <c r="S33" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T33" s="8">
         <v>1</v>
@@ -39026,7 +39032,7 @@
         <v>344</v>
       </c>
       <c r="B34" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C34">
         <v>9195</v>
@@ -39050,7 +39056,7 @@
         <v>26</v>
       </c>
       <c r="K34" t="s">
-        <v>913</v>
+        <v>997</v>
       </c>
       <c r="L34">
         <v>32.88663889</v>
@@ -39072,7 +39078,7 @@
         <v>1975</v>
       </c>
       <c r="S34" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T34" s="8">
         <v>1</v>
@@ -39084,7 +39090,7 @@
         <v>345</v>
       </c>
       <c r="B35" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C35">
         <v>19450</v>
@@ -39108,7 +39114,7 @@
         <v>26</v>
       </c>
       <c r="K35" t="s">
-        <v>913</v>
+        <v>1001</v>
       </c>
       <c r="L35">
         <v>33.372527779999999</v>
@@ -39130,7 +39136,7 @@
         <v>1975</v>
       </c>
       <c r="S35" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T35" s="8">
         <v>1</v>
@@ -39142,7 +39148,7 @@
         <v>346</v>
       </c>
       <c r="B36" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C36">
         <v>4300</v>
@@ -39166,7 +39172,7 @@
         <v>26</v>
       </c>
       <c r="K36" t="s">
-        <v>913</v>
+        <v>1001</v>
       </c>
       <c r="L36">
         <v>33.116786840000003</v>
@@ -39188,7 +39194,7 @@
         <v>1975</v>
       </c>
       <c r="S36" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T36" s="8">
         <v>1</v>
@@ -39200,7 +39206,7 @@
         <v>347</v>
       </c>
       <c r="B37" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C37">
         <v>3030</v>
@@ -39224,7 +39230,7 @@
         <v>26</v>
       </c>
       <c r="K37" t="s">
-        <v>913</v>
+        <v>1001</v>
       </c>
       <c r="L37">
         <v>33.997222200000003</v>
@@ -39246,7 +39252,7 @@
         <v>1975</v>
       </c>
       <c r="S37" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T37" s="8">
         <v>1</v>
@@ -39258,7 +39264,7 @@
         <v>348</v>
       </c>
       <c r="B38" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C38">
         <v>6500</v>
@@ -39282,7 +39288,7 @@
         <v>26</v>
       </c>
       <c r="K38" t="s">
-        <v>913</v>
+        <v>1001</v>
       </c>
       <c r="L38">
         <v>34.014041599999999</v>
@@ -39304,7 +39310,7 @@
         <v>1975</v>
       </c>
       <c r="S38" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T38" s="8">
         <v>1</v>
@@ -39316,7 +39322,7 @@
         <v>349</v>
       </c>
       <c r="B39" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C39">
         <v>4200</v>
@@ -39340,7 +39346,7 @@
         <v>26</v>
       </c>
       <c r="K39" t="s">
-        <v>928</v>
+        <v>1002</v>
       </c>
       <c r="L39">
         <v>34.184712188575901</v>
@@ -39374,7 +39380,7 @@
         <v>350</v>
       </c>
       <c r="B40" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C40">
         <v>1.5</v>
@@ -39401,7 +39407,7 @@
         <v>26</v>
       </c>
       <c r="K40" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="L40">
         <v>55.096891825362803</v>
@@ -39435,7 +39441,7 @@
         <v>351</v>
       </c>
       <c r="B41" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C41">
         <v>267</v>
@@ -39463,7 +39469,7 @@
         <v>26</v>
       </c>
       <c r="K41" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="L41">
         <v>44.036507143754903</v>
@@ -39497,7 +39503,7 @@
         <v>352</v>
       </c>
       <c r="B42" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C42">
         <v>1117</v>
@@ -39510,7 +39516,7 @@
         <v>14</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="H42">
         <v>-32</v>
@@ -39519,7 +39525,7 @@
         <v>26</v>
       </c>
       <c r="K42" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="L42">
         <v>38.284999999999997</v>
@@ -39553,7 +39559,7 @@
         <v>353</v>
       </c>
       <c r="B43" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="C43">
         <v>0.19</v>
@@ -39580,7 +39586,7 @@
         <v>26</v>
       </c>
       <c r="K43" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="L43">
         <v>39.133384429172899</v>
@@ -39614,7 +39620,7 @@
         <v>354</v>
       </c>
       <c r="B44" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C44">
         <v>0.12</v>
@@ -39641,7 +39647,7 @@
         <v>26</v>
       </c>
       <c r="K44" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="L44">
         <v>39.133384429172899</v>
@@ -39675,7 +39681,7 @@
         <v>355</v>
       </c>
       <c r="B45" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C45">
         <v>13.3</v>
@@ -39702,7 +39708,7 @@
         <v>26</v>
       </c>
       <c r="K45" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="L45">
         <f>11+45/60</f>
@@ -39738,7 +39744,7 @@
         <v>356</v>
       </c>
       <c r="B46" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C46">
         <v>200</v>
@@ -39767,7 +39773,7 @@
         <v>21</v>
       </c>
       <c r="K46" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="L46">
         <v>-25.75</v>
@@ -39801,7 +39807,7 @@
         <v>357</v>
       </c>
       <c r="B47" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="C47">
         <v>9.7000000000000003E-2</v>
@@ -39829,7 +39835,7 @@
         <v>16</v>
       </c>
       <c r="K47" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="L47">
         <v>40.100999999999999</v>
@@ -39898,24 +39904,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="65" t="s">
+        <v>943</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>944</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>945</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>946</v>
+      </c>
+      <c r="E1" s="65" t="s">
         <v>947</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>948</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>949</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>950</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="65" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="B2" s="65">
         <v>313</v>
@@ -39932,7 +39938,7 @@
     </row>
     <row r="3" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="65" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="B3" s="65">
         <v>314</v>
@@ -39949,7 +39955,7 @@
     </row>
     <row r="4" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="65" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="B4" s="65">
         <v>315</v>
@@ -39966,7 +39972,7 @@
     </row>
     <row r="5" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="65" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B5" s="65">
         <v>316</v>
@@ -39983,7 +39989,7 @@
     </row>
     <row r="6" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="65" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="B6" s="65">
         <v>317</v>
@@ -40000,7 +40006,7 @@
     </row>
     <row r="7" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A7" s="65" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="B7" s="65">
         <v>318</v>
@@ -40017,7 +40023,7 @@
     </row>
     <row r="8" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A8" s="65" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="B8" s="65">
         <v>319</v>
@@ -40034,7 +40040,7 @@
     </row>
     <row r="9" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" s="65" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B9" s="65">
         <v>320</v>
@@ -40051,7 +40057,7 @@
     </row>
     <row r="10" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A10" s="65" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B10" s="65">
         <v>321</v>
@@ -40068,7 +40074,7 @@
     </row>
     <row r="11" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A11" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B11" s="65">
         <v>322</v>
@@ -40085,7 +40091,7 @@
     </row>
     <row r="12" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A12" s="65" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="B12" s="65">
         <v>323</v>
@@ -40102,7 +40108,7 @@
     </row>
     <row r="13" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A13" s="65" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="B13" s="65">
         <v>324</v>
@@ -40119,7 +40125,7 @@
     </row>
     <row r="14" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A14" s="65" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="B14" s="65">
         <v>325</v>
@@ -40136,7 +40142,7 @@
     </row>
     <row r="15" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A15" s="65" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B15" s="65">
         <v>326</v>
@@ -40153,7 +40159,7 @@
     </row>
     <row r="16" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="B16" s="65">
         <v>327</v>
@@ -40170,7 +40176,7 @@
     </row>
     <row r="17" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A17" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="B17" s="65">
         <v>328</v>
@@ -40187,7 +40193,7 @@
     </row>
     <row r="18" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A18" s="65" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="B18" s="65">
         <v>329</v>
@@ -40204,7 +40210,7 @@
     </row>
     <row r="19" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="65" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="B19" s="65">
         <v>330</v>
@@ -40221,7 +40227,7 @@
     </row>
     <row r="20" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="65" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="B20" s="65">
         <v>331</v>
@@ -40238,7 +40244,7 @@
     </row>
     <row r="21" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="65" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B21" s="65">
         <v>332</v>
@@ -40255,7 +40261,7 @@
     </row>
     <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="65" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="B22" s="65">
         <v>333</v>
@@ -40272,7 +40278,7 @@
     </row>
     <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="65" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B23" s="65">
         <v>334</v>
@@ -40289,7 +40295,7 @@
     </row>
     <row r="24" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A24" s="65" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="B24" s="65">
         <v>335</v>
@@ -40306,7 +40312,7 @@
     </row>
     <row r="25" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A25" s="65" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="B25" s="65">
         <v>336</v>
@@ -40323,7 +40329,7 @@
     </row>
     <row r="26" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A26" s="65" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="B26" s="65">
         <v>337</v>
@@ -40340,7 +40346,7 @@
     </row>
     <row r="27" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A27" s="65" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="B27" s="65">
         <v>338</v>
@@ -40357,7 +40363,7 @@
     </row>
     <row r="28" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A28" s="65" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B28" s="65">
         <v>339</v>
@@ -40374,7 +40380,7 @@
     </row>
     <row r="29" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A29" s="65" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B29" s="65">
         <v>340</v>
@@ -40391,7 +40397,7 @@
     </row>
     <row r="30" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A30" s="65" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="B30" s="65">
         <v>341</v>
@@ -40408,7 +40414,7 @@
     </row>
     <row r="31" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A31" s="65" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="B31" s="65">
         <v>342</v>
@@ -40425,7 +40431,7 @@
     </row>
     <row r="32" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A32" s="65" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="B32" s="65">
         <v>343</v>
@@ -40442,7 +40448,7 @@
     </row>
     <row r="33" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A33" s="65" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="B33" s="65">
         <v>344</v>
@@ -40459,7 +40465,7 @@
     </row>
     <row r="34" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A34" s="65" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B34" s="65">
         <v>345</v>
@@ -40476,7 +40482,7 @@
     </row>
     <row r="35" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A35" s="65" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B35" s="65">
         <v>346</v>
@@ -40493,7 +40499,7 @@
     </row>
     <row r="36" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A36" s="65" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="B36" s="65">
         <v>347</v>
@@ -40510,7 +40516,7 @@
     </row>
     <row r="37" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A37" s="65" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="B37" s="65">
         <v>348</v>
@@ -40527,7 +40533,7 @@
     </row>
     <row r="38" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A38" s="65" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="B38" s="65">
         <v>349</v>
@@ -40544,7 +40550,7 @@
     </row>
     <row r="39" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A39" s="65" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B39" s="65">
         <v>350</v>
@@ -40561,7 +40567,7 @@
     </row>
     <row r="40" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A40" s="65" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="B40" s="65">
         <v>351</v>
@@ -40578,7 +40584,7 @@
     </row>
     <row r="41" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A41" s="65" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B41" s="65">
         <v>352</v>
@@ -40595,7 +40601,7 @@
     </row>
     <row r="42" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A42" s="65" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="B42" s="65">
         <v>353</v>
@@ -40612,7 +40618,7 @@
     </row>
     <row r="43" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A43" s="65" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="B43" s="65">
         <v>354</v>
@@ -40629,7 +40635,7 @@
     </row>
     <row r="44" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A44" s="65" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B44" s="65">
         <v>355</v>
@@ -40646,7 +40652,7 @@
     </row>
     <row r="45" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A45" s="65" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="B45" s="65">
         <v>356</v>
@@ -40663,7 +40669,7 @@
     </row>
     <row r="46" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A46" s="65" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="B46" s="65">
         <v>357</v>
@@ -40761,7 +40767,7 @@
         <v>682</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="T1" s="56" t="s">
         <v>879</v>

--- a/data/TablesZhangetal2017_11_28_EN_21.xlsx
+++ b/data/TablesZhangetal2017_11_28_EN_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B247474B-D213-47CE-82CC-5D089D1CF5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3165222E-9B19-4CC5-8E29-AA862C5DB1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5270" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5290" uniqueCount="1016">
   <si>
     <t>Watershed #</t>
   </si>
@@ -2933,33 +2933,12 @@
     <t>Luchelemu catchment</t>
   </si>
   <si>
-    <t>Mwendera 1994 https://doi.org/10.1016/0378-1127(94)90159-7</t>
-  </si>
-  <si>
-    <t>Huang and Zhang 2004 from Filoso et al. 2017. This paper actually describes more than just reforestation, there are also other conservation practices, so not really valid</t>
-  </si>
-  <si>
-    <t>Birkinshaw et al. 2014 from Filoso et al. 2017. page 564: no statistically significant trends were found in the annual discharge totals</t>
-  </si>
-  <si>
-    <t>Buttle 1994 from Filoso et al. 2017. Change in runoff based on 100mm decline on 0.6 (runoff ratio)*800mm precip</t>
-  </si>
-  <si>
-    <t>Lima et al. 1978 FOREST SERVICE RESEARCH PAPER NE-392 from Filoso et al. 2017</t>
-  </si>
-  <si>
     <t>Queens river</t>
   </si>
   <si>
-    <t>Pitman 1978 from Filoso et al. 2017</t>
-  </si>
-  <si>
     <t>Valtorto</t>
   </si>
   <si>
-    <t>Stoof et al. 2012 https://hess.copernicus.org/articles/16/267/2012/. Rainfall and Et calculated as the average of the reported data in Table 3 in the paper</t>
-  </si>
-  <si>
     <t>wkt_geom</t>
   </si>
   <si>
@@ -3122,22 +3101,82 @@
     <t>Time study from Bosch and Hawlett 1982. Paper from them sayas 80% increase in runoff after 8 yrs treatment. In Hibbert 1971 says Watershed F was not treated until 1969 and was not included in that study</t>
   </si>
   <si>
-    <t>Trimble and Weirich, 1987, data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich. Rainfall data from https://prism.oregonstate.edu/normals/</t>
-  </si>
-  <si>
-    <t>Trimble and Weirich, 1987, data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich Rainfall data from https://prism.oregonstate.edu/normals/</t>
-  </si>
-  <si>
-    <t>Trimble and Weirich, 1987, data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich, location using gauge 02347500 near Carsonville, the Flint does not go through Culloden.Rainfall data from https://prism.oregonstate.edu/normals/</t>
-  </si>
-  <si>
-    <t>Trimble and Weirich, 1987, data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich, for location used gauge 02218300 as original gauge location is probably now in Lake Oconee. Rainfall data from https://prism.oregonstate.edu/normals/</t>
-  </si>
-  <si>
-    <t>Trimble and Weirich, 1987, data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich.Rainfall data from https://prism.oregonstate.edu/normals/</t>
-  </si>
-  <si>
-    <t>Trimble and Weirich, 1987, data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich. Gauge probably no longer exists.Rainfall data from https://prism.oregonstate.edu/normals/</t>
+    <t>Trimble and Weirich, 1987</t>
+  </si>
+  <si>
+    <t>Data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich. Rainfall data from https://prism.oregonstate.edu/normals/</t>
+  </si>
+  <si>
+    <t>data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich Rainfall data from https://prism.oregonstate.edu/normals/</t>
+  </si>
+  <si>
+    <t>data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich, location using gauge 02347500 near Carsonville, the Flint does not go through Culloden.Rainfall data from https://prism.oregonstate.edu/normals/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich, for location used gauge 02218300 as original gauge location is probably now in Lake Oconee. Rainfall data from https://prism.oregonstate.edu/normals/</t>
+  </si>
+  <si>
+    <t>data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich. Rainfall data from https://prism.oregonstate.edu/normals/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trimble and Weirich, 1987, </t>
+  </si>
+  <si>
+    <t>data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich.Rainfall data from https://prism.oregonstate.edu/normals/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich.Rainfall data from https://prism.oregonstate.edu/normals/</t>
+  </si>
+  <si>
+    <t>data as extracted by Filoso et al. 2017, based on Table 1 in Trimble and Weirich. Gauge probably no longer exists.Rainfall data from https://prism.oregonstate.edu/normals/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birkinshaw et al. 2014 </t>
+  </si>
+  <si>
+    <t>from Filoso et al. 2017. page 564: no statistically significant trends were found in the annual discharge totals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buttle 1994 </t>
+  </si>
+  <si>
+    <t>from Filoso et al. 2017. Change in runoff based on 100mm decline on 0.6 (runoff ratio)*800mm precip</t>
+  </si>
+  <si>
+    <t>Huang and Zhang 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> from Filoso et al. 2017. This paper actually describes more than just reforestation, there are also other conservation practices, so not really valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lima et al. 1978 </t>
+  </si>
+  <si>
+    <t>FOREST SERVICE RESEARCH PAPER NE-392 from Filoso et al. 2017</t>
+  </si>
+  <si>
+    <t>Mwendera 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doi.org/10.1016/0378-1127(94)90159-7</t>
+  </si>
+  <si>
+    <t>Lima et al. 1978</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FOREST SERVICE RESEARCH PAPER NE-392 from Filoso et al. 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitman 1978 </t>
+  </si>
+  <si>
+    <t>from Filoso et al. 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoof et al. 2012 </t>
+  </si>
+  <si>
+    <t>https://hess.copernicus.org/articles/16/267/2012/. Rainfall and Et calculated as the average of the reported data in Table 3 in the paper</t>
   </si>
 </sst>
 </file>
@@ -3348,7 +3387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -3508,13 +3547,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3526,14 +3568,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -21576,8 +21618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AFE286-8638-404F-9DBC-2F4BDB10044C}">
   <dimension ref="A1:V252"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="S218" sqref="S218"/>
+    <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31695,7 +31737,7 @@
         <v>16</v>
       </c>
       <c r="K165" s="24" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="L165" s="65">
         <v>2701</v>
@@ -31710,7 +31752,7 @@
         <v>17</v>
       </c>
       <c r="P165" s="40" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="Q165">
         <v>1954</v>
@@ -31727,7 +31769,7 @@
         <v>225</v>
       </c>
       <c r="B166" s="24" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="C166" s="1">
         <v>0.05</v>
@@ -31754,7 +31796,7 @@
         <v>16</v>
       </c>
       <c r="K166" s="24" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="L166" s="65">
         <v>2701</v>
@@ -31769,7 +31811,7 @@
         <v>17</v>
       </c>
       <c r="P166" s="40" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="Q166">
         <v>1954</v>
@@ -34888,7 +34930,7 @@
         <v>8</v>
       </c>
       <c r="P217" s="60" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="Q217" s="7">
         <v>1969</v>
@@ -37051,10 +37093,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD75620-6F76-4BA6-A94E-CE93109D006F}">
-  <dimension ref="A1:U47"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37067,35 +37109,35 @@
     <col min="16" max="16" width="4.453125" style="20" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="72" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="67" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="69" t="s">
@@ -37116,48 +37158,52 @@
       <c r="P1" s="69" t="s">
         <v>541</v>
       </c>
-      <c r="Q1" s="67" t="s">
+      <c r="Q1" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="R1" s="67" t="s">
+      <c r="R1" s="74" t="s">
         <v>682</v>
       </c>
-      <c r="S1" s="68" t="s">
+      <c r="S1" s="75" t="s">
         <v>913</v>
       </c>
-      <c r="T1" s="68" t="s">
+      <c r="T1" s="75" t="s">
         <v>774</v>
       </c>
       <c r="U1" s="58" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
+      <c r="V1" s="76" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
       <c r="U2" s="61" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V2" s="76"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>313</v>
       </c>
@@ -37216,7 +37262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>314</v>
       </c>
@@ -37275,7 +37321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>315</v>
       </c>
@@ -37334,7 +37380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>316</v>
       </c>
@@ -37393,7 +37439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>317</v>
       </c>
@@ -37452,7 +37498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>318</v>
       </c>
@@ -37511,7 +37557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>319</v>
       </c>
@@ -37570,7 +37616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>320</v>
       </c>
@@ -37629,7 +37675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>321</v>
       </c>
@@ -37688,7 +37734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>322</v>
       </c>
@@ -37747,7 +37793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>323</v>
       </c>
@@ -37806,7 +37852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>324</v>
       </c>
@@ -37871,7 +37917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>325</v>
       </c>
@@ -37930,7 +37976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>326</v>
       </c>
@@ -37989,7 +38035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>327</v>
       </c>
@@ -38048,7 +38094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>328</v>
       </c>
@@ -38112,7 +38158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>329</v>
       </c>
@@ -38144,7 +38190,7 @@
         <v>40</v>
       </c>
       <c r="K19" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="L19">
         <v>16.433</v>
@@ -38167,8 +38213,11 @@
       <c r="T19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V19" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>330</v>
       </c>
@@ -38230,7 +38279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>331</v>
       </c>
@@ -38292,7 +38341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>332</v>
       </c>
@@ -38354,7 +38403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>333</v>
       </c>
@@ -38413,7 +38462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>334</v>
       </c>
@@ -38478,7 +38527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>335</v>
       </c>
@@ -38540,7 +38589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>336</v>
       </c>
@@ -38603,7 +38652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>337</v>
       </c>
@@ -38667,7 +38716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <f>A27+1</f>
         <v>338</v>
@@ -38730,7 +38779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="32" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" s="32" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" ref="A29:A47" si="0">A28+1</f>
         <v>339</v>
@@ -38794,7 +38843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>340</v>
@@ -38824,7 +38873,7 @@
         <v>26</v>
       </c>
       <c r="K30" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="L30">
         <v>32.838611</v>
@@ -38851,8 +38900,11 @@
       <c r="T30" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V30" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>341</v>
@@ -38882,7 +38934,7 @@
         <v>26</v>
       </c>
       <c r="K31" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="L31">
         <v>33.090166670000002</v>
@@ -38909,8 +38961,11 @@
       <c r="T31" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V31" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>342</v>
@@ -38940,7 +38995,7 @@
         <v>26</v>
       </c>
       <c r="K32" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="L32">
         <v>32.72138889</v>
@@ -38967,8 +39022,11 @@
       <c r="T32" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V32" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>343</v>
@@ -38998,7 +39056,7 @@
         <v>26</v>
       </c>
       <c r="K33" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="L33">
         <v>33.720694440000003</v>
@@ -39025,8 +39083,11 @@
       <c r="T33" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V33" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>344</v>
@@ -39056,7 +39117,7 @@
         <v>26</v>
       </c>
       <c r="K34" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="L34">
         <v>32.88663889</v>
@@ -39083,8 +39144,11 @@
       <c r="T34" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V34" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>345</v>
@@ -39114,7 +39178,7 @@
         <v>26</v>
       </c>
       <c r="K35" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="L35">
         <v>33.372527779999999</v>
@@ -39141,8 +39205,11 @@
       <c r="T35" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V35" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>346</v>
@@ -39172,7 +39239,7 @@
         <v>26</v>
       </c>
       <c r="K36" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="L36">
         <v>33.116786840000003</v>
@@ -39199,8 +39266,11 @@
       <c r="T36" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V36" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>347</v>
@@ -39230,7 +39300,7 @@
         <v>26</v>
       </c>
       <c r="K37" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="L37">
         <v>33.997222200000003</v>
@@ -39257,8 +39327,11 @@
       <c r="T37" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V37" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>348</v>
@@ -39288,7 +39361,7 @@
         <v>26</v>
       </c>
       <c r="K38" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="L38">
         <v>34.014041599999999</v>
@@ -39315,8 +39388,11 @@
       <c r="T38" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V38" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>349</v>
@@ -39346,7 +39422,7 @@
         <v>26</v>
       </c>
       <c r="K39" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="L39">
         <v>34.184712188575901</v>
@@ -39373,8 +39449,11 @@
       <c r="T39" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V39" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>350</v>
@@ -39407,7 +39486,7 @@
         <v>26</v>
       </c>
       <c r="K40" t="s">
-        <v>936</v>
+        <v>1000</v>
       </c>
       <c r="L40">
         <v>55.096891825362803</v>
@@ -39434,8 +39513,11 @@
       <c r="T40" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V40" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>351</v>
@@ -39469,7 +39551,7 @@
         <v>26</v>
       </c>
       <c r="K41" t="s">
-        <v>937</v>
+        <v>1002</v>
       </c>
       <c r="L41">
         <v>44.036507143754903</v>
@@ -39496,8 +39578,11 @@
       <c r="T41" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V41" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>352</v>
@@ -39525,7 +39610,7 @@
         <v>26</v>
       </c>
       <c r="K42" t="s">
-        <v>935</v>
+        <v>1004</v>
       </c>
       <c r="L42">
         <v>38.284999999999997</v>
@@ -39552,8 +39637,11 @@
       <c r="T42" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V42" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>353</v>
@@ -39586,7 +39674,7 @@
         <v>26</v>
       </c>
       <c r="K43" t="s">
-        <v>938</v>
+        <v>1010</v>
       </c>
       <c r="L43">
         <v>39.133384429172899</v>
@@ -39613,8 +39701,11 @@
       <c r="T43" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V43" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>354</v>
@@ -39647,7 +39738,7 @@
         <v>26</v>
       </c>
       <c r="K44" t="s">
-        <v>938</v>
+        <v>1006</v>
       </c>
       <c r="L44">
         <v>39.133384429172899</v>
@@ -39674,8 +39765,11 @@
       <c r="T44" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V44" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>355</v>
@@ -39708,7 +39802,7 @@
         <v>26</v>
       </c>
       <c r="K45" t="s">
-        <v>934</v>
+        <v>1008</v>
       </c>
       <c r="L45">
         <f>11+45/60</f>
@@ -39737,14 +39831,17 @@
       <c r="T45" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V45" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>356</v>
       </c>
       <c r="B46" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="C46">
         <v>200</v>
@@ -39773,7 +39870,7 @@
         <v>21</v>
       </c>
       <c r="K46" t="s">
-        <v>940</v>
+        <v>1012</v>
       </c>
       <c r="L46">
         <v>-25.75</v>
@@ -39800,14 +39897,17 @@
       <c r="T46" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V46" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>357</v>
       </c>
       <c r="B47" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="C47">
         <v>9.7000000000000003E-2</v>
@@ -39835,7 +39935,7 @@
         <v>16</v>
       </c>
       <c r="K47" t="s">
-        <v>942</v>
+        <v>1014</v>
       </c>
       <c r="L47">
         <v>40.100999999999999</v>
@@ -39862,21 +39962,13 @@
       <c r="T47" s="8">
         <v>1</v>
       </c>
+      <c r="V47" t="s">
+        <v>1015</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
+  <mergeCells count="21">
+    <mergeCell ref="V1:V2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
@@ -39885,6 +39977,18 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39904,24 +40008,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="65" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="65" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="B2" s="65">
         <v>313</v>
@@ -39938,7 +40042,7 @@
     </row>
     <row r="3" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="65" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="B3" s="65">
         <v>314</v>
@@ -39955,7 +40059,7 @@
     </row>
     <row r="4" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="65" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="B4" s="65">
         <v>315</v>
@@ -39972,7 +40076,7 @@
     </row>
     <row r="5" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="65" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="B5" s="65">
         <v>316</v>
@@ -39989,7 +40093,7 @@
     </row>
     <row r="6" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="65" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="B6" s="65">
         <v>317</v>
@@ -40006,7 +40110,7 @@
     </row>
     <row r="7" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A7" s="65" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="B7" s="65">
         <v>318</v>
@@ -40023,7 +40127,7 @@
     </row>
     <row r="8" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A8" s="65" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="B8" s="65">
         <v>319</v>
@@ -40040,7 +40144,7 @@
     </row>
     <row r="9" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" s="65" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="B9" s="65">
         <v>320</v>
@@ -40057,7 +40161,7 @@
     </row>
     <row r="10" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A10" s="65" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="B10" s="65">
         <v>321</v>
@@ -40074,7 +40178,7 @@
     </row>
     <row r="11" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A11" s="65" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="B11" s="65">
         <v>322</v>
@@ -40091,7 +40195,7 @@
     </row>
     <row r="12" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A12" s="65" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="B12" s="65">
         <v>323</v>
@@ -40108,7 +40212,7 @@
     </row>
     <row r="13" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A13" s="65" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="B13" s="65">
         <v>324</v>
@@ -40125,7 +40229,7 @@
     </row>
     <row r="14" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A14" s="65" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="B14" s="65">
         <v>325</v>
@@ -40142,7 +40246,7 @@
     </row>
     <row r="15" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A15" s="65" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="B15" s="65">
         <v>326</v>
@@ -40159,7 +40263,7 @@
     </row>
     <row r="16" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="65" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="B16" s="65">
         <v>327</v>
@@ -40176,7 +40280,7 @@
     </row>
     <row r="17" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A17" s="65" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="B17" s="65">
         <v>328</v>
@@ -40193,7 +40297,7 @@
     </row>
     <row r="18" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A18" s="65" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="B18" s="65">
         <v>329</v>
@@ -40210,7 +40314,7 @@
     </row>
     <row r="19" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="65" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="B19" s="65">
         <v>330</v>
@@ -40227,7 +40331,7 @@
     </row>
     <row r="20" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="65" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="B20" s="65">
         <v>331</v>
@@ -40244,7 +40348,7 @@
     </row>
     <row r="21" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="65" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="B21" s="65">
         <v>332</v>
@@ -40261,7 +40365,7 @@
     </row>
     <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="65" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="B22" s="65">
         <v>333</v>
@@ -40278,7 +40382,7 @@
     </row>
     <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="65" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="B23" s="65">
         <v>334</v>
@@ -40295,7 +40399,7 @@
     </row>
     <row r="24" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A24" s="65" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="B24" s="65">
         <v>335</v>
@@ -40312,7 +40416,7 @@
     </row>
     <row r="25" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A25" s="65" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="B25" s="65">
         <v>336</v>
@@ -40329,7 +40433,7 @@
     </row>
     <row r="26" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A26" s="65" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="B26" s="65">
         <v>337</v>
@@ -40346,7 +40450,7 @@
     </row>
     <row r="27" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A27" s="65" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="B27" s="65">
         <v>338</v>
@@ -40363,7 +40467,7 @@
     </row>
     <row r="28" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A28" s="65" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="B28" s="65">
         <v>339</v>
@@ -40380,7 +40484,7 @@
     </row>
     <row r="29" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A29" s="65" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="B29" s="65">
         <v>340</v>
@@ -40397,7 +40501,7 @@
     </row>
     <row r="30" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A30" s="65" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="B30" s="65">
         <v>341</v>
@@ -40414,7 +40518,7 @@
     </row>
     <row r="31" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A31" s="65" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="B31" s="65">
         <v>342</v>
@@ -40431,7 +40535,7 @@
     </row>
     <row r="32" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A32" s="65" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="B32" s="65">
         <v>343</v>
@@ -40448,7 +40552,7 @@
     </row>
     <row r="33" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A33" s="65" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="B33" s="65">
         <v>344</v>
@@ -40465,7 +40569,7 @@
     </row>
     <row r="34" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A34" s="65" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="B34" s="65">
         <v>345</v>
@@ -40482,7 +40586,7 @@
     </row>
     <row r="35" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A35" s="65" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="B35" s="65">
         <v>346</v>
@@ -40499,7 +40603,7 @@
     </row>
     <row r="36" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A36" s="65" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="B36" s="65">
         <v>347</v>
@@ -40516,7 +40620,7 @@
     </row>
     <row r="37" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A37" s="65" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="B37" s="65">
         <v>348</v>
@@ -40533,7 +40637,7 @@
     </row>
     <row r="38" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A38" s="65" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="B38" s="65">
         <v>349</v>
@@ -40550,7 +40654,7 @@
     </row>
     <row r="39" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A39" s="65" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="B39" s="65">
         <v>350</v>
@@ -40567,7 +40671,7 @@
     </row>
     <row r="40" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A40" s="65" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="B40" s="65">
         <v>351</v>
@@ -40584,7 +40688,7 @@
     </row>
     <row r="41" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A41" s="65" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="B41" s="65">
         <v>352</v>
@@ -40601,7 +40705,7 @@
     </row>
     <row r="42" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A42" s="65" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="B42" s="65">
         <v>353</v>
@@ -40618,7 +40722,7 @@
     </row>
     <row r="43" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A43" s="65" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="B43" s="65">
         <v>354</v>
@@ -40635,7 +40739,7 @@
     </row>
     <row r="44" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A44" s="65" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="B44" s="65">
         <v>355</v>
@@ -40652,7 +40756,7 @@
     </row>
     <row r="45" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A45" s="65" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="B45" s="65">
         <v>356</v>
@@ -40669,7 +40773,7 @@
     </row>
     <row r="46" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A46" s="65" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="B46" s="65">
         <v>357</v>
